--- a/noticias_estructuradas2.xlsx
+++ b/noticias_estructuradas2.xlsx
@@ -600,7 +600,95 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Los canadienses siguen pagando por el oleoducto Trans Mountain de Trudeau",
+	"subtitulo": "Un subsidio oculto de miles de millones al sector petrolero que podría costarle a cada hogar canadiense más de $1,200",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El gobierno canadiense cobra peajes insuficientes a las petroleras por el uso del oleoducto Trans Mountain, lo que representa un subsidio de hasta $18.8 mil millones pagados por los contribuyentes.",
+		"location": {
+			"label": "Canadá, Alberta, Trans Mountain Pipeline",
+			"type": "líneas",
+			"coordinates": [[53.9333, -116.5765]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "En 2013, el gobierno federal aprobó un acuerdo de peajes para la expansión del oleoducto Trans Mountain (TMX) basado en un costo estimado de $7.4 mil millones. Para 2018, los costos reales superaron las proyecciones, llevando a Kinder Morgan, su entonces dueño, a abandonar el proyecto. En 2019, el gobierno de Trudeau compró el oleoducto sin actualizar los peajes, dejando a los contribuyentes asumiendo gran parte de los costos.",
+			"location": {
+				"label": "Canadá, Alberta",
+				"type": "polígonos",
+				"coordinates": [[52.2833, -117.4690]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El gobierno cobra a las petroleras menos de la mitad de lo necesario para recuperar los $34 mil millones invertidos en TMX. Esto representa un subsidio encubierto de hasta $18.8 mil millones al sector petrolero. Las empresas, en lugar de pagar más, están presionando para reducir aún más los peajes.",
+			"location": {
+				"label": "Canadá, National Energy Board",
+				"type": "punto",
+				"coordinates": [[45.4215, -75.6972]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Un informe del IISD revela que los peajes deberían duplicarse (de $11.37 a $24.53 por barril) para cubrir los costos reales. Sin embargo, contratos a largo plazo hasta 2044 y la competencia con otros oleoductos hacen inviable esta solución.",
+			"location": {
+				"label": "Canadá, British Columbia, Vancouver",
+				"type": "punto",
+				"coordinates": [[49.2827, -123.1207]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Cada hogar canadiense está subsidiando indirectamente a la industria petrolera con aproximadamente $1,248. Si no se actúa, los contribuyentes cargarán permanentemente con este costo, incluso después de una eventual venta del oleoducto.",
+			"location": {
+				"label": "Canadá",
+				"type": "polígonos",
+				"coordinates": [[56.1304, -106.3468]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "Los peajes de oleoductos suelen cubrir costos de capital más un retorno de inversión del 12-15%. TMX es la excepción: sus peajes no alcanzan ni la mitad de lo necesario, lo que transfiere el déficit al erario público.",
+			"location": {
+				"label": "Canadá, Trans Mountain Pipeline",
+				"type": "líneas",
+				"coordinates": [[53.9333, -116.5765]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "El IISD propone un impuesto a las exportaciones petroleras de Alberta ($1-$2 por barril durante 10 años) para recuperar los fondos públicos, medida con precedentes en la industria gasífera de 1986.",
+			"location": {
+				"label": "Canadá, Alberta",
+				"type": "polígonos",
+				"coordinates": [[52.2833, -117.4690]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "La industria argumenta que TMX beneficia a todo el sector petrolero (no solo a sus usuarios directos), con ganancias proyectadas de $49.8 mil millones. Sin embargo, no han ofrecido compensar el subsidio público.",
+			"location": {
+				"label": "Canadá, Alberta, Oil Sands",
+				"type": "área",
+				"coordinates": [[57.0333, -111.6500]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras el mundo avanza hacia energías limpias, Canadá sigue subsidiando una infraestructura petrolera que pronto podría quedar subutilizada. La solución propuesta recuperaría miles de millones, pero requiere voluntad política para enfrentar a la industria.",
+			"location": {
+				"label": "Canadá, Ottawa",
+				"type": "punto",
+				"coordinates": [[45.4215, -75.6972]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -744,7 +832,86 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Canadá aprueba un préstamo 'masivo' de $20 mil millones para el oleoducto Trans-Mountain",
+	"subtitulo": "Un polémico respaldo económico que enfrenta a ambientalistas y economistas contra el gobierno canadiense",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El gobierno canadiense aprobó un préstamo de $20 mil millones para apoyar la expansión del oleoducto Trans-Mountain (TMX), elevando su compromiso financiero total a $50 mil millones. Críticos argumentan que esto contradice los esfuerzos de transición energética y carga a los contribuyentes con riesgos innecesarios.",
+		"location": {
+			"label": "Canadá, Alberta, Rocky Mountains",
+			"type": "líneas",
+			"coordinates": [[52.2833, -117.4690]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Trans-Mountain (TMX), comprado por el gobierno canadiense en 2018 por $34 mil millones CAD, transporta bitumen diluido desde Alberta hasta la costa del Pacífico. Su expansión busca reducir la dependencia económica de Canadá con EE.UU., pero enfrenta críticas por su impacto ambiental y financiero.",
+			"location": {
+				"label": "Canadá, Alberta",
+				"type": "polígonos",
+				"coordinates": [[53.9333, -116.5765]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El préstamo de $20 mil millones, autorizado en diciembre de 2024, ha sido criticado por subsidiar una industria petrolera rentable en medio de una crisis de accesibilidad económica. Grupos ambientalistas como Environmental Defence lo califican como un incumplimiento de la promesa gubernamental de no inyectar más dinero público al proyecto.",
+			"location": {
+				"label": "Canadá, Ottawa",
+				"type": "punto",
+				"coordinates": [[45.4215, -75.6972]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El TMX es el proyecto de infraestructura más caro en la historia de Canadá, con costos 40 veces superiores a las inversiones en energías renovables entre 2014 y 2020. Expertos dudan que recupere su inversión, ya que los peajes cobrados cubren menos de la mitad de los costos de capital.",
+			"location": {
+				"label": "Canadá, Columbia Británica",
+				"type": "punto",
+				"coordinates": [[53.7267, -127.6476]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El préstamo refleja una contradicción entre las promesas climáticas de Canadá y su apoyo continuo a los combustibles fósiles. Además, expone a los contribuyentes a asumir pérdidas millonarias mientras las empresas petroleras se benefician.",
+			"location": {
+				"label": "Canadá",
+				"type": "área",
+				"coordinates": [[56.1304, -106.3468]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "El préstamo es administrado por Export Development Canada, una corporación estatal. Críticos señalan opacidad en los subsidios al sector petrolero, dificultando evaluar el verdadero costo para el erario público.",
+			"location": {
+				"label": "Canadá, Toronto",
+				"type": "punto",
+				"coordinates": [[43.6532, -79.3832]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Defensores del TMX argumentan que el oleoducto reduce la dependencia de EE.UU. y aprovecha la demanda asiática. Sin embargo, datos muestran que dicha demanda no se materializó y el proyecto opera con pérdidas desde su inauguración en mayo de 2024.",
+			"location": {
+				"label": "Asia",
+				"type": "área",
+				"coordinates": [[34.0479, 100.6197]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El TMX simboliza un debate más amplio: invertir en infraestructura obsoleta versus acelerar la transición energética. Mientras el gobierno insiste en su estrategia, expertos advierten que Canadá queda atrás en la carrera global por las energías limpias.",
+			"location": {
+				"label": "Canadá, Vancouver",
+				"type": "punto",
+				"coordinates": [[49.2827, -123.1207]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -912,7 +1079,90 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Mapas de Princeton revelan planes de EE.UU. para una expansión masiva de tuberías de CO2",
+	"subtitulo": "Una red de tuberías del tamaño del oleoducto de Alaska: ¿la solución climática o un riesgo ambiental sin precedentes?",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un informe de la Universidad de Princeton propone la construcción de una red masiva de tuberías para transportar CO2 capturado desde fuentes industriales hasta sitios de almacenamiento. El plan incluye tuberías de 48 pulgadas de diámetro, algunas en tándem, atravesando múltiples estados, con un costo estimado de $135 mil millones para 2050. Sin embargo, críticos señalan que este sistema solo capturaría el 15% de las emisiones actuales de EE.UU. y plantea graves riesgos ambientales y de justicia social.",
+		"location": {
+			"label": "Estados Unidos",
+			"type": "área",
+			"coordinates": [[37.0902, -95.7129]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "La Captura y Almacenamiento de Carbono (CCS) se ha promocionado como una solución clave para alcanzar emisiones 'Net Zero'. El informe 'Net Zero America' de Princeton (2020-21) detalla cómo una red de tuberías de CO2 podría ser esencial para transportar emisiones capturadas desde industrias contaminantes hasta sitios de almacenamiento subterráneo.",
+			"location": {
+				"label": "Princeton, Nueva Jersey, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[40.3573, -74.6672]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El plan propone tuberías masivas que atravesarían comunidades, muchas de ellas desfavorecidas, sin suficiente consulta pública. Además, expertos señalan que la infraestructura requerida sería comparable a toda la industria actual de petróleo y gas, con riesgos significativos de seguridad y un impacto mínimo en la reducción real de emisiones.",
+			"location": {
+				"label": "Sur de Estados Unidos (Louisiana, Mississippi, Alabama, Georgia)",
+				"type": "polígonos",
+				"coordinates": [[
+					[31.2447, -92.1450],
+					[32.3547, -89.3985],
+					[32.8064, -86.7911],
+					[33.0406, -83.6434]
+				]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El informe de Princeton proyecta 68,972 millas de tuberías de CO2 para 2050, incluyendo una línea de 800 millas desde Nueva Jersey a Georgia (similar al oleoducto Trans-Alaska) y múltiples tuberías paralelas de 48 pulgadas en el valle del Mississippi. Louisiana, por ejemplo, tendría 2,329 millas de tuberías.",
+			"location": {
+				"label": "Ruta de tubería Nueva Jersey a Georgia, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[
+					[40.3573, -74.6672],
+					[39.9526, -75.1652],
+					[39.2904, -76.6122],
+					[38.9072, -77.0369],
+					[37.4316, -78.6569],
+					[35.7596, -79.0193],
+					[33.0406, -83.6434]
+				]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este plan refleja una apuesta arriesgada por la CCS como solución climática, pese a su historial de fracasos y altos costos. Además, plantea preocupaciones sobre justicia ambiental, ya que las tuberías atravesarían comunidades vulnerables y podrían generar riesgos de fugas o accidentes, como el ocurrido en Satartia, Mississippi, en 2020.",
+			"location": {
+				"label": "Satartia, Mississippi, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[32.6701, -90.5468]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Defensores argumentan que la CCS es necesaria para descarbonizar industrias pesadas y cumplir metas climáticas. Sin embargo, análisis como el de JPMorgan indican que, incluso con esta infraestructura masiva, solo se capturaría el 15% de las emisiones actuales de EE.UU.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La expansión propuesta de tuberías de CO2 enfrenta desafíos técnicos, económicos y sociales enormes. Mientras algunos la ven como un mal necesario para la transición energética, otros la consideran un 'sistema de alcantarillado' costoso y peligroso que perpetúa la dependencia en combustibles fósiles.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1284,77 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Trump y el resurgimiento del oleoducto Energy East: por qué Canadá no debería desperdiciar miles de millones",
+	"subtitulo": "Un proyecto zombi que podría costarle caro a Canadá en tiempos de incertidumbre energética",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El oleoducto Energy East, un proyecto cancelado en 2017, está siendo reconsiderado como respuesta a las tensiones con EE.UU. bajo el mandato de Trump. Sin embargo, su viabilidad económica y ambiental es cuestionable en un mundo que avanza hacia energías limpias.",
+		"location": {
+			"label": "Canadá, St. John, New Brunswick",
+			"type": "punto",
+			"coordinates": [[45.2733, -66.0633]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Energy East fue propuesto en 2013 por TC Energy (antes TransCanada) para transportar crudo desde Alberta hasta New Brunswick. En ese entonces, el petróleo superaba los 100 dólares por barril y Canadá buscaba reducir su dependencia del mercado estadounidense. El proyecto incluía reconvertir 3,000 km de gasoductos existentes y construir nuevos tramos, sumando 4,600 km en total.",
+			"location": {
+				"label": "Canadá, Alberta",
+				"type": "polígono",
+				"coordinates": [[49.0000, -110.0000], [60.0000, -110.0000], [60.0000, -114.0000], [49.0000, -114.0000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El proyecto enfrentó fuerte oposición en Quebec y comunidades indígenas, irregularidades regulatorias y un desplome del precio del petróleo (86% en 2017). TC Energy lo canceló antes de concluir la evaluación ambiental, alegando 'circunstancias cambiantes'. Ahora, ante las amenazas comerciales de Trump, algunos lo promueven como 'infraestructura patriótica'.",
+			"location": {
+				"label": "Canadá, Quebec",
+				"type": "polígono",
+				"coordinates": [[45.0000, -74.0000], [62.0000, -74.0000], [62.0000, -57.0000], [45.0000, -57.0000]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Revivir Energy East costaría más de 15,000 millones USD, pero el mercado ya no lo justifica: China (mayor importador) reduce su demanda petrolera, los vehículos eléctricos son más baratos, y Canadá ya tiene exceso de capacidad en otros oleoductos como Trans Mountain. Incluso si se construyera, las empresas preferirían rutas más económicas.",
+			"location": {
+				"label": "Canadá",
+				"type": "polígono",
+				"coordinates": [[41.6755, -141.0018], [83.3362, -141.0018], [83.3362, -52.3234], [41.6755, -52.3234]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Invertir en Energy East desviaría recursos públicos de infraestructura crítica como la red eléctrica nacional (que necesita 6,000 km de nuevas líneas para 2050). Además, el petróleo alcanzará su pico de demanda global en 2030, haciendo el proyecto obsoleto al inaugurarse. El fracaso del polémico oleoducto Trans Mountain (35,000 millones USD perdidos) es un precedente alarmante.",
+			"location": {
+				"label": "Canadá",
+				"type": "polígono",
+				"coordinates": [[41.6755, -141.0018], [83.3362, -141.0018], [83.3362, -52.3234], [41.6755, -52.3234]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Canadá debe priorizar soberanía energética real: interconexión eléctrica limpia entre provincias y prepararse para la transición global lejos de los combustibles fósiles. Energy East es un proyecto del pasado que, como zombi, solo traería deudas y conflictos sin resolver divisiones regionales.",
+			"location": {
+				"label": "Canadá",
+				"type": "polígono",
+				"coordinates": [[41.6755, -141.0018], [83.3362, -141.0018], [83.3362, -52.3234], [41.6755, -52.3234]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Algunos argumentan que el oleoducto unificaría al país y aprovecharía la infraestructura gasífera existente. Sin embargo, ni TC Energy —dueña de los gasoductos— ha mostrado interés en financiarlo, y el 'nacionalismo petrolero' ya fracasó con Trans Mountain.",
+			"location": {
+				"label": "Canadá, Alberta",
+				"type": "polígono",
+				"coordinates": [[49.0000, -110.0000], [60.0000, -110.0000], [60.0000, -114.0000], [49.0000, -114.0000]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1498,68 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Página de Acción sobre el Oleoducto Keystone XL y las Arenas Bituminosas",
+	"subtitulo": "La lucha contra el oleoducto que podría cambiar el futuro del clima",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Recopilación de hojas informativas, recursos y acciones de grupos ambientalistas y gobiernos en torno al oleoducto Keystone XL y las arenas bituminosas de Canadá.",
+		"location": {
+			"label": "Canadá, Estados Unidos",
+			"type": "líneas",
+			"coordinates": [[56.1304, -106.3468], [37.0902, -95.7129]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL está diseñado para transportar petróleo de arenas bituminosas desde Alberta, Canadá, hasta refinerías en Estados Unidos. Las arenas bituminosas son una fuente de energía altamente contaminante.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "polígonos",
+				"coordinates": [[52.2833, -117.4690]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Grupos ambientalistas y comunidades locales se oponen al proyecto por su impacto climático, riesgos de derrames y violaciones a derechos indígenas. Empresas y algunos gobiernos lo defienden por su supuesto beneficio económico y energético.",
+			"location": {
+				"label": "Nebraska, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[41.4925, -99.9018]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Organizaciones como NRDC, Greenpeace y Friends of the Earth lideran campañas contra el oleoducto, presentando informes y peticiones para detener su construcción.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El proyecto podría acelerar el cambio climático y afectar tierras agrícolas y fuentes de agua. Su aprobación o rechazo marcará un precedente en la política energética global.",
+			"location": {
+				"label": "Golfo de México, Estados Unidos",
+				"type": "área",
+				"coordinates": [[28.7505, -89.7505]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La batalla contra el Keystone XL simboliza la lucha global por una transición energética justa. Su resolución impactará no solo a Norteamérica, sino al futuro del planeta.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": [[0, 0]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1715,77 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Todo lo que necesitas saber sobre el derrame de arenas bituminosas del oleoducto Pegasus de Exxon [Actualizado]",
+	"subtitulo": "Cuando el caballo alado Pegasus golpeó Arkansas, no brotó inspiración, sino un desastre ambiental.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El oleoducto Pegasus, operado por Exxon Mobil, se rompió en Mayflower, Arkansas, liberando miles de barriles de crudo pesado de las arenas bituminosas de Athabasca. El derrame afectó un vecindario residencial, forzando evacuaciones y amenazando fuentes de agua locales.", 
+		"location": {
+				"label": "Mayflower, Arkansas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[34.9569, -92.4008]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Pegasus, construido en los años 40, transporta bitumen diluido desde las arenas bituminosas de Alberta (Canadá) hasta refinerías en Texas. En 2006, su flujo se invirtió para aliviar la congestión de crudo en Cushing, Oklahoma. En 2009, Exxon Mobil aumentó su capacidad en casi un 50%.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "área",
+				"coordinates": [[55.0000, -115.0000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El derrame liberó crudo pesado en un vecindario residencial, contaminando calles y jardines. Los vapores tóxicos obligaron a evacuar a residentes de 22 hogares. Aunque se intentó contener el crudo para evitar que llegara al Lago Conway, las lluvias complicaron las labores de limpieza.",
+			"location": {
+				"label": "Lago Conway, Arkansas, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[34.9978, -92.4125]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El oleoducto Pegasus sufrió una ruptura, liberando inicialmente 84,000 galones de crudo, aunque la cifra aumentó a más de 189,000 galones combinados con agua. Exxon Mobil lideró las labores de limpieza, pero se criticó su opacidad y restricciones a periodistas.",
+			"location": {
+				"label": "Mayflower, Arkansas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[34.9569, -92.4008]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este derrame evidencia los riesgos de transportar arenas bituminosas, un crudo más corrosivo y difícil de limpiar. Además, resalta la falta de transparencia de las empresas en emergencias ambientales y los posibles impactos en la salud y propiedad de las comunidades afectadas.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Se documentó la muerte de al menos dos patos y la contaminación de una docena más. Los primeros demandantes buscan compensación por la devaluación de sus propiedades. Exxon Mobil evitó pagar a un fondo federal de limpieza debido a un tecnicismo legal.",
+			"location": {
+				"label": "Mayflower, Arkansas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[34.9569, -92.4008]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El derrame del Pegasus es un recordatorio de los peligros de la infraestructura petrolera envejecida y la urgencia de regulaciones más estrictas. Las comunidades merecen transparencia y protección ante estos riesgos, especialmente cuando el petróleo proviene de fuentes altamente contaminantes como las arenas bituminosas.",
+			"location": {
+				"label": "Nederland, Texas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[29.9744, -93.9924]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1975,68 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Destrucción de cementerios sagrados lleva a juez federal a proteger algunos sitios tribales del oleoducto Dakota Access",
+	"subtitulo": "Tribu Sioux de Standing Rock enfrenta la destrucción de sus tierras sagradas mientras el oleoducto avanza",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un juez federal detuvo parcialmente la construcción del oleoducto Dakota Access en tierras federales, pero no pudo proteger un sitio sagrado recientemente identificado por la tribu Sioux de Standing Rock, que fue arrasado durante el fin de semana del Día del Trabajo.",
+		"location": {
+			"label": "Standing Rock Sioux Reservation, Dakota del Norte, Estados Unidos",
+			"type": "polígono",
+			"coordinates": [[46.3906, -100.6398]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Dakota Access (DAPL) transportaría crudo desde Dakota del Norte hasta Illinois, cruzando tierras sagradas y fuentes de agua vitales para la tribu Sioux de Standing Rock. La tribu lleva meses protestando contra el proyecto, argumentando que viola sus derechos y amenaza su patrimonio cultural y ambiental.",
+			"location": {
+				"label": "Dakota del Norte, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[47.6506, -100.4370]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El 3 de septiembre, equipos de construcción destruyeron un sitio sagrado recién identificado por la tribu, donde se encuentran entierros ancestrales y estructuras ceremoniales. Esto ocurrió un día después de que la tribu presentara documentos legales para proteger el área. La seguridad de la empresa utilizó perros y gas pimienta contra manifestantes pacíficos.",
+			"location": {
+				"label": "Cannon Ball, Dakota del Norte, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[46.3906, -100.6398]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Un juez federal ordenó detener la construcción en tierras federales, pero no pudo proteger el sitio sagrado debido a limitaciones jurisdiccionales. La tribu espera una decisión sobre una medida cautelar que detendría toda la construcción cerca de su reserva.",
+			"location": {
+				"label": "Washington, D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso destaca la lucha de las comunidades indígenas por proteger sus tierras y recursos naturales frente a proyectos de infraestructura. También plantea preocupaciones sobre el respeto a los derechos tribales y los impactos ambientales del oleoducto.",
+			"location": {
+				"label": "Missouri River, Estados Unidos",
+				"type": "línea",
+				"coordinates": [[47.6506, -100.4370], [38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras la batalla legal continúa, la tribu Sioux de Standing Rock y sus aliados siguen resistiendo, exigiendo justicia y protección para sus tierras sagradas y fuentes de agua. El caso podría sentar un precedente para futuros conflictos entre proyectos energéticos y comunidades indígenas.",
+			"location": {
+				"label": "Standing Rock Sioux Reservation, Dakota del Norte, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[46.3906, -100.6398]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -1698,7 +2210,77 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Última hora: El permiso del oleoducto Bayou Bridge en Louisiana está un paso más cerca de la realidad mientras grupos planean continuar la resistencia",
+	"subtitulo": "Comunidades y ambientalistas se enfrentan a la industria petrolera en una batalla por el agua y el futuro de Louisiana",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El Departamento de Recursos Naturales de Louisiana (DNR) aprobó un permiso costero para el polémico oleoducto Bayou Bridge, a pesar de la oposición de grupos ambientales y comunidades locales. El proyecto, liderado por Energy Transfer Partners, completaría el tramo final del oleoducto Dakota Access, transportando petróleo desde Dakota del Norte hasta Louisiana. Los opositores advierten sobre riesgos ambientales, de salud y climáticos.",
+		"location": {
+			"label": "New Orleans, Louisiana, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[29.9511, -90.0715]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Bayou Bridge es un proyecto conjunto de Energy Transfer Partners, Phillips 66 y Sunoco Logistics. Formaría la última sección del oleoducto Dakota Access, transportando petróleo extraído mediante fracking en Dakota del Norte hasta refinerías en Louisiana. El proyecto ya cuenta con un permiso costero del DNR, pero aún necesita certificados de calidad de agua y un permiso del Cuerpo de Ingenieros del Ejército de EE.UU.",
+			"location": {
+				"label": "Louisiana, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[31.2448, -92.1450], [28.9286, -89.1388], [33.0198, -94.0436]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Grupos ambientales como el Louisiana Bucket Brigade y Bold Louisiana, junto con comunidades locales como St. James Parish, se oponen al proyecto. Argumentan que la industria petrolera ya ha causado daños significativos a los humedales y la salud pública en la región. Señalan el pobre historial de seguridad de las empresas involucradas y la falta de evaluación de impactos climáticos.",
+			"location": {
+				"label": "St. James Parish, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.0259, -90.7961]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El 3 de abril, el DNR aprobó el permiso costero para el oleoducto, ignorando las protestas de decenas de personas que días antes habían marchado hasta sus oficinas en Nueva Orleans. Los opositores se autodenominan 'protectores del agua', inspirándose en la resistencia de Standing Rock contra el Dakota Access.",
+			"location": {
+				"label": "Oficinas del DNR, New Orleans, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.4583, -91.1403]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Louisiana ya sufre una grave erosión costera, en parte causada por la industria petrolera. Los humedales afectados son cruciales para proteger a comunidades de tormentas e inundaciones. Además, el proyecto perpetuaría la dependencia de combustibles fósiles en un momento de crisis climática.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[30.4000, -91.6000], [29.9000, -91.2000], [30.1000, -91.8000]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Los defensores del proyecto, incluido el gobernador John Bel Edwards, argumentan que la industria petrolera es vital para la economía de Louisiana y que los oleoductos son el método más seguro para transportar petróleo. Sin embargo, datos muestran que las empresas involucradas han tenido numerosos accidentes recientes.",
+			"location": {
+				"label": "Baton Rouge, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.4515, -91.1871]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Aunque el proyecto avanza, los opositores prometen intensificar su resistencia, inspirándose en movimientos como Standing Rock. La batalla refleja un conflicto mayor entre la industria petrolera tradicional y la creciente demanda de transición energética justa en comunidades vulnerables.",
+			"location": {
+				"label": "Standing Rock Sioux Reservation, Dakota del Norte, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[46.0732, -100.6553], [45.7450, -101.2007], [45.9000, -100.5000]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -1860,7 +2442,77 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La red de oleoductos Keystone de TransCanada bajo investigación por reguladores federales",
+	"subtitulo": "¿Pueden las fallas en los oleoductos detener el controvertido proyecto Keystone XL?",
+	"coordinate_system": "EPSG:4326 (WGS 84)",
+	"abstract": {
+		"details": "Reguladores federales investigan a TransCanada por posibles incumplimientos en sus oleoductos Keystone 1 y Gulf Coast (antiguo Keystone XL sur). Los hallazgos podrían influir en la decisión final del presidente Obama sobre el permiso para completar la red de oleoductos.", 
+		"location": {
+				"label": "Hardisty, Alberta, Canadá",
+				"type": "punto",
+				"coordinates": [[52.6667, -111.3000]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "La red de oleoductos Keystone de TransCanada transporta crudo desde Alberta (Canadá) hasta refinerías en Texas (EE.UU.). El proyecto Keystone XL, dividido en dos rutas (norte y sur), enfrenta críticas por fallas técnicas y denuncias de incumplimiento de normas de seguridad.",
+			"location": {
+				"label": "Steele City, Nebraska, EE.UU.",
+				"type": "punto",
+				"coordinates": [[40.0375, -97.6028]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Denuncias de Evan Vokes, exempleado de TransCanada, revelan una 'cultura de incumplimiento' en la empresa. Investigaciones de PHMSA (agencia reguladora) encontraron fallas en soldaduras y protección anticorrosiva en los oleoductos existentes. Activistas y dueños de tierras afectadas exigen pruebas de presión adicionales.",
+			"location": {
+				"label": "Cushing, Oklahoma, EE.UU.",
+				"type": "punto",
+				"coordinates": [[35.9851, -96.7673]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "PHMSA investiga operaciones de Keystone 1 y Gulf Coast Pipeline. Fallas previas incluyen corrosión y 12 derrames en los primeros dos años de Keystone 1. TransCanada asegura que corrigió los problemas, pero grupos como Public Citizen documentaron reparaciones cuestionables.",
+			"location": {
+				"label": "Golfo de Texas, EE.UU.",
+				"type": "área",
+				"coordinates": [[28.5000, -96.0000]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Los resultados podrían afectar la aprobación final de Keystone XL norte, un proyecto clave para la industria petrolera canadiense pero criticado por riesgos ambientales. Además, revela fallas sistémicas en la supervisión de infraestructura crítica.",
+			"location": {
+				"label": "Washington D.C., EE.UU.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "TransCanada insiste en que la seguridad es su prioridad y atribuye fallas a interferencias eléctricas entre oleoductos. PHMSA no ha ordenado nuevas pruebas ni multas, aunque reserva ese derecho.",
+			"location": {
+				"label": "Calgary, Alberta, Canadá",
+				"type": "punto",
+				"coordinates": [[51.0447, -114.0719]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras Obama decide sobre Keystone XL, las investigaciones exponen un patrón de incumplimientos que pone en duda la integridad de la red existente. La falta de supervisión rigurosa aumenta riesgos para comunidades y medio ambiente.",
+			"location": {
+				"label": "Douglas, Texas, EE.UU.",
+				"type": "punto",
+				"coordinates": [[33.2476, -96.1078]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2672,77 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El contratista del Departamento de Estado para Keystone XL, ERM, aprobó el polémico oleoducto de BP en el Caspio que no cumplió con las promesas de empleo",
+	"subtitulo": "Historia repetida: consultora vinculada a la industria aprueba proyectos controvertidos con consecuencias ambientales y sociales",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "ERM Group, la misma consultora que avaló el oleoducto Baku-Tbilisi-Ceyhan (BTC) en 2002, ahora respalda el proyecto Keystone XL para el Departamento de Estado de EE.UU. Ambos proyectos han sido criticados por sus impactos ambientales, sociales y por no cumplir las promesas de empleo.",
+		"location": {
+			"label": "Baku, Azerbaiyán; Tbilisi, Georgia; Ceyhan, Turquía",
+			"type": "líneas",
+			"coordinates": [[40.4093, 49.8671], [41.7151, 44.8271], [37.0244, 35.8175]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "ERM Group, una consultora ambiental con vínculos históricos con la industria del tabaco y petroleras como ExxonMobil y Koch Industries, ha sido clave en la aprobación de proyectos controvertidos. En 2002, avaló el oleoducto BTC, y ahora hace lo mismo con Keystone XL.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": []
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El oleoducto BTC, promovido como un proyecto generador de empleo, solo creó 100 puestos fijos en Georgia. Además, ha causado daños ambientales, como derrames y explosiones, y violaciones de derechos humanos, incluyendo expropiaciones de tierras sin compensación justa.",
+			"location": {
+				"label": "Borjomi Mountain Gorge, Georgia",
+				"type": "polígonos",
+				"coordinates": [[41.8396, 43.3942]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "ERM, la consultora que evaluó el BTC, ahora respalda Keystone XL, ignorando antecedentes de impactos negativos. El BTC ha tenido explosiones, derrames y conflictos sociales, similares a los temores que rodean a Keystone XL.",
+			"location": {
+				"label": "Alberta, Canadá; Port Arthur, Texas, EE.UU.",
+				"type": "líneas",
+				"coordinates": [[53.9333, -116.5765], [29.8849, -93.9399]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El historial de ERM y BTC muestra un patrón de aprobaciones cuestionables para proyectos petroleros, con consecuencias graves. Esto plantea dudas sobre la imparcialidad de los estudios que respaldan Keystone XL.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": []
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La historia del BTC es una advertencia sobre los riesgos de confiar en consultoras con conflictos de interés. Keystone XL podría repetir los mismos errores si no se evalúan críticamente sus impactos reales.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": []
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Los defensores de estos proyectos argumentan que son vitales para la seguridad energética y el desarrollo económico, aunque la evidencia muestra que los beneficios a menudo se exageran.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": []
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2830,68 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Supertanques, terremotos y tsunamis: Enbridge no tiene un plan de respuesta ante derrames para el oleoducto Northern Gateway",
+	"subtitulo": "La falta de preparación de Enbridge para emergencias pone en riesgo los ecosistemas de Columbia Británica",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Enbridge, la empresa detrás del proyecto del oleoducto Northern Gateway, no ha podido demostrar cómo manejaría derrames en un trayecto de 1,172 km que cruza más de 770 cursos de agua en Columbia Británica.",
+		"location": {
+			"label": "Columbia Británica, Canadá",
+			"type": "polígonos",
+			"coordinates": [[54.000000, -125.000000]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Northern Gateway, propuesto por Enbridge, está diseñado para transportar petróleo a través de 1,172 km en Columbia Británica, atravesando más de 770 ríos y arroyos. El proyecto ha generado preocupación por su impacto ambiental.",
+			"location": {
+				"label": "Columbia Británica, Canadá",
+				"type": "polígonos",
+				"coordinates": [[54.000000, -125.000000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Enbridge no ha presentado un plan claro para prevenir o responder a derrames de petróleo, especialmente en zonas propensas a terremotos y tsunamis. Esto ha generado críticas por parte de comunidades locales y ambientalistas.",
+			"location": {
+				"label": "Columbia Británica, Canadá",
+				"type": "polígonos",
+				"coordinates": [[54.000000, -125.000000]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La empresa no ha podido demostrar que sus prácticas de prevención y limpieza de derrames sean efectivas, lo que aumenta el riesgo de contaminación en ecosistemas sensibles.",
+			"location": {
+				"label": "Columbia Británica, Canadá",
+				"type": "polígonos",
+				"coordinates": [[54.000000, -125.000000]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El oleoducto atraviesa áreas ecológicamente sensibles y territorios indígenas. Un derrame podría tener consecuencias devastadoras para la biodiversidad y las comunidades locales.",
+			"location": {
+				"label": "Columbia Británica, Canadá",
+				"type": "polígonos",
+				"coordinates": [[54.000000, -125.000000]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La falta de un plan robusto de respuesta ante derrames por parte de Enbridge pone en duda la viabilidad ambiental del proyecto y exige mayor transparencia y responsabilidad.",
+			"location": {
+				"label": "Columbia Británica, Canadá",
+				"type": "polígonos",
+				"coordinates": [[54.000000, -125.000000]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -2260,7 +3043,68 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Activistas republicanos: Los vínculos de Rick Perry con el oleoducto Bakken podrían costarle apoyo en los caucus de Iowa",
+	"subtitulo": "Un conflicto entre libertarios y republicanos corporativos se enciende por el polémico oleoducto en Iowa",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Rick Perry, exgobernador de Texas y posible candidato presidencial republicano, fue nombrado director de Energy Transfer Partners, empresa que busca construir un oleoducto en Iowa. Esto podría afectar su apoyo en los caucus de 2016 debido a la oposición de agricultores y libertarios.", 
+		"location": {
+				"label": "Iowa, Estados Unidos",
+				"type": "área",
+				"coordinates": [[41.8780, -93.0977]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Rick Perry, exgobernador de Texas y posible candidato presidencial en 2016, fue nombrado director de Energy Transfer Partners (ETP), una empresa que busca construir un oleoducto para transportar crudo desde Dakota del Norte hasta Iowa. El proyecto enfrenta resistencia por el uso de tierras privadas.",
+			"location": {
+				"label": "Texas, Estados Unidos",
+				"type": "área",
+				"coordinates": [[31.9686, -99.9018]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El oleoducto, que pasaría por 18 condados de Iowa, ha generado oposición de agricultores y libertarios republicanos, quienes rechazan el uso de expropiaciones forzosas para beneficio corporativo. Grupos como la Asociación de Propietarios de Tierras Agrícolas de Iowa y la Oficina Agrícola de Iowa han advertido sobre los riesgos.",
+			"location": {
+				"label": "Jefferson County, Iowa, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[41.0067, -91.9659]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Perry, con bajos números en las encuestas, podría perder apoyo clave en Iowa por su vinculación con ETP. Incluso republicanos como el legislador Bobby Kaufmann han criticado el proyecto, señalando que vulnera derechos de propiedad.",
+			"location": {
+				"label": "Wilton, Iowa, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[41.5889, -91.0168]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Iowa es el primer estado en votar en las primarias republicanas. Si Perry aliena a votantes rurales y libertarios, su ya débil campaña podría colapsar antes de empezar. Además, el conflicto refleja la división entre el ala corporativa y libertaria del partido.",
+			"location": {
+				"label": "Des Moines, Iowa, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[41.5868, -93.6250]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El oleoducto Bakken se ha convertido en un tema divisivo en Iowa. Para Perry, apoyarlo públicamente podría ser un riesgo político, pero su silencio también lo vincularía a los intereses corporativos que muchos republicanos de base rechazan.",
+			"location": {
+				"label": "Fairfield, Iowa, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[41.0086, -91.9657]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -2438,7 +3282,86 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La batalla contra el oleoducto Bayou Bridge amenaza con convertirse en el Standing Rock de la cuenca Atchafalaya en Louisiana",
+	"subtitulo": "Comunidades y activistas advierten sobre el riesgo ambiental y cultural en el mayor humedal natural de EE.UU.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El oleoducto Bayou Bridge, propuesto por Energy Transfer Partners, enfrenta fuerte oposición por su impacto potencial en la cuenca Atchafalaya, un área de patrimonio nacional y el mayor humedal natural de EE.UU. Los opositores comparan la lucha con la resistencia de Standing Rock.", 
+		"location": {
+				"label": "Atchafalaya Basin, Louisiana, EE.UU.",
+				"type": "área",
+				"coordinates": [[30.2908, -91.7199]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Bayou Bridge sería el tramo final del controvertido Dakota Access Pipeline, transportando petróleo desde Dakota del Norte hasta refinerías en Louisiana. Atravesaría la cuenca Atchafalaya, hogar de especies en peligro y clave para la industria pesquera local.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, EE.UU.",
+				"type": "área",
+				"coordinates": [[30.2908, -91.7199]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Opositores argumentan que el proyecto beneficia poco a Louisiana, creando solo 12 empleos permanentes mientras pone en riesgo el ecosistema y la cultura cajún. Señalan que el petróleo probablemente se exportaría, sin beneficio local.",
+			"location": {
+				"label": "Baton Rouge, Louisiana, EE.UU.",
+				"type": "punto",
+				"coordinates": [[30.4515, -91.1871]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "En una audiencia pública el 12 de enero, más de 400 personas, principalmente opositores, testificaron durante seis horas. Activistas advirtieron que aprobar el permiso desencadenaría una resistencia similar a Standing Rock.",
+			"location": {
+				"label": "Baton Rouge, Louisiana, EE.UU.",
+				"type": "punto",
+				"coordinates": [[30.4515, -91.1871]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La cuenca Atchafalaya ya tiene miles de oleoductos y pozos abandonados. Un derrame podría dañar irreversiblemente este frágil ecosistema y la economía local basada en la pesca de cangrejos y el turismo natural.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, EE.UU.",
+				"type": "área",
+				"coordinates": [[30.2908, -91.7199]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Expertos señalaron que las agencias reguladoras no tienen recursos para supervisar adecuadamente los oleoductos existentes. Pidieron no aprobar nuevos permisos hasta resolver problemas ambientales actuales.",
+			"location": {
+				"label": "Louisiana, EE.UU.",
+				"type": "polígono",
+				"coordinates": [[31.2448, -92.1450], [29.1805, -89.5174], [33.0198, -94.0433]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Partidarios del proyecto, incluyendo a la exsenadora Mary Landrieu, argumentan que los oleoductos son el método más seguro para transportar petróleo y que beneficiaría la economía estatal. Landrieu recibió donaciones de Energy Transfer Partners.",
+			"location": {
+				"label": "St. James Parish, Louisiana, EE.UU.",
+				"type": "polígono",
+				"coordinates": [[30.0255, -90.7961], [29.9460, -90.8810], [30.1080, -91.0080]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La audiencia reflejó un cambio en el diálogo sobre energía y clima post-Standing Rock. Mientras los opositores insisten en la transición a energías renovables, la batalla por Bayou Bridge podría marcar un nuevo capítulo en la resistencia contra proyectos de combustibles fósiles.",
+			"location": {
+				"label": "Louisiana, EE.UU.",
+				"type": "polígono",
+				"coordinates": [[31.2448, -92.1450], [29.1805, -89.5174], [33.0198, -94.0433]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -2558,7 +3481,86 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "TransCanada, propietaria de Keystone XL, gana licitación para gasoducto submarino en el Golfo de México",
+	"subtitulo": "Un nuevo megaproyecto energético cruza fronteras bajo el radar mediático, mientras México importa más gas frackeado de Texas.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "TransCanada, en joint venture con Sempra Energy, construirá un gasoducto submarino de 500 millas desde Texas hasta Tuxpan (México) para transportar gas obtenido mediante fracking. El proyecto, con contrato de 25 años, evita zonas violentas en la frontera y se suma a la red de infraestructura energética que la empresa expande en México con escaso escrutinio público.", 
+		"location": {
+				"label": "Golfo de México, entre Brownsville (Texas, EE.UU.) y Tuxpan (Veracruz, México)",
+				"type": "líneas",
+				"coordinates": [[25.9018, -97.4975], [20.9577, -97.4080]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "TransCanada, conocida por el polémico oleoducto Keystone XL, impulsa ahora infraestructura gasífera entre EE.UU. y México. La reforma energética mexicana de 2013 (apoyada por Hillary Clinton como Secretaria de Estado) permitió la privatización del sector, abriendo puertas a proyectos como este.",
+			"location": {
+				"label": "México",
+				"type": "polígonos",
+				"coordinates": [[23.6345, -102.5528]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El gasoducto Sur de Texas-Tuxpan evita Matamoros (zona de narcoviolencia) mediante una ruta submarina, pero implica mayor dependencia de gas obtenido por fracking en Texas. Grupos ambientalistas alertan sobre precedentes legales que permiten segmentar proyectos para evadir evaluaciones ambientales rigurosas.",
+			"location": {
+				"label": "Matamoros (Tamaulipas, México) / Eagle Ford Shale (Texas, EE.UU.)",
+				"type": "puntos",
+				"coordinates": [[25.8690, -97.5027], [28.9346, -97.9893]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "TransCanada y Sempra ganaron la licitación de $2.1 mil millones para construir el gasoducto, que transportará gas a México bajo un contrato de 25 años con la estatal CFE. El proyecto no requiere permiso del Departamento de Estado (solo de FERC), siguiendo estrategias legales cuestionadas en otros casos.",
+			"location": {
+				"label": "Tuxpan (Veracruz, México)",
+				"type": "punto",
+				"coordinates": [[20.9577, -97.4080]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Refleja la expansión silenciosa de infraestructura fósil transfronteriza con mínimo debate público. México incrementa su dependencia energética de EE.UU., mientras empresas aprovechan vacíos legales para evitar revisiones ambientales integrales.",
+			"location": {
+				"label": "Frontera EE.UU.-México",
+				"type": "líneas",
+				"coordinates": [[25.9018, -97.4975], [20.9577, -97.4080]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "La 'segmentación' (dividir proyectos en partes menores) permite evadir evaluaciones ambientales profundas bajo NEPA. Un caso judicial previo (Enbridge Energy) sentó precedente para esta estrategia, aunque firmas legales advierten riesgos jurídicos.",
+			"location": {
+				"label": "Washington D.C., EE.UU. (sedes regulatorias)",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Expertos señalan que incluso políticas fronterizas duras (como el muro de Trump) no detendrían estos proyectos, pues la infraestructura energética opera 'bajo tierra'. La demanda energética mexicana justifica inversiones pese a controversias ambientales.",
+			"location": {
+				"label": "Frontera EE.UU.-México",
+				"type": "líneas",
+				"coordinates": [[25.9018, -97.4975], [20.9577, -97.4080]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras Keystone XL acapara titulares, proyectos como Sur de Texas-Tuxpan avanzan con menos obstáculos, reconfigurando la geopolítica energética de Norteamérica. El caso expone tensiones entre integración comercial, seguridad energética y sustentabilidad.",
+			"location": {
+				"label": "Norteamérica",
+				"type": "polígonos",
+				"coordinates": [[47.0000, -120.0000]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -2698,7 +3700,86 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Juez federal detiene instalación del oleoducto Bayou Bridge, pero fotos muestran daños ya infligidos",
+	"subtitulo": "La batalla por el Atchafalaya: cómo un oleoducto amenaza el mayor humedal fluvial de EE.UU.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un juez federal detuvo la construcción del oleoducto Bayou Bridge en la cuenca del Atchafalaya, Louisiana, tras una demanda que alega daños ambientales irreparables. Sin embargo, imágenes muestran la destrucción ya causada en este ecosistema crítico.", 
+		"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.4100, -91.7500]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Bayou Bridge es la última etapa del polémico Dakota Access, diseñado para transportar petróleo desde Dakota del Norte hasta Louisiana. Su tramo final cruzaría 162.5 millas a través de la cuenca del Atchafalaya, un área de patrimonio nacional y el mayor humedal fluvial de EE.UU.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.4100, -91.7500]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Grupos ambientalistas demandaron al Cuerpo de Ingenieros del Ejército por emitir permisos sin evaluar adecuadamente el impacto ambiental. Alegan que la construcción ya ha destruido cipreses centenarios y alterado el flujo natural del agua con terraplenes que actúan como represas.",
+			"location": {
+				"label": "Corte Distrital de EE.UU., Baton Rouge, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.4433, -91.1874]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La jueza Shelly Dick emitió una orden judicial temporal deteniendo las obras en la cuenca, pero las imágenes revelan extensas áreas deforestadas y montañas de tierra acumulada que ya han alterado irreversiblemente partes del ecosistema.",
+			"location": {
+				"label": "Ruta del oleoducto Bayou Bridge, Lake Charles a St. James, Louisiana, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[30.2135, -93.2044], [30.0300, -90.8319]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La cuenca del Atchafalaya alberga biodiversidad única y sustenta la industria local de langostinos. Su degradación afectaría medios de vida y agravaría crisis climáticas al destruir humedales que absorben inundaciones y CO₂.",
+			"location": {
+				"label": "Louisiana Crawfish Producers Association-West, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.2241, -92.0198]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "Los 'spoil banks' (terraplenes de excavación) creados durante la construcción bloquean el flujo hídrico natural, estancando aguas y creando zonas muertas. Estos daños son acumulativos con otros oleoductos existentes en la región.",
+			"location": {
+				"label": "Zonas afectadas por spoil banks, Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[[30.4100, -91.7500], [30.4200, -91.7400], [30.4150, -91.7300]]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Energy Transfer Partners argumenta que el proyecto generará empleos y fortalecerá la independencia energética. El gobernador John Bel Edwards apoya el oleoducto, aunque no se ha pronunciado sobre el fallo judicial.",
+			"location": {
+				"label": "Oficina del Gobernador de Louisiana, Baton Rouge, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.4571, -91.1872]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras la batalla legal continúa, las imágenes del daño ambiental evidencian que algunas pérdidas ya son irreversibles. El caso podría sentar precedentes sobre cómo se evalúan proyectos energéticos en ecosistemas frágiles.",
+			"location": {
+				"label": "Atchafalaya Basin National Heritage Area, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.4100, -91.7500]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -2960,7 +4041,77 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Cómo una firma de relaciones públicas de propiedad británica ayudó a 'aplastar' las protestas contra el oleoducto en Uganda",
+	"subtitulo": "Una campaña de desinformación financiada por una petrolera y ejecutada por una agencia de PR británica silenció a activistas en Uganda mientras enfrentaban arrestos y violencia",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Una firma de relaciones públicas sudafricana, propiedad parcial de la británica WPP, diseñó una campaña para contrarrestar las críticas al oleoducto EACOP de TotalEnergies en Uganda, retratando a activistas ambientales como 'haters'. Mientras tanto, varios de esos activistas fueron arrestados, golpeados o amenazados.",
+		"location": {
+			"label": "Kampala, Uganda",
+			"type": "punto",
+			"coordinates": [[0.3136, 32.5811]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto EACOP, un proyecto de 1,443 km para transportar petróleo desde Uganda hasta Tanzania, ha generado protestas por desplazamientos de comunidades, daños ambientales y su impacto climático. TotalEnergies contrató a MetropolitanRepublic, una agencia de PR vinculada a WPP, para manejar su imagen.",
+			"location": {
+				"label": "Área del Lago Albert, Uganda",
+				"type": "polígono",
+				"coordinates": [[1.6375, 31.3281], [1.6375, 31.3281]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La campaña 'Action for Sustainability' de MetropolitanRepublic usó imágenes de activistas críticos del oleoducto, llamándolos 'haters', mientras estos enfrentaban represión estatal. Al menos 8 de los 15 activistas mostrados en el material sufrieron arrestos, golpizas o amenazas.",
+			"location": {
+				"label": "Kampala, Uganda",
+				"type": "punto",
+				"coordinates": [[0.3136, 32.5811]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "MetropolitanRepublic coordinó una red de influencers pagados para promover el hashtag #ActionForSustainability, simulando apoyo orgánico al proyecto, mientras los activistas reales eran reprimidos. La campaña omitió divulgar su financiamiento corporativo, violando regulaciones locales.",
+			"location": {
+				"label": "Uganda",
+				"type": "área",
+				"coordinates": [[1.3733, 32.2903]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso expone cómo las estrategias de PR corporativas pueden estigmatizar a movimientos sociales legítimos y enmascarar intereses petroleros bajo narrativas de 'sostenibilidad', mientras gobiernos aliados reprimen disidencia. WPP, dueña parcial de MetropolitanRepublic, promueve públicamente estándares éticos que esta campaña incumplió.",
+			"location": {
+				"label": "Londres, Reino Unido (sede de WPP)",
+				"type": "punto",
+				"coordinates": [[51.5074, -0.1278]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "TotalEnergies afirma que su campaña buscaba informar sobre sus iniciativas de sostenibilidad, no silenciar críticas. MetropolitanRepublic defiende que su trabajo era 'presentar ambos lados', aunque admite que el uso de imágenes de activistas pudo malinterpretarse.",
+			"location": {
+				"label": "París, Francia (sede de TotalEnergies)",
+				"type": "punto",
+				"coordinates": [[48.8566, 2.3522]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras Uganda avanza con el polémico oleoducto, la alianza entre petroleras, gobiernos y firmas de PR globales evidencia cómo se manipula la opinión pública en países vulnerables. Los activistas, pese a la represión, prometen seguir resistiendo: 'No nos rendiremos hasta que esto termine'.",
+			"location": {
+				"label": "Tanzania (trayecto final del oleoducto EACOP)",
+				"type": "línea",
+				"coordinates": [[-6.3690, 34.8888]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -3054,7 +4205,77 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El oleoducto Keystone de TransCanada reanuda operaciones bajo supervisión tras derrame en Dakota del Sur",
+	"subtitulo": "Un derrame de petróleo reaviva el debate sobre la seguridad de los oleoductos y los riesgos ambientales",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "TransCanada recibió permiso para reiniciar el oleoducto Keystone una semana después de un derrame de 16,800 galones en Dakota del Sur. El incidente ha generado preocupación sobre la seguridad de los oleoductos y ha dado argumentos a grupos que se oponen a la expansión del proyecto Keystone XL.",
+		"location": {
+			"label": "Freeman, South Dakota, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[43.3519, -97.4373]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone transporta crudo desde Canadá hasta Estados Unidos. Tras un derrame de 168,000 galones de dilbit (petróleo de arenas bituminosas) cerca de Freeman, Dakota del Sur, el oleoducto fue cerrado temporalmente. Este incidente reavivó el debate sobre la seguridad de los oleoductos y la fiabilidad de los sistemas de detección de fugas.",
+			"location": {
+				"label": "Freeman, South Dakota, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[43.3519, -97.4373]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Evan Vokes, exingeniero de TransCanada y denunciante, había advertido sobre fallas en las soldaduras de transición del oleoducto, que conectan tuberías de diferente grosor. Estas soldaduras son más propensas a agrietarse, especialmente bajo estrés. A pesar de sus advertencias, ni la empresa ni los reguladores tomaron medidas suficientes.",
+			"location": {
+				"label": "Dakota del Sur, Estados Unidos",
+				"type": "área",
+				"coordinates": [[44.5, -100.0]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El derrame ocurrió debido a una anomalía en una soldadura de transición, confirmando las advertencias de Vokes. El sistema de detección de fugas no alertó a tiempo, lo que permitió que el petróleo se filtrara hasta que un propietario local lo notificó. TransCanada reinició operaciones con presión reducida y bajo supervisión regulatoria.",
+			"location": {
+				"label": "Keystone Pipeline, Dakota del Sur, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[43.3519, -97.4373], [43.0, -97.0]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este incidente refuerza las preocupaciones sobre la seguridad de los oleoductos y la capacidad de las empresas para cumplir con las regulaciones. Además, afecta la credibilidad de TransCanada en su intento por construir el polémico oleoducto Keystone XL, que ha enfrentado oposición por riesgos ambientales y violaciones a derechos indígenas.",
+			"location": {
+				"label": "Estados Unidos y Canadá",
+				"type": "área",
+				"coordinates": [[45.0, -100.0], [55.0, -120.0]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El derrame en Dakota del Sur no solo expone fallas técnicas, sino también deficiencias en la regulación y supervisión de infraestructura crítica. Mientras grupos ambientalistas y tribus indígenas presionan para detener el Keystone XL, este incidente podría influir en decisiones judiciales y políticas futuras.",
+			"location": {
+				"label": "Dakota del Sur, Estados Unidos",
+				"type": "área",
+				"coordinates": [[44.5, -100.0]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "TransCanada asegura que ha implementado medidas de seguridad y opera bajo estricta supervisión. Sin embargo, críticos argumentan que los sistemas de detección son insuficientes y que la empresa tiene un historial de incumplimientos.",
+			"location": {
+				"label": "TransCanada, Calgary, Canadá",
+				"type": "punto",
+				"coordinates": [[51.0447, -114.0719]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -3192,7 +4413,86 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Defensores de la seguridad en oleoductos dicen que el gobierno 'ha fallado' al público tras derrame de petróleo en la costa de Louisiana",
+	"subtitulo": "Un derrame de diesel no reportado durante semanas expone fallas en la transparencia y responsabilidad ambiental",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un derrame de 315,000 galones de diesel en humedales cerca de Nueva Orleans, causado por un oleoducto corroído, no fue informado al público durante semanas, afectando a miles de peces y decenas de animales silvestres. Grupos ambientalistas critican la falta de transparencia y acción regulatoria.",
+		"location": {
+			"label": "Louisiana, Estados Unidos, cerca de Nueva Orleans",
+			"type": "punto",
+			"coordinates": [[29.9511, -90.0715]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El derrame ocurrió el 27 de diciembre de 2021 en un oleoducto propiedad de Collins Pipeline Co., subsidiaria de PBF Energy. Reguladores federales ya habían identificado corrosión severa en el oleoducto en 2020, pero las reparaciones se retrasaron.",
+			"location": {
+				"label": "Louisiana, Estados Unidos, humedales al sureste de Nueva Orleans",
+				"type": "punto",
+				"coordinates": [[29.9511, -90.0715]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El Pipeline Safety Trust denunció que ni las agencias estatales ni federales alertaron al público a tiempo, a pesar de conocer el derrame desde el primer día. La falta de información impidió documentar el impacto real y restó oportunidades de supervisión pública.",
+			"location": {
+				"label": "Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[29.9511, -90.0715]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El derrame contaminó humedales y estanques, matando a 2,523 peces y 96 animales. Aunque se rehabilitaron 169 animales, no hay seguimiento de su supervivencia a largo plazo. El oleoducto ya fue reparado y reiniciado.",
+			"location": {
+				"label": "Humedales cerca de Nueva Orleans, Louisiana",
+				"type": "polígonos",
+				"coordinates": [[29.9511, -90.0715]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El incidente revela fallas en la regulación de infraestructura crítica cerca de fuentes de agua potable y comunidades vulnerables. Además, ocurrió días después de que se aprobara un permiso para una planta de biodiésel de la misma empresa, que generará más contaminación en una zona ya afectada por el 'Callejón del Cáncer'.",
+			"location": {
+				"label": "St. Bernard Parish, Louisiana",
+				"type": "área",
+				"coordinates": [[29.8577, -89.8095]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Las agencias estatales solo compartieron fotos y datos limitados tras presión mediática. No hay imágenes públicas del impacto inicial ni de animales muertos, ya que estos se consideran 'evidencia' legal.",
+			"location": {
+				"label": "Louisiana Department of Environmental Quality",
+				"type": "punto",
+				"coordinates": [[30.4515, -91.1871]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "La empresa contratada para rehabilitar animales destacó el 'lado positivo' de liberar especies limpias, aunque estudios previos cuestionan la efectividad real de estos esfuerzos tras derrames.",
+			"location": {
+				"label": "Wildlife Response Service LLC, Texas",
+				"type": "punto",
+				"coordinates": [[31.9686, -99.9018]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El caso expone la desconexión entre las metas climáticas de Louisiana y la aprobación de proyectos contaminantes, junto con una falta sistémica de transparencia que perjudica a las comunidades y ecosistemas vulnerables.",
+			"location": {
+				"label": "Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[31.2448, -92.1450]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -3346,7 +4646,77 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Exclusivo: El oleoducto Keystone 1 de TransCanada sufrió una grave corrosión solo dos años después de su operación, con un 95% de desgaste en un punto",
+	"subtitulo": "Documentos revelan fallas críticas en un oleoducto clave mientras TransCanada busca expandir su red",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Documentos obtenidos por DeSmogBlog muestran una alarmante tasa de corrosión en el oleoducto Keystone 1 de TransCanada. Una inspección obligatoria reveló que una sección de la pared del oleoducto se había corroído en un 95%, dejándola peligrosamente delgada en varias áreas. TransCanada cerró el oleoducto de inmediato, pero las causas de la corrosión no han sido reveladas al público.",
+		"location": {
+			"label": "Missouri, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[38.5737, -92.6038]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone 1, operado por TransCanada, transporta crudo desde Canadá hasta Estados Unidos. Es parte de una red más grande que incluye el polémico proyecto Keystone XL. Los oleoductos son clave para la industria energética, pero su mal mantenimiento puede provocar fugas o rupturas con graves consecuencias ambientales.",
+			"location": {
+				"label": "América del Norte (Canadá - Estados Unidos)",
+				"type": "líneas",
+				"coordinates": [[56.1304, -106.3468], [37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "TransCanada y reguladores federales no han explicado públicamente la causa de la corrosión extrema detectada en el oleoducto. Documentos obtenidos vía FOIA revelan que se omitió información clave, incluyendo posibles derrames. Esto genera dudas sobre la transparencia de la empresa y las agencias reguladoras.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos (PHMSA)",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Una inspección en 2013 encontró que partes del oleoducto Keystone 1 tenían hasta un 95% de desgaste en su pared, un nivel crítico que podría haber llevado a una ruptura. TransCanada cerró el oleoducto temporalmente, pero no informó completamente al público sobre los riesgos.",
+			"location": {
+				"label": "Ruta del oleoducto Keystone 1, Missouri, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[38.5737, -92.6038], [38.7128, -90.2422]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La corrosión acelerada en un oleoducto nuevo sugiere fallas en su construcción o mantenimiento. Esto es relevante porque TransCanada busca aprobar más proyectos, incluyendo Keystone XL. Si la empresa no cumple con los estándares de seguridad, podría poner en riesgo el medio ambiente y comunidades.",
+			"location": {
+				"label": "South Dakota, Estados Unidos (sitio de disputa por Keystone XL)",
+				"type": "polígono",
+				"coordinates": [[43.9695, -99.9018], [45.9436, -99.9018], [45.9436, -96.4539], [43.9695, -96.4539]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Expertos como Richard Kuprewicz reconocen que TransCanada actuó correctamente al cerrar el oleoducto al detectar el problema. Sin embargo, cuestionan por qué no se identificó la corrosión antes de que alcanzara niveles críticos.",
+			"location": {
+				"label": "Estados Unidos (varios puntos de análisis)",
+				"type": "puntos",
+				"coordinates": [[47.7511, -120.7401], [40.7128, -74.0060]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El caso expone problemas de transparencia y cumplimiento normativo en la industria de oleoductos. Mientras TransCanada busca expandir sus operaciones, reguladores y ciudadanos exigen mayor responsabilidad para evitar riesgos ambientales y económicos.",
+			"location": {
+				"label": "Alberta, Canadá (sede de TransCanada)",
+				"type": "punto",
+				"coordinates": [[51.0486, -114.0708]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -3472,7 +4842,77 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Noticia de última hora: Las esperanzas de TransCanada para el oleoducto 'Zombi' Keystone XL reviven mientras Dakota del Sur valida un permiso vencido",
+	"subtitulo": "Una decisión controvertida reaviva el debate sobre seguridad ambiental y derechos indígenas en Dakota del Sur",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "La Comisión de Servicios Públicos de Dakota del Sur (PUC) votó unánimemente para mantener vivas las esperanzas de TransCanada con el oleoducto Keystone XL al validar un permiso de certificación que había expirado en 2014. Grupos indígenas y ambientalistas protestaron la decisión, calificando el proyecto como un 'oleoducto zombi'.",
+		"location": {
+			"label": "Dakota del Sur, Estados Unidos",
+			"type": "área",
+			"coordinates": [[44.5, -100.0]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL, propiedad de TransCanada, fue diseñado para transportar crudo desde Canadá hasta Estados Unidos. En 2015, el entonces presidente Barack Obama rechazó el proyecto por considerarlo perjudicial para el medio ambiente. Sin embargo, en 2017, el presidente Donald Trump revirtió la decisión, pero el proyecto enfrentó múltiples desafíos legales y finalmente fue cancelado en 2021 por el presidente Joe Biden.",
+			"location": {
+				"label": "Estados Unidos, Canadá",
+				"type": "líneas",
+				"coordinates": [[49.0, -100.0], [39.0, -98.0]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La decisión de la PUC de Dakota del Sur de validar un permiso vencido ha generado fuertes críticas por parte de comunidades indígenas y grupos ambientalistas. Alegaron que TransCanada tiene un historial de incumplimiento de normas de construcción y que un posible derrame de bitumen diluido —más tóxico que el crudo convencional— podría contaminar fuentes de agua vitales, como el río Missouri.",
+			"location": {
+				"label": "Dakota del Sur, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[44.5, -100.0]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La PUC determinó que TransCanada aún puede cumplir con las condiciones del permiso, a pesar de su expiración en 2014. El presidente de la comisión, Chris Nelson, argumentó que la negativa de un permiso presidencial no era motivo para invalidar la certificación, ya que un futuro presidente podría otorgarlo.",
+			"location": {
+				"label": "Pierre, Dakota del Sur, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[44.3683, -100.3510]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este caso podría sentar un precedente sobre cómo se manejan permisos vencidos para grandes proyectos de infraestructura. Además, plantea preocupaciones sobre la seguridad de los oleoductos y los derechos de las comunidades indígenas, que se oponen al proyecto por sus impactos ambientales y culturales.",
+			"location": {
+				"label": "Reserva Cheyenne River, Dakota del Sur, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[45.0, -101.0], [45.0, -100.0], [44.0, -100.0], [44.0, -101.0]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Los grupos opositores, incluyendo tribus indígenas y Dakota Rural Action, anunciaron que apelarán la decisión. Mientras tanto, TransCanada enfrenta una multa de $184,000 por violaciones de seguridad en otro tramo del oleoducto Keystone.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Aunque la PUC ha dado luz verde al permiso, la batalla legal y social continúa. La decisión refleja tensiones entre desarrollo energético y protección ambiental, un debate que seguirá vigente mientras el proyecto avance —o no— hacia su construcción.",
+			"location": {
+				"label": "Dakota del Sur, Estados Unidos",
+				"type": "área",
+				"coordinates": [[44.5, -100.0]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -3600,7 +5040,77 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La Casa Blanca confirma que Obama vetará el oleoducto Keystone XL de TransCanada",
+	"subtitulo": "Un proyecto polémico que enfrenta economía, medio ambiente y política en Norteamérica",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El presidente Obama vetará un proyecto de ley del Congreso que busca aprobar la construcción del oleoducto Keystone XL, diseñado para transportar crudo de arenas bituminosas desde Alberta (Canadá) hasta refinerías en el Golfo de México. El proyecto, valorado en $8 mil millones, enfrenta oposición por su impacto ambiental y dudas sobre su viabilidad económica.",
+		"location": {
+			"label": "Alberta, Canadá; Golfo de México, Estados Unidos",
+			"type": "líneas",
+			"coordinates": [[56.1304, -106.3468], [25.9343, -90.2532]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL, propuesto hace seis años por TransCanada, busca transportar más de 800,000 barriles diarios de crudo desde las arenas bituminosas de Alberta hasta refinerías en Texas. El proyecto ha generado controversia por su impacto ambiental y la emisión de gases de efecto invernadero.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "polígonos",
+				"coordinates": [[56.1304, -106.3468]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El Congreso estadounidense, con apoyo bipartidista, impulsa una ley para acelerar la aprobación del proyecto. Sin embargo, Obama insiste en seguir el proceso de revisión oficial y vetará cualquier intento de aprobación apresurada, citando preocupaciones ambientales y un litigio pendiente en Nebraska sobre la ruta del oleoducto.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La Casa Blanca confirmó que Obama vetará el proyecto de ley, alineándose con grupos ambientalistas que argumentan que el oleoducto beneficiaría principalmente a las petroleras, aumentaría la contaminación y no garantizaría energía para EE.UU., ya que gran parte del crudo se exportaría.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El veto simboliza el enfrentamiento entre la administración Obama y el nuevo Congreso controlado por republicanos. Además, refleja el debate global sobre la dependencia de combustibles fósiles versus la transición a energías limpias, en un contexto de precios bajos del petróleo que cuestionan la rentabilidad de proyectos como las arenas bituminosas.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "A pesar del veto, los promotores del proyecto planean reintroducir la legislación más adelante. Mientras, economistas señalan que la caída en los precios del petróleo hace innecesarios nuevos oleoductos, ya que la producción de crudo costoso (como el de arenas bituminosas) ya no es rentable.",
+			"location": {
+				"label": "Nebraska, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[41.4925, -99.9018]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El veto de Obama al Keystone XL marca un hito en la política energética y ambiental de EE.UU., priorizando el proceso técnico sobre presiones políticas. Sin embargo, el conflicto continuará mientras persistan intereses económicos y divisiones partidistas sobre el futuro energético del país.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -3730,7 +5240,77 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Verificación de Hechos: Rick Perry ya abogó públicamente por el oleoducto Bakken en Iowa",
+	"subtitulo": "El exgobernador de Texas y su polémica conexión con el oleoducto Bakken: ¿intereses privados o agenda pública?",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Rick Perry, exgobernador de Texas y posible candidato presidencial, ha sido vinculado públicamente con el polémico oleoducto Bakken en Iowa, a pesar de que su portavoz afirma que no promoverá el proyecto. Perry ya ha hablado a favor del oleoducto en entrevistas y ha influido en políticos locales, mientras forma parte de la junta directiva de Energy Transfer Partners, la compañía detrás del proyecto.",
+		"location": {
+				"label": "Iowa, Estados Unidos",
+				"type": "área",
+				"coordinates": [[41.8780, -93.0977]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Rick Perry, exgobernador de Texas y figura política republicana, ha estado explorando una posible candidatura presidencial. Recientemente, fue nombrado miembro de la junta directiva de Energy Transfer Partners, la compañía que impulsa el oleoducto Bakken, un proyecto controvertido que atravesaría Iowa para transportar petróleo desde Dakota del Norte hasta Illinois.",
+			"location": {
+				"label": "Texas, Estados Unidos",
+				"type": "área",
+				"coordinates": [[31.9686, -99.9018]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Aunque el portavoz de Perry en Iowa, Robert Haus, aseguró que Perry no promovería públicamente el oleoducto, se ha demostrado que Perry ya habló a favor del proyecto en una entrevista televisiva días antes de su nombramiento. Además, ha influido en políticos locales, como el representante estatal Jack Whitver, para respaldar el proyecto.",
+			"location": {
+				"label": "Des Moines, Iowa, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[41.5868, -93.6250]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Perry declaró en televisión que el oleoducto Bakken está 'en el mejor interés de América' y sugirió que los agricultores deberían aceptar la expropiación de tierras si son 'adecuadamente compensados'. Esto contradice las afirmaciones de su portavoz y revela un posible conflicto de intereses.",
+			"location": {
+				"label": "WHOTV, Des Moines, Iowa, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[41.6005, -93.6091]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este caso evidencia cómo figuras políticas pueden usar su influencia para beneficiar intereses privados, especialmente en proyectos energéticos controvertidos. Además, plantea dudas sobre la transparencia en la relación entre políticos y empresas energéticas.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "El portavoz de Perry insiste en que el exgobernador no está promoviendo activamente el proyecto, pero su presencia en la junta directiva y sus declaraciones públicas sugieren lo contrario. Además, Perry ha donado dinero a políticos locales que apoyan el oleoducto.",
+			"location": {
+				"label": "Iowa, Estados Unidos",
+				"type": "área",
+				"coordinates": [[41.8780, -93.0977]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La situación de Rick Perry con el oleoducto Bakken ejemplifica los conflictos de interés que pueden surgir cuando políticos se vinculan con empresas energéticas. Quedan preguntas sin responder sobre su papel real en la promoción del proyecto y su influencia en la política local de Iowa.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -3870,7 +5450,77 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El oleoducto Keystone XL es cancelado. Esto es lo que significa para la lucha futura contra los combustibles fósiles",
+	"subtitulo": "Una victoria histórica para el activismo climático y los derechos indígenas, pero la batalla contra los combustibles fósiles continúa",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El presidente Joe Biden canceló el permiso del oleoducto Keystone XL, un proyecto de 1,200 millas que transportaría petróleo de arenas bituminosas desde Canadá hasta el Golfo de México. La decisión marca un hito en la lucha climática y los derechos indígenas, pero otros proyectos similares siguen en pie.",
+		"location": {
+				"label": "Estados Unidos, Canadá",
+				"type": "líneas",
+				"coordinates": [[49.2827, -123.1207], [39.8283, -98.5795]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL (KXL) fue un proyecto controvertido durante más de una década, diseñado para transportar 830,000 barriles diarios de petróleo de arenas bituminosas desde Alberta, Canadá, hasta el Golfo de México. Se convirtió en un símbolo de la lucha contra el cambio climático y los impactos en comunidades indígenas.",
+			"location": {
+				"label": "Alberta, Canadá; Golfo de México, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[53.9333, -116.5765], [25.9341, -90.2155]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El proyecto enfrentó resistencia de activistas climáticos, comunidades indígenas y organizaciones ambientalistas, quienes argumentaron que su construcción agravaría la crisis climática y violaría derechos territoriales. Aunque el expresidente Barack Obama lo rechazó en 2015, Donald Trump lo revivió en 2017. Ahora, Biden lo cancela definitivamente.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El 20 de enero de 2021, Biden firmó una orden ejecutiva revocando el permiso de KXL. TC Energy, la empresa detrás del proyecto, anunció la suspensión de obras y evaluará sus opciones legales. Alberta, que invirtió $1,100 millones, podría vender los tubos como chatarra.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "polígonos",
+				"coordinates": [[53.9333, -116.5765]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La cancelación es un triunfo clave para el movimiento climático y las comunidades indígenas, pero otros oleoductos como Line 3 y Trans Mountain Expansion siguen activos. Además, plantea debates sobre la transición energética y la dependencia de los combustibles fósiles.",
+			"location": {
+				"label": "Minnesota, Estados Unidos; Columbia Británica, Canadá",
+				"type": "puntos",
+				"coordinates": [[46.7296, -94.6859], [53.7267, -127.6476]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Algunos expertos señalan que la cancelación de KXL podría beneficiar a otros proyectos como Trans Mountain, al reducir la competencia. Sin embargo, otros argumentan que estos proyectos también son inviables ante la transición energética global.",
+			"location": {
+				"label": "Columbia Británica, Canadá",
+				"type": "polígonos",
+				"coordinates": [[53.7267, -127.6476]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La derrota de KXL es un logro histórico, pero la lucha contra la infraestructura de combustibles fósiles continúa. El movimiento climático e indígena ha demostrado su poder, pero ahora debe enfrentar nuevos desafíos en un escenario energético cambiante.",
+			"location": {
+				"label": "América del Norte",
+				"type": "área",
+				"coordinates": [[54.5260, -105.2551]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -4020,7 +5670,77 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Escuela en Pennsylvania realiza simulacros de emergencia por posible explosión de gasoducto",
+	"subtitulo": "Padres y expertos en seguridad alertan sobre los riesgos de construir un gasoducto cerca de una escuela primaria",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "La escuela primaria Glenwood en Media, Pennsylvania, realizó un simulacro de evacuación debido a la construcción del gasoducto Mariner East 2, que pasará a solo 650 pies del patio de recreo. Preocupa el riesgo de fugas o explosiones.",
+		"location": {
+			"label": "Glenwood Elementary School, Media, Pennsylvania, EE. UU.",
+			"type": "punto",
+			"coordinates": [[39.9168, -75.3879]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El gasoducto Mariner East 2, propiedad de Sunoco Logistics, transportará líquidos de gas natural como propano y butano a través de Pennsylvania. Su construcción ha generado preocupación en comunidades cercanas, especialmente cerca de escuelas.",
+			"location": {
+				"label": "Ruta del Mariner East 2, Pennsylvania, EE. UU.",
+				"type": "líneas",
+				"coordinates": [[39.9168, -75.3879], [39.9526, -75.1652]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Padres y activistas temen que una fuga o explosión pueda afectar a estudiantes. Un estudio predice que, en el peor escenario, una explosión podría crear una bola de fuego de 1,100 pies de radio, poniendo en riesgo a la escuela.",
+			"location": {
+				"label": "Media, Delaware County, Pennsylvania, EE. UU.",
+				"type": "área",
+				"coordinates": [[39.9168, -75.3879]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La escuela Glenwood realizó un simulacro de evacuación en solo 5 minutos, pero críticos señalan que esto no garantiza seguridad real ante una emergencia. Sunoco defiende el proyecto, afirmando que cumple con normas de seguridad.",
+			"location": {
+				"label": "Glenwood Elementary School, Media, Pennsylvania, EE. UU.",
+				"type": "punto",
+				"coordinates": [[39.9168, -75.3879]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Más de 40 escuelas en Pennsylvania están dentro de la 'zona de explosión' del gasoducto. A nivel nacional, 1 de cada 20 escuelas está cerca de un gasoducto, según datos del School Pipeline Safety Partnership.",
+			"location": {
+				"label": "Pennsylvania, EE. UU.",
+				"type": "polígonos",
+				"coordinates": [[39.9168, -75.3879], [40.2732, -76.8867]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "La industria argumenta que los gasoductos son más seguros que transportar combustibles por tren o camión. Sunoco destaca que instalará dispositivos de seguridad modernos y que la mayoría de fugas son menores.",
+			"location": {
+				"label": "Sunoco Logistics, Pennsylvania, EE. UU.",
+				"type": "punto",
+				"coordinates": [[39.9526, -75.1652]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Aunque la probabilidad de un accidente es baja, las consecuencias podrían ser devastadoras. La comunidad exige mayor transparencia y reconsideración de la ubicación del gasoducto cerca de zonas escolares.",
+			"location": {
+				"label": "Delaware County, Pennsylvania, EE. UU.",
+				"type": "polígonos",
+				"coordinates": [[39.9168, -75.3879], [39.9526, -75.1652]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -4130,7 +5850,77 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El gasoducto Rover establece récord en violaciones ambientales",
+	"subtitulo": "Un proyecto multimillonario bajo la lupa por sus repetidos daños a ecosistemas y comunidades",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El gasoducto Rover, construido por Energy Transfer Partners, acumula más violaciones ambientales que cualquier otro gasoducto interestatal construido en los últimos dos años, incluyendo derrames masivos de fluidos de perforación en humedales de Ohio.", 
+		"location": {
+				"label": "Ohio, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[40.4173, -82.9071]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El gasoducto Rover es un proyecto de $4.3 mil millones destinado a transportar gas natural a través de Pennsylvania, Virginia Occidental, Ohio, Michigan y Canadá. Es propiedad de Energy Transfer Partners, la misma empresa detrás del polémico oleoducto Dakota Access.",
+			"location": {
+				"label": "Estados Unidos y Canadá",
+				"type": "líneas",
+				"coordinates": [[40.7128, -74.0060], [45.4215, -75.6972]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El proyecto ha generado 104 violaciones ambientales desde su inicio, incluyendo un derrame de 2 millones de galones de fluidos de perforación en humedales de Ohio. La Comisión Federal Reguladora de Energía (FERC) detuvo temporalmente las perforaciones debido a estos incidentes.",
+			"location": {
+				"label": "Richland County, Ohio, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[40.7745, -82.5298]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El Rover tiene más informes negativos que los siguientes cuatro proyectos de gasoductos combinados, según un análisis de Bloomberg. Además, un estudio de Oil Change International reveló que su operación generaría emisiones equivalentes a 42 plantas de carbón.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Los derrames y violaciones no solo dañan ecosistemas frágiles, sino que el gasoducto contribuirá significativamente al cambio climático. Energy Transfer Partners tiene un historial preocupante, con más derrames de líquidos peligrosos que cualquier otra empresa en EE.UU.",
+			"location": {
+				"label": "Nacional (Estados Unidos)",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Energy Transfer afirma que el proyecto cumplirá con todas las regulaciones ambientales e incluso superará algunos requisitos. La empresa recibió una inversión de $1.57 mil millones de Blackstone a pesar de sus problemas.",
+			"location": {
+				"label": "Dallas, Texas, Estados Unidos (Sede de Energy Transfer)",
+				"type": "punto",
+				"coordinates": [[32.7767, -96.7970]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El caso del Rover evidencia los riesgos ambientales de mega proyectos de combustibles fósiles y la necesidad de una supervisión más estricta. Las comunidades y ecosistemas afectados exigen responsabilidad ante daños que podrían ser irreversibles.",
+			"location": {
+				"label": "Región de los Apalaches (impacto en múltiples estados)",
+				"type": "polígonos",
+				"coordinates": [[39.8283, -77.5619]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -4242,7 +6032,77 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La empresa responsable del derrame de petróleo en Santa Barbara tenía un pésimo historial de seguridad, al igual que toda la industria",
+	"subtitulo": "Un derrame devastador expone la peligrosa normalidad de las violaciones en oleoductos de California",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Plains All American Pipeline, responsable de un derrame de petróleo cerca de Santa Bárbara, acumula 175 violaciones de seguridad desde 2006. Este incidente refleja un problema mayor: más de 8,000 incidentes significativos en oleoductos de EE. UU. desde 1986.",
+		"location": {
+			"label": "Santa Barbara, California, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[34.4208, -119.6982]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Plains All American Pipeline es la empresa detrás de un derrame de petróleo que generó una mancha de 9 millas en la costa de Santa Bárbara. Según datos federales, la compañía ha sido multada 175 veces por fallas de seguridad desde 2006, con daños superiores a $23 millones y más de 688,000 galones de líquidos peligrosos derramados.",
+			"location": {
+				"label": "Santa Barbara, California, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[34.4208, -119.6982]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El derrame ocurrió cerca de un santuario marino y una reserva submarina llena de vida silvestre. Aunque la rotura fue en tierra, el petróleo provenía de una plataforma offshore de Exxon. Se estima que se derramaron hasta 105,000 galones, con un 20% llegando al océano. La limpieza podría tardar meses.",
+			"location": {
+				"label": "Canal de Santa Bárbara, California, Estados Unidos",
+				"type": "área",
+				"coordinates": [[34.4208, -119.6982], [34.3500, -119.8000]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Un análisis del Centro para la Diversidad Biológica reveló que, desde 1986, California ha sufrido 621 incidentes en oleoductos, con 200 heridos, 50 muertes y $769 millones en daños. A nivel nacional, EE. UU. registra más de 8,000 incidentes graves en oleoductos desde 1986.",
+			"location": {
+				"label": "California, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[32.5288, -117.2047], [42.0095, -124.2410], [42.0095, -114.1312], [32.5288, -114.1312]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El derrame evidencia la falta de regulación efectiva en la industria de oleoductos. Además, existe preocupación por posibles químicos de fracking en el petróleo derramado, aunque la opacidad en los registros federales impide confirmarlo.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[24.3963, -125.0000], [49.3845, -125.0000], [49.3845, -66.9346], [24.3963, -66.9346]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El incidente en Santa Bárbara no es aislado, sino parte de un patrón de negligencia en la industria petrolera. Organizaciones ambientales exigen mayor transparencia y regulación para prevenir futuros desastres.",
+			"location": {
+				"label": "Santa Barbara, California, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[34.4208, -119.6982]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Algunos argumentan que los oleoductos son esenciales para la economía y que los incidentes, aunque graves, son estadísticamente bajos comparados con el volumen transportado. Sin embargo, críticos señalan que incluso un solo derrame puede tener impactos ecológicos irreversibles.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[24.3963, -125.0000], [49.3845, -125.0000], [49.3845, -66.9346], [24.3963, -66.9346]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -4366,7 +6226,77 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "¿El Standing Rock de México? Sempra y TransCanada enfrentan resistencia indígena a oleoductos al sur de la frontera",
+	"subtitulo": "Comunidades Yaqui y Otomi desafían megaproyectos energéticos en medio de violencia y disputas legales",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Indígenas Yaqui en Sonora y Otomi en Puebla resisten oleoductos de Sempra Energy y TransCanada, alegando falta de consulta previa y daños a tierras sagradas, en un conflicto que recuerda al de Standing Rock en EUA.",
+		"location": {
+			"label": "Loma de Bacum, Bácum, Sonora, México",
+			"type": "punto",
+			"coordinates": [[27.5167, -110.0833]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Desde la privatización del sector energético en México (2013), empresas como Sempra y TransCanada construyen oleoductos transfronterizos. La ley exige consultar a comunidades indígenas afectadas, bajo estándares de la ONU.",
+			"location": {
+				"label": "México",
+				"type": "polígono",
+				"coordinates": [[23.6345, -102.5528]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El oleoducto Agua Prieta (Sempra) en Sonora fue rechazado por la comunidad Yaqui de Loma de Bacum, que destruyó un tramo. Mientras, en Puebla, indígenas Otomi lograron detener judicialmente el Tuxpan-Tula de TransCanada por afectar sitios sagrados.",
+			"location": {
+				"label": "Río Yaqui, Sonora, México",
+				"type": "líneas",
+				"coordinates": [[27.5167, -110.0833], [27.6000, -110.2000]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La Corte Suprema de México debe decidir si Sempra repara o redirige su oleoducto en Loma de Bacum, donde la disputa ha causado divisiones comunitarias y violencia, incluyendo homicidios y amenazas a mujeres defensoras.",
+			"location": {
+				"label": "Suprema Corte de Justicia, Ciudad de México, México",
+				"type": "punto",
+				"coordinates": [[19.4326, -99.1332]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Estos casos marcan un precedente para los derechos indígenas en proyectos energéticos en México, similar a la lucha de Standing Rock en EUA. Podrían afectar futuras inversiones extranjeras en el sector.",
+			"location": {
+				"label": "Reserva Sioux de Standing Rock, Dakota del Norte, EUA",
+				"type": "área",
+				"coordinates": [[46.0569, -100.6428]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "La consulta indígena en México sigue el principio de 'consentimiento libre, previo e informado' de la ONU. En EUA, el proceso se rige por la Sección 106 de la Ley de Preservación Histórica, usada por Standing Rock en sus demandas.",
+			"location": {
+				"label": "Naciones Unidas, Nueva York, EUA",
+				"type": "punto",
+				"coordinates": [[40.7489, -73.9680]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras México equilibra desarrollo energético y derechos indígenas, comunidades como los Yaqui y Otomi demuestran que la resistencia organizada puede desafiar incluso a gigantes corporativos, aunque con costos humanos altos.",
+			"location": {
+				"label": "Cerro del Brujo, Puebla, México",
+				"type": "punto",
+				"coordinates": [[19.0414, -98.2063]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -4516,7 +6446,77 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Congreso colabora con grandes petroleras en carta que sugiere cargos de terrorismo contra activistas anti-oleoductos",
+	"subtitulo": "La industria del petróleo impulsa una polémica iniciativa legislativa que criminaliza protestas ambientales",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "84 congresistas estadounidenses enviaron una carta al Fiscal General Jeff Sessions preguntando si los activistas que interrumpen oleoductos deberían enfrentar cargos de terrorismo bajo la Ley PATRIOT. La carta, promovida por grupos petroleros como API, ha generado controversia por su posible impacto en la libertad de protesta.",
+		"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El 23 de octubre, 84 congresistas liderados por el republicano Ken Buck enviaron una carta al Fiscal General Jeff Sessions cuestionando si las protestas que interrumpen oleoductos deberían ser consideradas actos de terrorismo. Esto ocurre tras las protestas contra el Dakota Access Pipeline en Standing Rock, donde activistas fueron etiquetados como 'terroristas' por autoridades.",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La carta fue apoyada por grupos de la industria petrolera como API y AOPL, lo que sugiere una colaboración entre legisladores y el sector energético para criminalizar protestas ambientales. Activistas como los 'valve turners' (activistas que cerraron manualmente oleoductos) han usado la 'defensa de necesidad' argumentando que su acción busca prevenir el cambio climático.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[39.8283, -98.5795]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La carta al Fiscal General Sessions fue promovida por grupos petroleros y solo cuatro de los 84 firmantes eran demócratas, a pesar de ser anunciada como un esfuerzo 'bipartidista'. Además, se creó una base de datos para reportar 'ataques a infraestructura energética', lo que activistas ven como una táctica para intimidar a los opositores.",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Esta iniciativa podría sentar un precedente peligroso al equiparar la protesta ambiental con el terrorismo, limitando derechos constitucionales como la libertad de expresión. Además, revela la influencia de la industria petrolera en la legislación estadounidense.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[39.8283, -98.5795]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La carta y la base de datos reflejan un esfuerzo coordinado entre políticos y la industria petrolera para reprimir la disidencia ambiental. Activistas y organizaciones como Greenpeace denuncian que esto es un intento de silenciar voces críticas en la era Trump.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[39.8283, -98.5795]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Los grupos petroleros argumentan que las protestas violentas ponen en riesgo la seguridad pública y el medio ambiente. API afirma que respeta el derecho a la protesta pacífica, pero pide investigar acciones que dañen infraestructura crítica.",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -4644,7 +6644,86 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La cancelación del gasoducto PennEast podría marcar el 'fin de una era' para proyectos de combustibles fósiles innecesarios",
+	"subtitulo": "Un proyecto clave de gas natural se detiene ante la presión comunitaria y fallos judiciales, ¿es el principio del fin para los gasoductos sin demanda real?",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El gasoducto PennEast, que habría transportado gas de esquisto desde Pensilvania hasta Nueva Jersey, fue cancelado debido a obstáculos legales y oposición local. Este caso podría marcar un punto de inflexión en la aprobación de proyectos de infraestructura fósil en EE.UU.",
+		"location": {
+				"label": "Luzerne County, Pennsylvania, USA",
+				"type": "punto",
+				"coordinates": [[41.1775, -75.9933]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El gasoducto PennEast pretendía transportar gas de esquisto Marcellus desde Pensilvania hasta Nueva Jersey, cruzando el río Delaware. Proyectos como este requieren permisos federales y estatales, pero en los últimos años han enfrentado mayor resistencia por su impacto ambiental y dudas sobre su necesidad real.",
+			"location": {
+				"label": "Delaware River, USA",
+				"type": "líneas",
+				"coordinates": [[40.6966, -75.2049], [39.4192, -75.5355]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Nueva Jersey rechazó otorgar permisos de calidad de agua, un golpe decisivo para el proyecto. Además, tribunales federales han cuestionado recientemente la aprobación automática de gasoductos por parte de la FERC (Comisión Federal Reguladora de Energía), especialmente cuando las supuestas 'necesidades de mercado' se basan en acuerdos entre empresas relacionadas.",
+			"location": {
+				"label": "Trenton, New Jersey, USA",
+				"type": "punto",
+				"coordinates": [[40.2171, -74.7429]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El 27 de septiembre, los desarrolladores cancelaron PennEast tras años de batallas legales. Aunque ganaron un caso en la Corte Suprema sobre expropiación de terrenos, no lograron los permisos ambientales estatales. El proyecto habría afectado 88 cursos de agua y 33 áreas de conservación.",
+			"location": {
+				"label": "Mercer County, New Jersey, USA",
+				"type": "polígonos",
+				"coordinates": [[40.2835, -74.7015]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este caso ejemplifica un cambio: comunidades y tribunales están exigiendo mayor transparencia sobre la necesidad real de infraestructura fósil. Podría afectar otros proyectos como el Mountain Valley Pipeline (Virginia/Oeste Virginia) y Pacific Connector (Oregón), que enfrentan obstáculos similares.",
+			"location": {
+				"label": "United States",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "La FERC aprueba gasoductos interestatales si son de 'interés público', pero históricamente ha aceptado acuerdos comerciales entre empresas relacionadas como prueba de demanda. Críticos señalan que esto permite proyectos innecesarios cuyos costos terminan pagando los consumidores.",
+			"location": {
+				"label": "Washington D.C., USA",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "En julio, un tribunal anuló el permiso del gasoducto Spire STL en Missouri, marcando un precedente contra la autojustificación de demanda. La FERC ahora está revisando sus criterios de aprobación, presionada por fallos judiciales y la transición energética.",
+			"location": {
+				"label": "St. Louis, Missouri, USA",
+				"type": "punto",
+				"coordinates": [[38.6270, -90.1994]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La cancelación de PennEast refleja un cambio sistémico: mayor escrutinio a proyectos fósiles, empoderamiento comunitario y el declive económico del gas natural. Expertos esperan que esto marque el fin de una era de aprobaciones automáticas para infraestructura cuestionable.",
+			"location": {
+				"label": "Northeastern United States",
+				"type": "área",
+				"coordinates": [[41.2033, -77.1945]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -4740,7 +6819,77 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Accidente en el oleoducto Keystone tiene a TransCanada en apuros nuevamente",
+	"subtitulo": "Un derrame en Dakota del Sur reaviva los temores sobre la seguridad de los oleoductos y la opacidad de las empresas",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un derrame de petróleo en el oleoducto Keystone en Dakota del Sur ha generado preocupación por la falta de transparencia de TransCanada y los riesgos ambientales asociados a las fugas de dilbit (bitumen diluido).",
+		"location": {
+			"label": "Hutchinson County, South Dakota, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[43.3346, -97.7506]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone transporta crudo desde Alberta, Canadá, hasta Nebraska, conectándose con otras rutas que llegan a Texas. Aunque el proyecto Keystone XL fue rechazado, TransCanada ya opera partes de esta red, incluyendo el transporte de bitumen diluido (dilbit), más tóxico que el crudo convencional.",
+			"location": {
+				"label": "Alberta, Canadá a Steele City, Nebraska, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[53.9333, -116.5765], [40.0419, -97.4335]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El derrame fue descubierto por un terrateniente local, pero TransCanada y la FAA restringieron el acceso al área, impidiendo documentación independiente. Activistas denuncian opacidad, ya que la empresa y reguladores suelen retener información por años.",
+			"location": {
+				"label": "Hutchinson County, South Dakota, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[43.3346, -97.7506]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El derrame inicialmente reportado como 187 galones aumentó a 16,800 galones. El dilbit es más difícil de limpiar que el crudo convencional, como demostraron incidentes anteriores en Michigan y Arkansas.",
+			"location": {
+				"label": "Hutchinson County, South Dakota, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[43.3346, -97.7506]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El oleoducto ha tenido múltiples incidentes y deficiencias reportadas. La detección tardía de fugas pequeñas y la toxicidad del dilbit representan riesgos ambientales graves, especialmente para comunidades rurales y fuentes de agua.",
+			"location": {
+				"label": "Ruta del oleoducto Keystone, Estados Unidos/Canadá",
+				"type": "líneas",
+				"coordinates": [[53.9333, -116.5765], [40.0419, -97.4335]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "Los sistemas de detección de fugas de TransCanada solo alertan cuando hay una caída del 2% en la presión, lo que permite que escapes pequeños pasen desapercibidos. El dilbit, al mezclarse con agua subterránea, se dispersa rápidamente y libera toxinas como benceno.",
+			"location": {
+				"label": "N/A",
+				"type": "N/A",
+				"coordinates": []
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El incidente reaviva el debate sobre la seguridad de los oleoductos y la necesidad de mayor transparencia. Mientras TransCanada y reguladores mantengan prácticas opacas, comunidades afectadas seguirán expuestas a riesgos ambientales.",
+			"location": {
+				"label": "Hutchinson County, South Dakota, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[43.3346, -97.7506]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -4870,7 +7019,77 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El oleoducto que explotó en Pensilvania es parte de un impulso para construir una red petroquímica dependiente del fracking",
+	"subtitulo": "Una explosión en un nuevo gasoducto revela los riesgos de la expansión petroquímica en la región",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un gasoducto propiedad de Energy Transfer Partners explotó en Pensilvania, destruyendo propiedades y provocando evacuaciones. El incidente ocurrió apenas una semana después de su puesta en servicio y forma parte de una red más grande destinada a transportar gas natural y líquidos para la industria petroquímica.",
+		"location": {
+			"label": "Center Township, Pennsylvania, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[40.7286, -80.0664]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El gasoducto Revolution, propiedad de Energy Transfer Partners (ETP), fue construido para transportar gas natural y líquidos derivados del fracking en la formación Marcellus. Este proyecto forma parte de una red más amplia que incluye los gasoductos Rover y Mariner East 2, destinados a conectar la producción de gas de esquisto con plantas petroquímicas y mercados de exportación.",
+			"location": {
+				"label": "Butler County, Pennsylvania, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[40.9126, -79.9133], [40.9126, -79.9133]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La explosión del gasoducto Revolution ha generado preocupaciones sobre la seguridad de estos proyectos, especialmente debido al historial de problemas de construcción y multas ambientales de ETP. Además, existe oposición local por los riesgos que representan para comunidades y el medio ambiente.",
+			"location": {
+				"label": "Pensilvania, Estados Unidos",
+				"type": "área",
+				"coordinates": [[41.2033, -77.1945]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El gasoducto Revolution explotó apenas una semana después de entrar en servicio, provocando una columna de fuego de 150 pies, destrucción de propiedades y evacuaciones. Las autoridades sospechan que las fuertes lluvias causaron el deslizamiento y ruptura del gasoducto.",
+			"location": {
+				"label": "Center Township, Pennsylvania, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[40.7286, -80.0664]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este incidente destaca los riesgos de la expansión petroquímica en la región, que depende del fracking y del transporte de gas natural y líquidos. Además, plantea dudas sobre la seguridad de los gasoductos y su impacto en comunidades locales y el medio ambiente.",
+			"location": {
+				"label": "Appalachia, Estados Unidos",
+				"type": "área",
+				"coordinates": [[39.8283, -78.5795]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La explosión del gasoducto Revolution subraya los desafíos y peligros de la infraestructura energética en expansión. Mientras la industria avanza, las comunidades y reguladores exigen mayor seguridad y transparencia para evitar futuros desastres.",
+			"location": {
+				"label": "Pensilvania, Estados Unidos",
+				"type": "área",
+				"coordinates": [[41.2033, -77.1945]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Aunque la industria argumenta que estos proyectos generan empleo y crecimiento económico, los críticos señalan que el aumento en la producción de plásticos y químicos podría tener consecuencias ambientales graves a largo plazo.",
+			"location": {
+				"label": "Golfo de México, Estados Unidos",
+				"type": "área",
+				"coordinates": [[27.7000, -90.2000]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -5014,7 +7233,77 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La construcción del oleoducto Bayou Bridge representa un gran riesgo para la cuenca del Atchafalaya",
+	"subtitulo": "Un crimen contra la naturaleza: cómo el oleoducto está dañando irreversiblemente el mayor humedal fluvial de EE.UU.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "La construcción del oleoducto Bayou Bridge ha dejado graves daños en la cuenca del Atchafalaya, bloqueando vías fluviales y afectando la vida silvestre. Grupos ambientalistas han presentado una queja federal por violaciones a la Ley de Agua Limpia.", 
+		"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.4166, -91.8000]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Bayou Bridge, de 163 millas de largo, atraviesa el sur de Louisiana desde Lake Charles hasta St. James. Es parte de una red diseñada para transportar petróleo desde Dakota del Norte hasta la costa del Golfo, probablemente para exportación. La cuenca del Atchafalaya, el mayor humedal fluvial de EE.UU., es un área de importancia ecológica y cultural.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.4166, -91.8000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La construcción del oleoducto ha dejado montones de tierra y escombros que bloquean vías fluviales naturales, afectando la vida acuática y terrestre. Grupos como Atchafalaya Basinkeeper y la Asociación de Productores de Cangrejos de Louisiana denuncian violaciones a la Ley de Agua Limpia.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.4166, -91.8000]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Una queja federal acusa a Bayou Bridge Pipeline LLC de múltiples violaciones ambientales, incluyendo el bloqueo ilegal de vías navegables y daños severos al flujo natural del agua en la cuenca. La empresa afirma que está trabajando en la restauración, pero no ha dado plazos concretos.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.4166, -91.8000]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La cuenca del Atchafalaya es un ecosistema crítico que alberga especies únicas y ayuda a controlar inundaciones. Su degradación podría provocar la muerte de organismos acuáticos por falta de oxígeno y aumentar el riesgo de inundaciones en la región.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.4166, -91.8000]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Energy Transfer Partners, dueña del oleoducto, asegura que cumple con los permisos y está comprometida con la restauración total del área. Sin embargo, no ha aclarado si el bloqueo temporal de vías fluviales está permitido bajo la Ley de Agua Limpia.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.4166, -91.8000]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El conflicto entre desarrollo energético y conservación ambiental sigue sin resolverse. Mientras la empresa insiste en que está actuando legalmente, los defensores del medio ambiente exigen acciones inmediatas para reparar los daños en este frágil ecosistema.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.4166, -91.8000]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -5192,7 +7481,104 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La expansión propuesta de un gasoducto podría afectar los planes climáticos de tres estados",
+	"subtitulo": "Un proyecto de TC Energy amenaza con inundar el noroeste de EE.UU. con gas metano, desafiando las metas climáticas de California, Oregon y Washington",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "TC Energy, propietaria del gasoducto Gas Transmission Northwest (GTN), busca expandir su capacidad a pesar de las leyes estatales que exigen reducciones drásticas de emisiones. El proyecto enfrenta fuerte oposición de gobiernos estatales y grupos ambientales.",
+		"location": {
+			"label": "Gas Transmission Northwest (GTN), Estados Unidos (California, Oregon, Washington), Canadá (British Columbia)",
+			"type": "líneas",
+			"coordinates": [
+				[49.2827, -123.1207],
+				[45.5231, -122.6765],
+				[47.6062, -122.3321],
+				[36.7783, -119.4179]
+			]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "California, Oregon y Washington han aprobado leyes para reducir las emisiones de carbono en las próximas décadas. Sin embargo, TC Energy planea expandir el gasoducto GTN, que transporta gas desde Canadá hasta California, aumentando su capacidad en un momento en que la demanda de gas está disminuyendo.",
+			"location": {
+				"label": "Estados Unidos (California, Oregon, Washington), Canadá (British Columbia)",
+				"type": "polígonos",
+				"coordinates": [
+					[36.7783, -119.4179],
+					[45.5231, -122.6765],
+					[47.6062, -122.3321],
+					[49.2827, -123.1207]
+				]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "TC Energy argumenta que el proyecto GTN Xpress es necesario para satisfacer una demanda creciente, basándose en acuerdos con utilities locales. Sin embargo, los gobiernos estatales y grupos ambientalistas rechazan estas proyecciones, señalando que contradicen las metas climáticas y las políticas de electrificación.",
+			"location": {
+				"label": "Pacific Northwest, Estados Unidos",
+				"type": "área",
+				"coordinates": [
+					[45.5231, -122.6765],
+					[47.6062, -122.3321],
+					[36.7783, -119.4179]
+				]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El proyecto GTN Xpress implica actualizar tres estaciones de compresión en el gasoducto GTN, lo que aumentaría su capacidad en 150,000 dekatherms diarios, equivalentes a las emisiones anuales de 3.24 millones de toneladas de CO2.",
+			"location": {
+				"label": "Gasoducto GTN, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [
+					[49.2827, -123.1207],
+					[36.7783, -119.4179]
+				]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El proyecto podría socavar los esfuerzos climáticos de tres estados y prolongar la dependencia del gas metano, un combustible fósil que contribuye al calentamiento global. Además, FERC, la agencia federal que decide sobre el proyecto, tiene un historial de aprobar casi todas las propuestas de la industria.",
+			"location": {
+				"label": "Estados Unidos (California, Oregon, Washington)",
+				"type": "polígonos",
+				"coordinates": [
+					[36.7783, -119.4179],
+					[45.5231, -122.6765],
+					[47.6062, -122.3321]
+				]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "TC Energy insiste en que el proyecto es necesario para satisfacer la demanda futura y apoyar la transición energética. Sin embargo, críticos señalan que las proyecciones de demanda son irreales y que el gasoducto beneficiaría principalmente a productores canadienses.",
+			"location": {
+				"label": "British Columbia, Canadá",
+				"type": "polígonos",
+				"coordinates": [
+					[49.2827, -123.1207],
+					[53.7267, -127.6476],
+					[60.0000, -120.0000]
+				]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La decisión de FERC sobre GTN Xpress, esperada para julio, será una prueba clave para la política climática de EE.UU. Aprobar el proyecto iría en contra de los compromisos de reducción de emisiones y podría generar más conflictos legales y sociales.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [
+					[38.9072, -77.0369]
+				]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -5332,7 +7718,86 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Agricultores ugandeses cuyas tierras pronto se convertirán en un oleoducto pierden años de sustento",
+	"subtitulo": "Un oleoducto prometido deja a miles en el limbo: tierras inutilizables y compensaciones incumplidas",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Agricultores en Uganda llevan años sin poder usar sus tierras debido a la construcción pendiente de un oleoducto de crudo. A pesar de las promesas de compensación, el dinero no ha llegado y las comunidades enfrentan inseguridad alimentaria y pérdida de ingresos.",
+		"location": {
+			"label": "Kyangwali, Kikuube, Uganda",
+			"type": "punto",
+			"coordinates": [[1.0631, 31.0000]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "En 2019, el gobierno de Uganda y empresas petroleras como CNOOC y Total E&amp;P Uganda identificaron tierras en la región de Albertine para construir infraestructura petrolera, incluyendo el oleoducto EACOP, el más largo del mundo calentado eléctricamente. Las comunidades afectadas fueron notificadas y se les prometió compensación, pero tres años después, aún no han recibido nada.",
+			"location": {
+				"label": "Región Albertina, Uganda",
+				"type": "área",
+				"coordinates": [[1.0000, 30.5000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Los agricultores no pueden cultivar productos perennes por temor a que la construcción comience en cualquier momento, lo que les ha dejado sin ingresos estables. Además, argumentan que la compensación prometida en 2019 ya no es suficiente debido al aumento del costo de vida y la apreciación de sus tierras.",
+			"location": {
+				"label": "Nyamtai, Kikuube, Uganda",
+				"type": "punto",
+				"coordinates": [[1.0631, 31.0000]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Más de 10,000 personas afectadas aún no han recibido compensación. Un estudio de 2021 publicado en Science Direct señala que el proyecto viola derechos humanos básicos, como el derecho a la alimentación y a un medio de vida digno.",
+			"location": {
+				"label": "Uganda",
+				"type": "polígono",
+				"coordinates": [[1.3733, 32.2903]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso expone los impactos sociales de megaproyectos extractivos en comunidades rurales, donde la falta de transparencia y retrasos en compensaciones profundizan la pobreza y la inseguridad alimentaria.",
+			"location": {
+				"label": "África Oriental",
+				"type": "área",
+				"coordinates": [[1.0000, 33.0000]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Total E&amp;P Uganda anunció un aumento del 15-30% en las compensaciones, pero los pagos aún no se materializan. Mientras, el gobierno insta a los agricultores a seguir cultivando, aunque sin garantías para nuevas estructuras.",
+			"location": {
+				"label": "Kampala, Uganda",
+				"type": "punto",
+				"coordinates": [[0.3136, 32.5811]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "ONGs como AFIEGO critican la opacidad del gobierno y las petroleras, exigiendo un análisis independiente de los costos ambientales y sociales del proyecto.",
+			"location": {
+				"label": "Tanga, Tanzania",
+				"type": "punto",
+				"coordinates": [[-5.0667, 39.1000]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El oleoducto EACOP promete desarrollo económico, pero a costa de medios de vida tradicionales. Sin compensaciones justas y oportunas, miles de ugandeses enfrentan un futuro incierto mientras el proyecto avanza.",
+			"location": {
+				"label": "Lago Alberto, Uganda/República Democrática del Congo",
+				"type": "área",
+				"coordinates": [[1.6667, 30.9167]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -5528,7 +7993,85 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El nuevo presidente populista de México considera planes de gasoductos extranjeros a pesar de las protestas indígenas",
+	"subtitulo": "Mientras López Obrador promete cambio, comunidades indígenas resisten proyectos energéticos que amenazan sus tierras",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El presidente electo de México, Andrés Manuel López Obrador, enfrenta un dilema entre cumplir sus promesas de proteger a las comunidades vulnerables y mantener la inversión extranjera en proyectos energéticos, como los gasoductos de TransCanada y Sempra Energy, que han generado fuerte oposición indígena.",
+		"location": {
+			"label": "México, Ciudad de México",
+			"type": "punto",
+			"coordinates": [[19.4326, -99.1332]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "En 2013, México aprobó reformas energéticas que abrieron el sector petrolero y gasístico a la inversión privada, impulsadas en parte por el gobierno de EE.UU. Esto llevó a un auge en la construcción de gasoductos, muchos destinados a transportar gas obtenido mediante fracking en EE.UU. hacia México. Sin embargo, comunidades indígenas argumentan que no fueron consultadas adecuadamente sobre estos proyectos.",
+			"location": {
+				"label": "México",
+				"type": "polígono",
+				"coordinates": [[23.6345, -102.5528]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Comunidades indígenas, principalmente de las etnias Nahua, Totonaca y Otomí, han detenido la construcción de al menos cuatro gasoductos mediante bloqueos, acciones legales y sabotajes. Alegan que las consultas realizadas por empresas como TransCanada no cumplieron con estándares internacionales de consentimiento libre, previo e informado (FPIC).",
+			"location": {
+				"label": "Hidalgo, Puebla, Veracruz, Estado de México",
+				"type": "puntos",
+				"coordinates": [
+					[20.0911, -98.7624],
+					[19.0414, -98.2063],
+					[19.1738, -96.1342],
+					[19.2833, -99.7536]
+				]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "A pesar de su retórica populista, López Obrador ha asegurado a inversionistas que respetará los contratos energéticos existentes. Mientras tanto, el gasoducto Tula-Tuxpan de TransCanada enfrenta retrasos costosos debido a la resistencia organizada de comunidades indígenas.",
+			"location": {
+				"label": "Tuxpan, Veracruz a Tula, Hidalgo",
+				"type": "línea",
+				"coordinates": [
+					[20.9577, -97.4080],
+					[20.0522, -99.3439]
+				]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Esta lucha representa un choque entre el desarrollo energético y los derechos indígenas. El resultado podría definir si México prioriza la soberanía energética y ambiental o continúa dependiendo de combustibles fósiles importados, con impactos climáticos y sociales.",
+			"location": {
+				"label": "México",
+				"type": "polígono",
+				"coordinates": [[23.6345, -102.5528]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Aunque López Obrador promete un cambio, su gobierno enfrentará presión tanto de inversionistas como de movimientos sociales. Las comunidades indígenas han demostrado que continuarán resistiendo proyectos que consideran una amenaza para sus tierras y formas de vida, independientemente de quién esté en la presidencia.",
+			"location": {
+				"label": "México",
+				"type": "polígono",
+				"coordinates": [[23.6345, -102.5528]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Algunos analistas argumentan que la infraestructura energética existente hace difícil revertir la dependencia de México en el gas importado. Además, las empresas ya han invertido miles de millones, creando presión económica para completar los proyectos.",
+			"location": {
+				"label": "México",
+				"type": "polígono",
+				"coordinates": [[23.6345, -102.5528]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -5664,7 +8207,77 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La IA está impulsando la demanda de gas a 'niveles récord', según TC Energy, constructora de gasoductos",
+	"subtitulo": "La creciente demanda de energía por parte de los centros de datos de IA podría beneficiar a la industria de los combustibles fósiles, pero las grandes tecnológicas prometen energías renovables.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "TC Energy, la empresa detrás del polémico gasoducto Coastal GasLink en Canadá, ve en la inteligencia artificial una nueva oportunidad de crecimiento para los combustibles fósiles. Los centros de datos de empresas como Amazon y Microsoft requieren enormes cantidades de energía, lo que podría aumentar la demanda de gas natural. Sin embargo, estas compañías prometen alimentar sus operaciones con energías renovables.", 
+		"location": {
+				"label": "Calgary, Alberta, Canadá",
+				"type": "punto",
+				"coordinates": [[51.0447, -114.0719]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "TC Energy es una empresa canadiense conocida por proyectos como el gasoducto Coastal GasLink, que atraviesa territorios indígenas Wet’suwet’en en Columbia Británica, y el fallido Keystone XL. Ahora, la compañía ve en la inteligencia artificial (IA) una nueva fuente de demanda para el gas natural, debido a la enorme cantidad de energía que requieren los centros de datos de grandes tecnológicas como Amazon y Microsoft.",
+			"location": {
+				"label": "Columbia Británica, Canadá",
+				"type": "polígono",
+				"coordinates": [[54.5500, -125.7500]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Aunque empresas como Google y Amazon se han comprometido a alcanzar emisiones netas cero para 2030 o 2040, el rápido crecimiento de los centros de datos podría superar la capacidad de las energías renovables, lo que llevaría a un mayor uso de gas natural. Activistas climáticos ya han protestado contra Amazon por planes previos de conectar sus centros de datos a gasoductos de TC Energy.",
+			"location": {
+				"label": "Virginia, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[37.4316, -78.6569]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "TC Energy afirma que el 60% de los 300 centros de datos en desarrollo en Canadá están a menos de 15 millas de su red de gasoductos. La compañía proyecta un aumento del 40% en la demanda de gas natural para 2035, impulsado en parte por la IA.",
+			"location": {
+				"label": "Canadá",
+				"type": "polígono",
+				"coordinates": [[56.1304, -106.3468]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Si los centros de datos dependen del gas natural en lugar de energías renovables, las emisiones globales de carbono podrían duplicarse para 2030. Esto pondría en riesgo los compromisos climáticos de las grandes tecnológicas y aumentaría la presión sobre la industria del fracking.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": [[0, 0]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Amazon y otras empresas insisten en que invertirán en energías renovables y nuclear para sus centros de datos. Sin embargo, críticos señalan que su uso de IA también beneficia a la industria de los combustibles fósiles, creando un ciclo de dependencia mutua.",
+			"location": {
+				"label": "Seattle, Washington, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[47.6062, -122.3321]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El auge de la IA podría impulsar la demanda de gas natural, pero también aumenta la presión sobre las tecnológicas para cumplir sus promesas climáticas. El futuro energético de los centros de datos será clave en la lucha contra el cambio climático.",
+			"location": {
+				"label": "Norteamérica",
+				"type": "polígono",
+				"coordinates": [[48.1667, -100.1667]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -5820,7 +8433,77 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Energy Transfer y los bancos perdieron miles de millones por ignorar las preocupaciones iniciales sobre el oleoducto Dakota Access",
+	"subtitulo": "Un análisis revela cómo la falta de diálogo con comunidades indígenas generó pérdidas históricas y conflictos sociales",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un nuevo estudio revela que Energy Transfer Partners (ETP) y los bancos que financiaron el oleoducto Dakota Access (DAPL) perdieron miles de millones de dólares por ignorar las preocupaciones de la tribu Sioux de Standing Rock sobre contaminación del agua. Los costos totales superaron los $7.5 mil millones, casi el doble del presupuesto inicial, mientras que los bancos enfrentaron $4.4 mil millones en pérdidas por cierres de cuentas.", 
+		"location": {
+				"label": "Standing Rock Sioux Reservation, Dakota del Norte, Estados Unidos",
+				"type": "área",
+				"coordinates": [[46.1155, -100.8126]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "En 2014, Energy Transfer Partners (ETP) propuso construir el oleoducto Dakota Access (DAPL), un proyecto de 1,172 millas para transportar petróleo desde Dakota del Norte hasta Illinois. Aunque la compañía modificó la ruta para proteger la capital del estado, Bismarck, ignoró las preocupaciones de la tribu Sioux de Standing Rock sobre posibles derrames que contaminarían sus fuentes de agua.",
+			"location": {
+				"label": "Bismarck, Dakota del Norte, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[46.8083, -100.7837]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La oposición al DAPL creció desde una protesta local hasta un movimiento global, atrayendo a miles de personas a Standing Rock. Las manifestaciones retrasaron la construcción, aumentando los costos de $3.8 mil millones a más de $7.5 mil millones. Energy Transfer también vio caer su valor en bolsa un 20%, mientras que el índice S&amp;P500 subió un 35%.",
+			"location": {
+				"label": "Lago Oahe, Dakota del Norte, Estados Unidos",
+				"type": "área",
+				"coordinates": [[46.2333, -100.4833]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El estudio 'Social Cost and Material Loss: The Dakota Access Pipeline' estima que ETP y sus inversionistas perdieron al menos $7.5 mil millones, mientras que los bancos enfrentaron $4.4 mil millones en cierres de cuentas. Además, los contribuyentes y comunidades locales asumieron $38 millones en costos adicionales.",
+			"location": {
+				"label": "Dakota del Norte, Estados Unidos",
+				"type": "área",
+				"coordinates": [[47.5289, -99.7840]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso demuestra que ignorar los derechos indígenas y los riesgos sociales puede tener consecuencias financieras graves. El estudio urge a las empresas a seguir estándares internacionales de derechos humanos, no solo leyes nacionales, para evitar pérdidas económicas y conflictos.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Aunque el oleoducto ya opera, las batallas legales continúan. La tribu Sioux desafía la evaluación ambiental del Cuerpo de Ingenieros del Ejército, mientras que activistas enfrentan demandas y cargos penales. Energy Transfer ahora busca expandir la capacidad del DAPL, lo que podría reavivar tensiones.",
+			"location": {
+				"label": "Tribunal Federal, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.8977, -77.0365]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El caso del DAPL es una advertencia para proyectos futuros: ignorar a las comunidades locales y los riesgos sociales no solo es éticamente cuestionable, sino también financieramente desastroso. Las empresas deben integrar preocupaciones ambientales y sociales desde el inicio para evitar pérdidas masivas.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": [[0, 0]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -5922,7 +8605,68 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Obama viaja al \"Crucero de Tuberías del Mundo\" para un discurso de campaña",
+	"subtitulo": "El presidente Obama visita Cushing, Oklahoma, en medio de la controversia por el oleoducto Keystone XL",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El presidente Obama visitará Cushing, Oklahoma, conocido como el 'Crucero de Tuberías del Mundo', para hablar sobre su política energética mientras continúa el debate sobre el oleoducto Keystone XL.",
+		"location": {
+			"label": "Cushing, Oklahoma, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[35.985, -96.767]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Las arenas bituminosas de Alberta han sido un tema central en el debate energético y climático de Norteamérica. Activistas han luchado contra la construcción del oleoducto Keystone XL, que transportaría crudo desde Canadá hasta Estados Unidos.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "área",
+				"coordinates": [[55.000, -115.000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Aunque Obama retrasó la aprobación del tramo norte de Keystone XL, permitió la construcción del segmento sur, conocido como la Extensión Cushing, que va desde Oklahoma hasta Texas. Esto ha generado críticas de grupos ambientalistas.",
+			"location": {
+				"label": "Port Arthur, Texas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[29.885, -93.939]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Obama visitará Cushing, Oklahoma, un nodo clave de oleoductos, para dar un discurso sobre su política energética 'todo incluido'. El lugar es simbólico, ya que allí se almacenan tuberías para el proyecto.",
+			"location": {
+				"label": "Cushing, Oklahoma, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[35.985, -96.767]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La visita refleja la tensión entre las promesas ambientales de Obama y la presión de la industria energética. El Keystone XL sigue siendo un tema polarizante en la política estadounidense.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.907, -77.037]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La visita de Obama a Cushing subraya los desafíos de equilibrar el desarrollo energético y la acción climática, un tema que seguirá siendo relevante en las elecciones de 2012.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.090, -95.713]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -6058,7 +8802,77 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Empresa de seguridad que protege el oleoducto Dakota Access también usó tácticas de guerra psicológica para BP",
+	"subtitulo": "G4S, acusada de abusos de derechos humanos, ahora vigila un polémico proyecto en Dakota del Norte",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "La empresa de seguridad G4S, contratada para proteger el oleoducto Dakota Access (DAPL), ha sido vinculada a tácticas controvertidas en conflictos petroleros, incluyendo abusos de derechos humanos en Colombia para BP. Ahora, su presencia en Dakota del Norte genera preocupación entre activistas y comunidades indígenas.",
+		"location": {
+			"label": "Cannon Ball, North Dakota, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[46.3906, -100.5984]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "G4S es una empresa de seguridad con sede en el Reino Unido, conocida por operar en zonas de alto riesgo para la industria petrolera. Ha trabajado en Irak, Colombia y ahora en Dakota del Norte, donde protege el oleoducto Dakota Access, un proyecto controvertido por su impacto en tierras indígenas.",
+			"location": {
+				"label": "Reino Unido",
+				"type": "área",
+				"coordinates": [[55.3781, -3.4360]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "G4S ha sido acusada por la ONU de abusos de derechos humanos en Colombia, donde protegió un oleoducto de BP usando tácticas de guerra psicológica contra comunidades locales. Ahora, su contratación en Dakota del Norte ha generado temores de que se repitan prácticas similares contra los manifestantes del Standing Rock Sioux Tribe.",
+			"location": {
+				"label": "Colombia",
+				"type": "área",
+				"coordinates": [[4.5709, -74.2973]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "G4S está desplegando personal de seguridad cerca del campamento de Standing Rock, donde indígenas y activistas protestan contra el oleoducto. Aunque la empresa niega participación en incidentes violentos anteriores, su historial en conflictos petroleros genera desconfianza.",
+			"location": {
+				"label": "Mandan, North Dakota, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[46.8267, -100.8896]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La presencia de G4S en Dakota Access refleja un patrón de militarización en conflictos ambientales. Su historial sugiere que las empresas petroleras podrían estar usando tácticas agresivas para silenciar la oposición, lo que pone en riesgo los derechos de las comunidades indígenas y activistas.",
+			"location": {
+				"label": "Basora, Irak",
+				"type": "punto",
+				"coordinates": [[30.5086, 47.7804]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Autoridades de Dakota del Norte investigan si las empresas de seguridad contratadas, incluyendo posiblemente G4S, operan sin licencia. Además, se examina un violento enfrentamiento entre guardias y manifestantes ocurrido en septiembre.",
+			"location": {
+				"label": "Bismarck, North Dakota, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[46.8083, -100.7837]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El caso de G4S en Dakota Access subraya los riesgos de privatizar la seguridad en conflictos ambientales. Con un historial de abusos y tácticas cuestionables, su presencia alimenta tensiones y exige mayor transparencia sobre quién financia estas operaciones y con qué métodos.",
+			"location": {
+				"label": "Dakota del Norte, Estados Unidos",
+				"type": "área",
+				"coordinates": [[47.5289, -99.7840]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -6186,7 +9000,77 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Pensilvania suspende la construcción del gasoducto Mariner East 2, citando violaciones 'flagrantes y deliberadas' de Sunoco",
+	"subtitulo": "Un proyecto millonario en problemas: agua contaminada, permisos violados y comunidades en riesgo",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El estado de Pensilvania suspendió los permisos del gasoducto Mariner East 2, propiedad de Sunoco, tras encontrar violaciones graves de las leyes ambientales. El proyecto, que transportaría combustibles líquidos desde Ohio y Virginia Occidental hasta la costa atlántica, ha causado contaminación de agua y riesgos para comunidades cercanas.",
+		"location": {
+			"label": "Pensilvania, Estados Unidos",
+			"type": "polígono",
+			"coordinates": [[41.2033, -77.1945]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El Mariner East 2 es un gasoducto de 306 millas que transportaría 275,000 barriles diarios de butano, propano y otros combustibles fósiles líquidos desde Ohio y Virginia Occidental hasta la costa atlántica para su exportación. El proyecto, valorado en $2.5 mil millones, ha enfrentado múltiples controversias por su impacto ambiental y social.",
+			"location": {
+				"label": "Pensilvania, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[41.2033, -77.1945]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Sunoco, subsidiaria de Energy Transfer Partners, ha sido acusada de violaciones graves, incluyendo derrames que contaminaron suministros de agua en Silver Lake Township y perforaciones ilegales bajo arroyos. El Departamento de Protección Ambiental de Pensilvania (DEP) encontró construcciones no autorizadas en múltiples puntos a lo largo de la ruta del gasoducto.",
+			"location": {
+				"label": "Silver Lake Township, Pensilvania, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[41.9001, -75.9174]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El DEP suspendió los permisos de construcción del Mariner East 2, exigiendo a Sunoco un informe detallado de las fallas y un plan para corregirlas. La orden también requiere que la empresa abandone perforaciones ilegales y repare los daños a pozos privados afectados.",
+			"location": {
+				"label": "Berks County, Pensilvania, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[40.4169, -75.9239]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El proyecto afecta a más de 100,000 personas que viven cerca de su ruta, incluyendo escuelas y hogares de ancianos. Un estudio advierte que una explosión podría generar una bola de fuego con graves consecuencias. Además, la construcción ha dañado el medio ambiente y generado hundimientos de tierra.",
+			"location": {
+				"label": "Filadelfia, Pensilvania, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[39.9526, -75.1652]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Aunque la suspensión es un paso importante, activistas y comunidades afectadas exigen una evaluación pública de riesgos antes de reanudar la construcción. Sunoco insiste en que resolverá los problemas y continuará el proyecto, pero su historial de violaciones genera desconfianza.",
+			"location": {
+				"label": "Chester County, Pensilvania, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[39.9730, -75.7485]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Energy Transfer Partners afirma que presentará los informes requeridos y confía en reanudar pronto la construcción. Sin embargo, inversionistas muestran frustración por los retrasos, y algunos sugieren buscar socios para compartir costos.",
+			"location": {
+				"label": "Huntingdon County, Pensilvania, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[40.4848, -77.9812]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -6344,7 +9228,86 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Tras descarrilamiento en Ohio, surgen preocupaciones por la expansión del transporte ferroviario y por tuberías de materiales peligrosos",
+	"subtitulo": "Dos desastres en EE.UU. exponen fallas en la regulación de materiales peligrosos: ¿Estamos preparados para lo que viene?",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Tras el descarrilamiento de un tren con materiales tóxicos en East Palestine, Ohio, y una fuga masiva de CO₂ en Satartia, Mississippi, expertos advierten sobre la falta de regulaciones adecuadas en el transporte de sustancias peligrosas. Ambos incidentes, bajo la supervisión de la misma agencia federal (PHMSA), revelan riesgos para la salud pública y el medio ambiente.",
+		"location": {
+			"label": "East Palestine, Ohio, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[40.8336, -80.5403]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El 3 de febrero, un tren de Norfolk Southern que transportaba químicos peligrosos, incluido cloruro de vinilo, descarriló en East Palestine, Ohio, provocando evacuaciones y una quema controlada que generó preocupación por la contaminación. Tres años antes, en Satartia, Mississippi, la ruptura de un gasoducto de CO₂ intoxicó a más de 100 personas. Ambos casos están bajo la jurisdicción de PHMSA, agencia criticada por su falta de rigurosidad en la regulación.",
+			"location": {
+				"label": "Satartia, Mississippi, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[32.6707, -90.5462]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "PHMSA ha sido acusada de priorizar los intereses de la industria sobre la seguridad pública. En 2020, rechazó una norma estatal en Washington para trenes con petróleo volátil, alegando que obstaculizaba el crecimiento del mercado. Ahora, con el auge de proyectos de captura de CO₂ en el Medio Oeste, ambientalistas temen que se repitan accidentes como los de Ohio y Mississippi debido a regulaciones obsoletas.",
+			"location": {
+				"label": "Medio Oeste, Estados Unidos",
+				"type": "área",
+				"coordinates": [[41.8780, -93.0977]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Tres proyectos de gasoductos de CO₂ (Summit Carbon Solutions, Navigator CO₂ Ventures y Wolf Carbon Solutions) planean recorrer miles de millas en el Medio Oeste para almacenar CO₂ capturado de plantas de etanol. Sin embargo, no existen regulaciones claras para impurezas en el CO₂, modelado de riesgos en fugas o estándares de construcción adecuados.",
+			"location": {
+				"label": "Iowa, Estados Unidos",
+				"type": "área",
+				"coordinates": [[41.8780, -93.0977]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El CO₂ es un gas asfixiante e indetectable: una fuga masiva puede ser letal en minutos (como ocurrió en Satartia). Con más de 5,000 millas de gasoductos existentes y nuevos proyectos en marcha, la falta de normas aumenta el riesgo de tragedias. PHMSA no tendrá nuevas regulaciones hasta 2024, pero las empresas ya buscan permisos sin garantías de seguridad.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "Los gasoductos de CO₂ transportan el gas en estado supercrítico (a alta presión). Actualmente, PHMSA solo regula CO₂ con pureza &gt;90%, dejando fuera mezclas peligrosas con sulfuro de hidrógeno u otros contaminantes. Además, no hay protocolos para modelar zonas de riesgo en caso de fugas, algo crítico porque el CO₂ se expande rápidamente y desplaza el oxígeno.",
+			"location": {
+				"label": "North Dakota, Estados Unidos",
+				"type": "área",
+				"coordinates": [[47.5515, -101.0020]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "PHMSA afirma que las empresas son responsables de operar los gasoductos de manera segura, incluso más allá de lo requerido por la ley. Sin embargo, compañías como Summit Carbon Solutions presionan para no compartir datos de seguridad con reguladores estatales, argumentando que solo el gobierno federal puede exigirlos.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras PHMSA tarda en actualizar sus normas, comunidades en el Medio Oeste enfrentan la posibilidad de nuevos gasoductos sin garantías de seguridad. Expertos y activistas exigen una moratoria hasta que se establezcan regulaciones basadas en ciencia, no en intereses económicos. El caso de Ohio y Mississippi muestra que, sin cambios, estos accidentes seguirán repitiéndose.",
+			"location": {
+				"label": "Illinois, Estados Unidos",
+				"type": "área",
+				"coordinates": [[40.6331, -89.3985]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -6520,7 +9483,79 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Cómo un oligarca ruso del acero y aliado de Putin se beneficia del oleoducto Keystone XL",
+	"subtitulo": "La conexión oculta entre Rusia, Trump y un polémico proyecto energético en Norteamérica",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Una investigación revela que el 40% del acero para el oleoducto Keystone XL fue fabricado por una subsidiaria de Evraz, empresa controlada en un 31% por el oligarca ruso Roman Abramovich, aliado de Putin y amigo de la familia Trump. Mientras el gobierno de EE.UU. promueve el proyecto, los lazos con Rusia generan sospechas.",
+		"location": {
+			"label": "Gascoyne, Dakota del Norte, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[46.1167, -103.0833]]
+		}
+	},
+	"body": [{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL, propiedad de TransCanada, fue detenido en 2015 por el presidente Obama pero revivido por Donald Trump en 2017. El proyecto busca transportar crudo desde Canadá hasta EE.UU., generando debates ambientales y económicos.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},{
+			"section": "Conflicto",
+			"content": "A pesar de la orden de Trump de usar acero estadounidense, gran parte del material ya fue fabricado en Canadá por Evraz, empresa vinculada a Abramovich. Esto contradice el discurso de 'América primero' y revela conexiones financieras con Rusia.",
+			"location": {
+				"label": "Regina, Saskatchewan, Canadá",
+				"type": "punto",
+				"coordinates": [[50.4452, -104.6189]]
+			}
+		},{
+			"section": "Hecho Central",
+			"content": "Evraz, controlada parcialmente por Abramovich (quien ayudó a consolidar el poder de Putin), fabricó 550 millas de tuberías para Keystone XL. El oligarca también tiene vínculos con Ivanka Trump a través de su esposa, Dasha Zhukova.",
+			"location": {
+				"label": "Moscú, Rusia",
+				"type": "punto",
+				"coordinates": [[55.7558, 37.6173]]
+			}
+		},{
+			"section": "¿Por qué es importante?",
+			"content": "El caso expone cómo intereses globales y alianzas políticas influyen en proyectos energéticos, mientras se investigan los vínculos de Trump con Rusia. Además, evidencia contradicciones en las políticas de 'empleos nacionales' promovidas por el gobierno.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},{
+			"section": "Conclusión",
+			"content": "La trama detrás de Keystone XL refleja la complejidad de la geopolítica energética, donde decisiones aparentemente nacionales tienen ramificaciones internacionales y beneficiarios inesperados.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "área",
+				"coordinates": [[53.9333, -116.5765]]
+			}
+		},{
+			"section": "Sí, pero",
+			"content": "Evraz afirma que cumple con estándares internacionales y tiene plantas en EE.UU., aunque eligió fabricar en Canadá. La empresa insiste en que el proyecto generará empleos en ambos países.",
+			"location": {
+				"label": "Pueblo, Colorado, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.2544, -104.6091]]
+			}
+		},{
+			"section": "Resultados",
+			"content": "Grupos como Public Citizen exigen investigar posibles influencias rusas en la orden ejecutiva de Trump. Mientras, tuberías ya fabricadas yacen en Dakota del Norte a la espera de su instalación.",
+			"location": {
+				"label": "Dakota del Norte, Estados Unidos",
+				"type": "área",
+				"coordinates": [[47.5289, -99.7840]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -6632,7 +9667,77 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Qué está en juego si EE. UU. aprueba la construcción de este gasoducto a México",
+	"subtitulo": "Un gasoducto amenaza aguas sagradas y el clima: la batalla entre energía y tradición en la frontera",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El gasoducto Saguaro Connector atravesaría aguas termales sagradas para la tribu Carrizo/Comecrudo en Texas, llevando gas natural a México para su exportación como LNG, con posibles graves impactos climáticos.",
+		"location": {
+			"label": "Indian Hot Springs, Texas, EE. UU.",
+			"type": "punto",
+			"coordinates": [[29.9664, -103.8475]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "En una zona rural de Texas cerca de la frontera con México, las aguas termales de Indian Hot Springs son un sitio sagrado para la tribu Carrizo/Comecrudo. Este oasis en el desierto de Chihuahua es vital para su cultura y biodiversidad. El gasoducto Saguaro Connector, propuesto por ONEOK, cruzaría esta área para transportar gas desde la Cuenca Pérmica hasta un puerto de LNG en México.",
+			"location": {
+				"label": "Cuenca Pérmica, Texas, EE. UU.",
+				"type": "polígono",
+				"coordinates": [[31.5, -102.5], [32.5, -101.5]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La tribu y residentes locales se oponen al proyecto por su impacto en tierras sagradas y riesgos ambientales. Aunque FERC solo evalúa el segmento fronterizo, el gasoducto podría aumentar la fracturación hidráulica en la Cuenca Pérmica. El Departamento de Estado recomendó su aprobación sin un análisis completo de emisiones, contradiciendo la pausa de Biden en permisos de LNG.",
+			"location": {
+				"label": "Van Horn, Texas, EE. UU.",
+				"type": "punto",
+				"coordinates": [[31.0403, -104.8307]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "FERC aprobó el gasoducto el 20/02/24. ONEOK afirma haber realizado estudios ambientales, pero críticos como Tyson Slocum de Public Citizen denuncian la falta de evaluación climática. El gasoducto podría emitir gases equivalentes a cientos de plantas de carbón y expandir la extracción en el Pérmica.",
+			"location": {
+				"label": "Puerto Libertad, Sonora, México",
+				"type": "punto",
+				"coordinates": [[29.9136, -112.7008]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El proyecto simboliza la tensión entre desarrollo energético y justicia climática/indígena. Su aprobación contradice las promesas ambientales de Biden y sentaría un precedente para otros gasoductos sin evaluaciones rigurosas.",
+			"location": {
+				"label": "Frontera EE. UU.-México",
+				"type": "líneas",
+				"coordinates": [[31.7833, -106.5333], [29.9664, -103.8475]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras las comunidades indígenas y ambientalistas resisten, la decisión sobre el gasoducto revela conflictos en la política energética de EE. UU. y sus compromisos climáticos. Sin análisis de emisiones completo, el proyecto avanza con riesgos desconocidos para el medio ambiente y las culturas locales.",
+			"location": {
+				"label": "Washington D.C., EE. UU.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "ONEOK y el Departamento de Estado argumentan que el gasoducto reduciría la quema de gas en el Pérmica. Sin embargo, expertos señalan que la capacidad existente ya cubre esta necesidad, y el proyecto solo incentivaría más fracking para exportación.",
+			"location": {
+				"label": "Culberson County, Texas, EE. UU.",
+				"type": "polígono",
+				"coordinates": [[31.5, -104.5], [32.0, -103.5]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -6770,7 +9875,68 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El nuevo gasoducto 'mejor de su clase' de TransCanada explota en Virginia Occidental, causando una explosión incendiaria",
+	"subtitulo": "Una explosión en un gasoducto recién construido despierta preocupaciones sobre la seguridad en la industria energética",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un gasoducto de TransCanada explotó en el condado de Marshall, Virginia Occidental, causando una gran llamarada visible a kilómetros de distancia. Afortunadamente, no hubo heridos ni daños materiales reportados. El gasoducto, llamado LeachXPress, solo tenía seis meses en operación y fue promocionado como 'el mejor de su clase'.",
+		"location": {
+			"label": "Nixon Ridge, Marshall County, West Virginia, USA",
+			"type": "punto",
+			"coordinates": [[39.8604, -80.7909]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El gasoducto LeachXPress, propiedad de TransCanada, fue inaugurado el 1 de enero de 2018. Con un costo de $1.6 mil millones, transporta gas natural desde los yacimientos de Marcellus y Utica hacia el sureste y la costa del Golfo de EE.UU. La empresa lo promocionó como un proyecto seguro y eficiente, parte de una expansión acelerada de infraestructura energética en Norteamérica.",
+			"location": {
+				"label": "Marcellus Shale, Pennsylvania, USA",
+				"type": "área",
+				"coordinates": [[41.4096, -77.4019]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La explosión ocurrió a las 4:15 a.m., generando una emergencia que obligó a evacuaciones preventivas. Aunque no hubo heridos, el incidente reaviva preocupaciones sobre los riesgos de construir gasoductos a gran velocidad. Denunciantes previos han alertado sobre recortes en estándares de seguridad en proyectos de TransCanada.",
+			"location": {
+				"label": "Marshall County, West Virginia, USA",
+				"type": "polígono",
+				"coordinates": [[39.8604, -80.7909]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El gasoducto LeachXPress, en servicio solo desde enero, explotó en Nixon Ridge, Virginia Occidental. La llamarada fue visible a kilómetros y requirió horas para ser controlada. TransCanada afirma que la causa aún se desconoce.",
+			"location": {
+				"label": "Nixon Ridge, Marshall County, West Virginia, USA",
+				"type": "punto",
+				"coordinates": [[39.8604, -80.7909]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este incidente cuestiona la seguridad de los proyectos energéticos acelerados. TransCanada planea invertir miles de millones en más gasoductos en EE.UU., mientras grupos ambientalistas advierten sobre riesgos ambientales y de seguridad.",
+			"location": {
+				"label": "United States",
+				"type": "polígono",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La explosión del LeachXPress, a pesar de no dejar víctimas, expone los desafíos de expandir rápidamente la infraestructura energética. Mientras la industria insiste en estándares altos, incidentes como este generan dudas sobre el equilibrio entre velocidad, costos y seguridad.",
+			"location": {
+				"label": "North America",
+				"type": "polígono",
+				"coordinates": [[47.0000, -100.0000]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -6898,7 +10064,71 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El oleoducto de Total en África Oriental 'tiene dificultades' para encontrar financiación",
+	"subtitulo": "Un proyecto polémico que enfrenta resistencia climática y social mientras busca respaldo económico",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El oleoducto EACOP, de 1,443 km, planea transportar crudo desde Uganda hasta Tanzania, pero enfrenta oposición por impactos ambientales y sociales. A pesar del avance en la decisión de inversión, financieros clave se retiran del proyecto.",
+		"location": {
+			"label": "Lago Albert, Uganda a Tanga, Tanzania",
+			"type": "líneas",
+			"coordinates": [[1.6631, 31.3956], [-5.0697, 39.0983]]
+		}
+	},
+	"body": [{
+			"section": "Contexto",
+			"content": "El oleoducto EACOP busca transportar 216,000 barriles diarios de crudo desde Uganda (región del Lago Albert) hasta el puerto de Tanga en Tanzania. TotalEnergies y CNOOC anunciaron una inversión de más de $10 mil millones en producción petrolera, sumado a los $3.5-$5 mil millones estimados para el oleoducto.",
+			"location": {
+				"label": "Lago Albert, Uganda",
+				"type": "punto",
+				"coordinates": [[1.6631, 31.3956]]
+			}
+		}, {
+			"section": "Conflicto",
+			"content": "Grupos ambientalistas y de derechos humanos denuncian que el proyecto desplazaría a miles de personas, dañaría ecosistemas y generaría 34 millones de toneladas anuales de CO₂. Bancos como Barclays, HSBC y aseguradoras como AXA han rechazado financiarlo por riesgos climáticos y reputacionales.",
+			"location": {
+				"label": "Uganda y Tanzania",
+				"type": "polígonos",
+				"coordinates": [[[1.3733, 32.2903], [-6.3690, 34.8888]] 
+			}
+		}, {
+			"section": "Hecho Central",
+			"content": "Aunque Total anunció la 'decisión final de inversión', la coalición Stop EACOP señala que faltan detalles financieros clave. El proyecto aún no tiene respaldo completo y enfrenta presión internacional.",
+			"location": {
+				"label": "Sedes de TotalEnergies (Francia) y CNOOC (China)",
+				"type": "puntos",
+				"coordinates": [[48.8566, 2.3522], [39.9042, 116.4074]]
+			}
+		}, {
+			"section": "¿Por qué es importante?",
+			"content": "El oleoducto contradice compromisos climáticos globales y locales. La AIE advirtió que no debe haber nuevas inversiones en combustibles fósiles para limitar el calentamiento a 1.5°C. Además, afectaría tierras agrícolas y biodiversidad en África Oriental.",
+			"location": {
+				"label": "África Oriental",
+				"type": "área",
+				"coordinates": [[-11.7467, 29.3667], [5.1521, 41.8559]]
+			}
+		}, {
+			"section": "Conclusión",
+			"content": "El futuro del EACOP sigue incierto. Mientras Total insiste en beneficios económicos (58,000 empleos), la falta de financiación y la presión social podrían retrasar o cancelar el proyecto, marcando un precedente para iniciativas fósiles en contextos sensibles.",
+			"location": {
+				"label": "Tilenga y Kingfisher (campos petroleros), Uganda",
+				"type": "puntos",
+				"coordinates": [[1.4667, 31.9833], [1.5333, 31.9000]]
+			}
+		}, {
+			"section": "Sí, pero",
+			"content": "Total afirma que el proyecto incluye compensaciones ambientales y sociales, y generará empleo. Sin embargo, críticos señalan historiales opacos de la empresa en África, con acusaciones de violaciones de derechos.",
+			"location": {
+				"label": "África subsahariana",
+				"type": "área",
+				"coordinates": [[-34.8138, 16.3449], [14.2350, 51.0834]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -7058,7 +10288,77 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Los desafíos de los oleoductos en Canadá obligarán a transportar más petróleo de arenas bituminosas por ferrocarril",
+	"subtitulo": "El auge del crudo por tren revive riesgos ambientales y de seguridad, mientras las comunidades buscan protegerse",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Canadá enfrenta un aumento en el transporte de petróleo por ferrocarril debido a la falta de capacidad en sus oleoductos, reviviendo preocupaciones por derrames y accidentes como el de Lac-Mégantic en 2013.",
+		"location": {
+			"label": "Gogama, Ontario, Canadá",
+			"type": "punto",
+			"coordinates": [[47.6626, -81.7388]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Canadá produce más petróleo de sus arenas bituminosas del que sus oleoductos pueden transportar. Proyectos como Energy East fueron cancelados, y otros como Trans Mountain y Keystone XL enfrentan retrasos y oposición. Esto ha llevado a un resurgimiento del transporte por ferrocarril, con una capacidad de hasta 1.2 millones de barriles diarios.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "polígono",
+				"coordinates": [[52.2833, -117.4690]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El transporte de crudo por tren implica riesgos graves: explosiones, derrames y falta de regulación adecuada. Aunque ya no se usan los tanques más peligrosos (DOT-111), los modelos actuales (CPC-1232) también han fallado. Además, no hay planes obligatorios de respuesta ante derrames para trenes petroleros.",
+			"location": {
+				"label": "Lac-Mégantic, Quebec, Canadá",
+				"type": "punto",
+				"coordinates": [[45.5834, -70.8828]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La Agencia Internacional de Energía prevé que Canadá aumente sus exportaciones de crudo por ferrocarril de 150,000 a 590,000 barriles diarios para 2019. Dos accidentes en Gogama (Ontario) en 2015 mostraron el peligro de estos trenes, con derrames que contaminaron el río Makami.",
+			"location": {
+				"label": "Makami River, Ontario, Canadá",
+				"type": "línea",
+				"coordinates": [[47.6626, -81.7388]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El petróleo de arenas bituminosas es más espeso y difícil de limpiar en derrames. Además, su transporte por tren sigue siendo inseguro por la falta de regulaciones modernas en frenos, equipos y respuesta a emergencias. Comunidades como Vancouver y Baltimore ya actúan para prohibir nuevos proyectos.",
+			"location": {
+				"label": "Vancouver, Washington, EE.UU.",
+				"type": "punto",
+				"coordinates": [[45.6318, -122.6716]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Algunos estados como Washington exigen planes de respuesta ante derrames para trenes petroleros. Sin embargo, a nivel federal (EE.UU. y Canadá), las regulaciones siguen estancadas o siendo eliminadas, como la norma de frenos modernos revocada en 2018.",
+			"location": {
+				"label": "Washington, EE.UU.",
+				"type": "polígono",
+				"coordinates": [[47.7511, -120.7401]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras Canadá depende más del ferrocarril para exportar su petróleo, los riesgos de accidentes y derrames persisten. Sin cambios regulatorios significativos, comunidades y ecosistemas seguirán expuestos a peligros, como demostraron los desastres de Lac-Mégantic y Gogama.",
+			"location": {
+				"label": "Portland, Oregon, EE.UU.",
+				"type": "punto",
+				"coordinates": [[45.5152, -122.6784]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -7242,7 +10542,86 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Revelado: Contratistas contratados por FERC para revisar un nuevo gasoducto de Spectra Energy trabajaban para Spectra en un proyecto relacionado",
+	"subtitulo": "Un conflicto de intereses pone en duda la imparcialidad de la revisión ambiental de un polémico gasoducto en EE.UU.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Una investigación revela que Natural Resource Group (NRG), contratista encargado por FERC de evaluar el proyecto Atlantic Bridge de Spectra Energy, mantenía vínculos financieros con la misma empresa, generando un conflicto de intereses en la aprobación del gasoducto que conecta Pennsylvania con el noreste de EE.UU. y Canadá.",
+		"location": {
+			"label": "Weymouth, Massachusetts, EE.UU.",
+			"type": "punto",
+			"coordinates": [[42.2223, -70.9398]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "FERC (Comisión Federal Reguladora de Energía) contrata evaluadores externos para revisar proyectos energéticos. Estos contratistas son pagados por las mismas empresas que buscan aprobación, pero deben mantener independencia. Spectra Energy propone Atlantic Bridge, una extensión del gasoducto Algonquin para transportar gas de esquisto desde Pennsylvania.",
+			"location": {
+				"label": "Noreste de EE.UU. y Canadá",
+				"type": "área",
+				"coordinates": [[43.0000, -71.5000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "NRG, subsidiaria de ERM (con historial en revisiones favorables a la industria), fue contratada por FERC para evaluar Atlantic Bridge mientras simultáneamente trabajaba para PennEast, un consorcio del que Spectra es parte. Esto crea un conflicto de intereses, ya que NRG tenía incentivos financieros para aprobar el proyecto.",
+			"location": {
+				"label": "Marcellus Shale, Pennsylvania, EE.UU.",
+				"type": "polígono",
+				"coordinates": [[41.4098, -77.4164]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Documentos muestran que NRG recibió $2.5 millones de Spectra por servicios previos y participó en reuniones públicas presentándose como parte de FERC, sin revelar su financiamiento. La evaluación ambiental (EA) que realizaron omitió estudios más profundos y declaró el proyecto como de 'impacto no significativo'.",
+			"location": {
+				"label": "Weymouth, Massachusetts, EE.UU.",
+				"type": "punto",
+				"coordinates": [[42.2223, -70.9398]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso expone fallas en el sistema de revisión de FERC, donde contratistas con conflictos de interés pueden influir en aprobaciones de infraestructura crítica. Residentes de Weymouth, donde se planea una estación compresora, desconocían estos vínculos al participar en audiencias públicas.",
+			"location": {
+				"label": "Weymouth, Massachusetts, EE.UU.",
+				"type": "punto",
+				"coordinates": [[42.2223, -70.9398]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "FERC permite que las empresas energéticas elijan y paguen a sus evaluadores, pero exige que estos operen bajo supervisión regulatoria. Las guías prohíben conflictos de interés, pero no hay mecanismos efectivos para evitarlos cuando contratistas tienen relaciones previas con las empresas.",
+			"location": {
+				"label": "Washington D.C., EE.UU.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "FERC defendió el proceso alegando transparencia, pero no respondió específicamente sobre NRG. Spectra no comentó. El proyecto Atlantic Bridge sigue pendiente de aprobación final, mientras opositores exigen una revisión conjunta con Access Northeast, otro gasoducto vinculado.",
+			"location": {
+				"label": "Noreste de EE.UU.",
+				"type": "área",
+				"coordinates": [[42.4072, -71.3824]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El caso revela cómo la dependencia de FERC en contratistas financiados por la industria puede comprometer la imparcialidad de las evaluaciones ambientales, afectando a comunidades como Weymouth que enfrentan riesgos por infraestructura de combustibles fósiles.",
+			"location": {
+				"label": "Weymouth, Massachusetts, EE.UU.",
+				"type": "punto",
+				"coordinates": [[42.2223, -70.9398]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -7452,7 +10831,86 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "DOE respalda en silencio un plan para una red de captura de carbono más grande que todo el sistema de oleoductos",
+	"subtitulo": "Un proyecto ambicioso que promete reducir emisiones, pero que genera dudas sobre su viabilidad y posibles efectos contraproducentes.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un plan respaldado por el Departamento de Energía de EE.UU. propone construir una red de tuberías para transportar CO₂ capturado, con el objetivo de reducir emisiones. Sin embargo, hay preocupaciones sobre su costo, eficacia y posibles beneficios para la industria de combustibles fósiles.",
+		"location": {
+			"label": "Estados Unidos",
+			"type": "área",
+			"coordinates": [[37.0902, -95.7129]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "La captura y almacenamiento de carbono (CCUS) es una tecnología que busca reducir las emisiones de CO₂ atrapándolo antes de que llegue a la atmósfera. Aunque existe desde los años 70, su implementación a gran escala ha sido limitada por su alto costo y complejidad técnica.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": [[0, 0]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El plan, impulsado por una organización liderada por Ernest Moniz (exsecretario de Energía de Obama), propone una red de tuberías para transportar CO₂ capturado, principalmente desde plantas de carbón en el Valle del Río Ohio y la Costa del Golfo. Sin embargo, críticos argumentan que esto podría prolongar la vida de centrales contaminantes y desviar fondos de energías renovables.",
+			"location": {
+				"label": "Valle del Río Ohio, Estados Unidos",
+				"type": "área",
+				"coordinates": [[38.6406, -82.8363]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La red propuesta tendría capacidad para transportar 1 gigatonelada de CO₂ al año, más del doble que el volumen actual de oleoductos en EE.UU. Parte del CO₂ se usaría para extraer más petróleo, lo que reduciría su beneficio climático.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Si bien el CCUS podría ayudar a industrias difíciles de descarbonizar (como el acero y el cemento), el plan actual parece enfocarse en salvar plantas de carbón. Además, su alto costo (hasta $230 mil millones) podría restar recursos a soluciones más efectivas como la energía eólica y solar.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Defensores argumentan que esta infraestructura podría usarse en el futuro para tecnologías de captura directa de aire. Sin embargo, expertos señalan que esas tecnologías no estarán listas a escala significativa antes de 2060-2070, demasiado tarde para la crisis climática actual.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": [[0, 0]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Proyectos previos de CCUS han fracasado por su alto costo y problemas técnicos. Por ejemplo, la planta Petra Nova en Texas (que costó $1 mil millones) está inactiva por ser 'no económica', y el proyecto Boundary Dam en Canadá no ha cumplido sus metas anuales de captura.",
+			"location": {
+				"label": "Petra Nova, Texas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[29.4241, -95.7349]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Este plan representa una apuesta arriesgada: mientras promete reducir emisiones, también podría beneficiar a la industria fósil y retrasar la transición a energías limpias. Su éxito depende de avances tecnológicos no garantizados y de superar obstáculos económicos y logísticos significativos.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -7578,7 +11036,95 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La expansión del Trans Mountain de Trudeau no ha cumplido con los beneficios prometidos",
+	"subtitulo": "El multimillonario proyecto petrolero enfrenta críticas por su bajo impacto económico y altos riesgos ambientales",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "La expansión del oleoducto Trans Mountain (TMX), un proyecto de $34 mil millones, no ha logrado los beneficios económicos prometidos para Alberta. A pesar de acceder a mercados asiáticos, el precio del crudo canadiense sigue en descuento y los riesgos ambientales persisten.",
+		"location": {
+			"label": "Alberta, Canadá",
+			"type": "área",
+			"coordinates": [[52.2833, -117.469]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Trans Mountain (TMX) fue expandido para transportar bitumen de Alberta hasta la costa del Pacífico, prometiendo mejores precios al acceder a mercados asiáticos. El gobierno canadiense compró el proyecto en 2018 tras el abandono de Kinder Morgan.",
+			"location": {
+				"label": "Vancouver, Columbia Británica, Canadá",
+				"type": "punto",
+				"coordinates": [[49.2827, -123.1207]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "A pesar de la inversión récord, el crudo de Alberta sigue vendiéndose con descuento frente al West Texas Intermediate. Además, las refinerías en California y Asia muestran poco interés debido a la baja calidad del bitumen y los altos costos de transporte.",
+			"location": {
+				"label": "California, Estados Unidos",
+				"type": "área",
+				"coordinates": [[36.7783, -119.4179]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Cuatro meses después de su inauguración, TMX no ha mejorado los precios del crudo canadiense. Las empresas petroleras ahora disputan los peajes del oleoducto, lo que podría reducir aún más su rentabilidad para el gobierno.",
+			"location": {
+				"label": "Edmonton, Alberta, Canadá",
+				"type": "punto",
+				"coordinates": [[53.5461, -113.4938]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "TMX es el proyecto de infraestructura más caro de Canadá, con costos que superan cinco veces el presupuesto inicial. Sus limitados beneficios económicos y altos riesgos ambientales cuestionan su viabilidad a largo plazo.",
+			"location": {
+				"label": "Ottawa, Ontario, Canadá",
+				"type": "punto",
+				"coordinates": [[45.4215, -75.6972]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "TMX transporta bitumen diluido desde Alberta hasta el puerto de Vancouver, donde se carga en buques AFRAmax (de menor capacidad) con destino a Asia o California. El estrecho Second Narrows limita el tamaño de los buques, aumentando costos y riesgos.",
+			"location": {
+				"label": "Second Narrows, Vancouver, Canadá",
+				"type": "línea",
+				"coordinates": [[49.295, -123.024], [49.298, -123.020]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "China ha reducido sus importaciones de crudo en 2024, mientras que India y Corea del Sur compran menos de la mitad que EE.UU. La transición a vehículos eléctricos en Asia sugiere una demanda decreciente de petróleo a futuro.",
+			"location": {
+				"label": "Beijing, China",
+				"type": "punto",
+				"coordinates": [[39.9042, 116.4074]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Algunos argumentan que es demasiado pronto para evaluar TMX, ya que los mercados petroleros son volátiles. Sin embargo, los altos costos y la transición energética global reducen las posibilidades de recuperación económica.",
+			"location": {
+				"label": "Calgary, Alberta, Canadá",
+				"type": "punto",
+				"coordinates": [[51.0447, -114.0719]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "TMX parece un proyecto fallido: no mejora los precios del crudo, enfrenta rechazo de compradores y aumenta riesgos ambientales. Con la transición energética en marcha, Canadá podría haber invertido mejor sus recursos en alternativas sostenibles.",
+			"location": {
+				"label": "Burrard Inlet, Vancouver, Canadá",
+				"type": "polígono",
+				"coordinates": [[49.30, -123.10], [49.29, -123.12], [49.28, -123.08]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -7704,7 +11250,77 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Keystone XL: El ramal de Houston de TransCanada, una bifurcación en el camino",
+	"subtitulo": "Mientras el destino de la mitad norte del oleoducto Keystone XL sigue en duda, el ramal de Houston prepara su apertura, llevando crudo de arenas bituminosas y fracking a refinerías con graves impactos en la salud de comunidades locales.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El ramal de Houston, parte sur del polémico oleoducto Keystone XL, transportará crudo de arenas bituminosas y fracking a refinerías en Houston, exacerbando problemas de salud en comunidades cercanas.",
+		"location": {
+			"label": "Houston, Texas, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[29.7604, -95.3698]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL, dividido en dos mitades, enfrenta incertidumbre en su tramo norte, pero el sur (rebautizado 'Gulf Coast Pipeline') ya está en operación. Transporta crudo de arenas bituminosas de Alberta (Canadá) y petróleo de fracking de Bakken (Dakota del Norte) a refinerías en Port Arthur, Texas, una zona con graves impactos ambientales y de salud.",
+			"location": {
+				"label": "Port Arthur, Texas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[29.8849, -93.9399]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El ramal de Houston, un desvío de 48 millas desde Liberty County, llevará crudo a refinerías en Houston, como la de LyondellBasell, que está invirtiendo $50 millones para triplicar su capacidad de procesar crudo pesado. Esto amenaza a comunidades cercanas, ya afectadas por altos índices de cáncer y enfermedades respiratorias.",
+			"location": {
+				"label": "Liberty County, Texas, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[30.1518, -94.8129], [30.1518, -94.8129]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El ramal de Houston entrará en operaciones comerciales el 22 de enero, alimentando refinerías que ya son focos de contaminación. Estudios vinculan emisiones de estas plantas con daño cerebral prenatal, asma y leucemia infantil.",
+			"location": {
+				"label": "Houston Ship Channel, Texas, Estados Unidos",
+				"type": "línea",
+				"coordinates": [[29.7356, -95.0996], [29.7604, -95.3698]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Mientras las empresas celebran los beneficios económicos, comunidades marginadas en Houston y Port Arthur sufren consecuencias graves. No es un riesgo futuro: la exposición tóxica ya está ocurriendo, con efectos inmediatos en la salud.",
+			"location": {
+				"label": "Houston, Texas, Estados Unidos",
+				"type": "área",
+				"coordinates": [[29.7604, -95.3698]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El ramal de Houston ejemplifica cómo proyectos energéticos priorizan ganancias sobre el bienestar comunitario. Con el crudo fluyendo, la lucha de las 'zonas de sacrificio' no es contra un posible derrame, sino contra una contaminación constante que pone en riesgo vidas hoy.",
+			"location": {
+				"label": "Golfo de México",
+				"type": "polígono",
+				"coordinates": [[25.9973, -97.1580], [29.7604, -95.3698]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Las empresas argumentan que el crudo canadiense es 'importante para la competitividad' de las refinerías y genera empleos. Sin embargo, gran parte del combustible refinado se exporta, dejando los impactos locales sin beneficios económicos proporcionales.",
+			"location": {
+				"label": "LyondellBasell Refinery, Houston, Texas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[29.7260, -95.2596]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -7822,7 +11438,77 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El Gasoducto de la Costa Atlántica paralizará 100 millas de construcción en Virginia y Virginia Occidental",
+	"subtitulo": "Un proyecto millonario en la cuerda floja: especies en peligro y resistencia comunitaria frenan el avance del polémico gasoducto",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El Gasoducto de la Costa Atlántica, un proyecto de $6.5 mil millones que transportaría gas natural desde Virginia Occidental hasta Carolina del Norte, enfrenta nuevos obstáculos legales. Un tribunal federal anuló un permiso clave por insuficiente protección a especies amenazadas, obligando a suspender obras en 100 millas de su trayecto.",
+		"location": {
+			"label": "Appalachian Mountains, Virginia y West Virginia, EE.UU.",
+			"type": "líneas",
+			"coordinates": [[37.4316, -78.6569], [38.5976, -80.4549]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El Gasoducto de la Costa Atlántica es una infraestructura energética de 600 millas que atravesaría tres estados, incluyendo áreas sensibles como los Montes Apalaches. Su construcción implica tala de bosques, voladuras de montañas y riesgos para especies protegidas como el abejorro raro y murciélagos en peligro.",
+			"location": {
+				"label": "Virginia Occidental a Carolina del Norte, EE.UU.",
+				"type": "líneas",
+				"coordinates": [[38.5976, -80.4549], [35.7596, -79.0193]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La Corte de Apelaciones del 4° Circuito anuló el permiso de 'toma incidental' del Servicio de Pesca y Vida Silvestre por considerar su evaluación ambiental insuficiente. Grupos ecologistas exigen paralizar toda la obra, mientras Dominion Energy (la desarrolladora) insiste en continuar excepto en las 100 millas con hábitats sensibles.",
+			"location": {
+				"label": "Richmond, Virginia, EE.UU. (4th Circuit Court of Appeals)",
+				"type": "punto",
+				"coordinates": [[37.5407, -77.4360]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Dominion Energy suspendió voluntariamente la construcción en 21 millas de Virginia Occidental y 79 millas de Virginia hasta que se emita un nuevo permiso ambiental. Las ubicaciones exactas se mantienen confidenciales para proteger especies sensibles.",
+			"location": {
+				"label": "Condados afectados en Virginia y West Virginia, EE.UU.",
+				"type": "polígonos",
+				"coordinates": [[38.0000, -79.5000], [37.5000, -79.0000], [38.5000, -80.0000]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este caso marca un precedente sobre cómo los proyectos energéticos deben evaluar impactos acumulativos en especies amenazadas. Además, refleja la creciente presión legal y comunitaria contra infraestructuras fósiles en EE.UU., donde solo en mayo hubo 9 bloqueos aéreos contra el gasoducto Mountain Valley, paralelo a este.",
+			"location": {
+				"label": "Blue Ridge Mountains, Virginia, EE.UU.",
+				"type": "área",
+				"coordinates": [[37.4316, -78.6569], [37.5000, -79.0000]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Dominion Energy argumenta que la suspensión solo aplica a zonas con especies en riesgo y que el fallo no afecta otros permisos ni la ruta del gasoducto. La empresa subraya el valor económico del proyecto para la región.",
+			"location": {
+				"label": "Dominion Energy HQ, Richmond, Virginia, EE.UU.",
+				"type": "punto",
+				"coordinates": [[37.5435, -77.4453]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras la Comisión Federal de Energía evalúa los próximos pasos, el conflicto ejemplifica la tensión entre desarrollo energético y conservación. El desenlace podría influir en futuros proyectos similares y en la protección efectiva de hábitats críticos.",
+			"location": {
+				"label": "Washington D.C., EE.UU. (Federal Energy Regulatory Commission)",
+				"type": "punto",
+				"coordinates": [[38.8951, -77.0364]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -7986,7 +11672,86 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Energy Transfer utiliza un atajo para abrir el oleoducto Mariner East 2 entre preocupaciones de peligro e investigación criminal",
+	"subtitulo": "Un polémico oleoducto en Pennsylvania entra en funcionamiento mientras persisten dudas sobre su seguridad y un proceso penal en curso",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Energy Transfer, propietaria de Sunoco, ha comenzado a operar el polémico oleoducto Mariner East 2 en Pennsylvania, utilizando secciones de tuberías antiguas para sortear tramos sin terminar. Esto ocurre mientras una investigación criminal sigue abierta y residentes denuncian riesgos no resueltos.", 
+		"location": {
+				"label": "Pennsylvania, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[41.2033, -77.1945]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El proyecto Mariner East 2 transporta líquidos de gas natural (NGLs), como propano y butano, desde el esquisto Marcellus hacia puertos de exportación. El oleoducto ha acumulado cientos de violaciones regulatorias, multas millonarias y ha causado daños ambientales durante su construcción.",
+			"location": {
+				"label": "Marcellus Shale, Pennsylvania, Estados Unidos",
+				"type": "área",
+				"coordinates": [[41.2033, -77.1945]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Autoridades y residentes denuncian que el oleoducto opera con tuberías obsoletas (incluyendo una de 1930 con historial de fugas) mientras una investigación criminal por 'riesgo de catástrofe' sigue abierta. El fiscal del condado de Chester acusa falta de supervisión estatal.",
+			"location": {
+				"label": "Chester County, Pennsylvania, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[39.9729, -75.7474]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Energy Transfer activó Mariner East 2 en diciembre de 2018 usando un 'Frankenpipe': una mezcla de tuberías de 20, 16 y 12 pulgadas para salvar tramos inconclusos. Esto ocurrió durante un cierre del gobierno federal que dejó sin inspectores a la agencia de seguridad de oleoductos (PHMSA).",
+			"location": {
+				"label": "West Whiteland Township, Pennsylvania, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[40.0259, -75.6174]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El oleoducto atraviesa zonas pobladas cerca de Filadelfia y escuelas, con riesgos de explosión por los NGLs altamente inflamables. Un oleoducto hermano (Revolution) explotó en 2018 días después de inaugurarse, destruyendo una vivienda.",
+			"location": {
+				"label": "Delaware County, Pennsylvania, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[39.9078, -75.3879]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "Los NGLs se separan del gas natural 'húmedo' para su exportación. Energy Transfer enfrenta presión de empresas frackers que necesitan transportar estos productos (etano, propano) que valen más que el gas metano solo.",
+			"location": {
+				"label": "Marcus Hook, Pennsylvania, Estados Unidos (terminal de exportación)",
+				"type": "punto",
+				"coordinates": [[39.8115, -75.4188]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Energy Transfer asegura que realizó pruebas hidrostáticas sin fallos y que vivir cerca del oleoducto es 'más seguro que manejar un auto'. Reguladores estatales (PUC) aclaran que no han certificado su seguridad, pero tampoco la han declarado insegura.",
+			"location": {
+				"label": "Harrisburg, Pennsylvania, Estados Unidos (capital estatal)",
+				"type": "punto",
+				"coordinates": [[40.2732, -76.8867]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras Mariner East 2 opera de forma parcial, legisladores presionan por leyes más estrictas para oleoductos. El senador Dinniman advierte: 'La batalla por la seguridad apenas comienza' en un estado donde la industria gasífera tiene gran influencia política.",
+			"location": {
+				"label": "Pennsylvania, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[41.2033, -77.1945]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -8130,7 +11895,86 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Evidencia presentada en la audiencia de renovación del permiso de Keystone XL de TransCanada revela graves riesgos del oleoducto",
+	"subtitulo": "Documentos internos muestran fallas críticas en la construcción y corrosión en tuberías existentes, poniendo en duda las promesas de seguridad de la empresa.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Nuevos documentos presentados en la audiencia de renovación del permiso de Keystone XL en Dakota del Sur revelan problemas graves de corrosión en tuberías existentes de TransCanada, poniendo en riesgo tierras agrícolas y fuentes de agua.",
+		"location": {
+				"label": "Pierre, South Dakota, USA",
+				"type": "punto",
+				"coordinates": [[44.3683, -100.3510]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "TransCanada busca renovar el permiso para construir el oleoducto Keystone XL, un proyecto controvertido que transportaría crudo de arenas bituminosas desde Canadá hasta EE.UU. La empresa insiste en que será el oleoducto más seguro jamás construido, pero su historial sugiere lo contrario.",
+			"location": {
+				"label": "South Dakota, USA",
+				"type": "polígono",
+				"coordinates": [[43.9695, -99.9018], [45.9434, -99.9018], [45.9434, -96.4537], [43.9695, -96.4537]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Grupos ciudadanos y tribus nativas se oponen al proyecto, argumentando que pone en riesgo tierras agrícolas y fuentes de agua. Documentos internos muestran que tuberías existentes de TransCanada sufrieron corrosión extrema en solo dos años, casi causando un desastre ambiental cerca del río Mississippi.",
+			"location": {
+				"label": "Mississippi River near St. Louis, USA",
+				"type": "línea",
+				"coordinates": [[38.6270, -90.1994], [38.8000, -90.1000]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Un informe interno de TransCanada revela que una sección del oleoducto Keystone 1 estaba corroída en un 96.8%, quedando tan delgada como un papel. La empresa atribuye el problema a interferencias eléctricas, pero expertos señalan fallas en los protocolos de construcción.",
+			"location": {
+				"label": "Keystone 1 Pipeline route, USA",
+				"type": "líneas",
+				"coordinates": [[49.0000, -102.0000], [39.0000, -95.0000]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El permiso afectaría directamente a Dakota del Sur, donde comunidades rurales y tribus nativas dependen de tierras y agua limpia. Un derrame podría contaminar acuíferos críticos para la agricultura y el consumo humano.",
+			"location": {
+				"label": "Ogallala Aquifer, USA",
+				"type": "área",
+				"coordinates": [[37.0000, -102.0000], [43.0000, -102.0000], [43.0000, -96.0000], [37.0000, -96.0000]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La evidencia sugiere que TransCanada prioriza ganancias sobre seguridad. Aunque la empresa insiste en que Keystone XL será seguro, sus propios documentos muestran un patrón de fallas técnicas que podrían repetirse, poniendo en riesgo ecosistemas y comunidades.",
+			"location": {
+				"label": "Fort Pierre, South Dakota, USA",
+				"type": "punto",
+				"coordinates": [[44.3533, -100.4010]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "TransCanada argumenta que los problemas en Keystone 1 fueron aislados y que aplicará mayores estándares en Keystone XL. Sin embargo, reguladores han bloqueado el acceso a información clave sobre investigaciones pendientes.",
+			"location": {
+				"label": "Washington D.C., USA",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Estamos pensando",
+			"content": "La decisión en Dakota del Sur podría sentar un precedente para proyectos de infraestructura energética. Si se aprueba el permiso a pesar de la evidencia en contra, se enviaría el mensaje de que las empresas pueden evadir responsabilidades ambientales.",
+			"location": {
+				"label": "South Dakota Public Utilities Commission, Pierre, USA",
+				"type": "punto",
+				"coordinates": [[44.3675, -100.3440]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -8274,7 +12118,86 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Nuevo oleoducto Bakken Shale hacia Cushing, OK en proceso",
+	"subtitulo": "Mientras el debate sobre Keystone XL continúa, otro polémico proyecto de oleoducto avanza en silencio",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Se planea un nuevo oleoducto para transportar crudo obtenido mediante fracking desde los yacimientos de Bakken Shale en Dakota del Norte hasta Cushing, Oklahoma, con ramificaciones hacia mercados de exportación globales.",
+		"location": {
+			"label": "Cushing, Oklahoma, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[35.985, -96.767]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL, destinado a transportar crudo de arenas bituminosas desde Alberta (Canadá) hasta Texas, lleva años en debate político. Mientras tanto, otros proyectos de infraestructura petrolera avanzan, como la extensión Cushing aprobada por Obama, que conecta Oklahoma con Texas para exportación global.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "polígono",
+				"coordinates": [[55.000, -115.000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El nuevo proyecto Bakken Crude Express Pipeline transportaría crudo obtenido mediante fracking (técnica controvertida por su impacto ambiental) desde Dakota del Norte hasta Cushing. Grupos ambientalistas señalan los riesgos de contaminación y el hecho de que el crudo se destinaría principalmente a exportación, sin beneficiar a consumidores estadounidenses.",
+			"location": {
+				"label": "Bakken Shale, Dakota del Norte, Estados Unidos",
+				"type": "área",
+				"coordinates": [[48.000, -103.000]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Oneok Partners LP planea construir un oleoducto de 1,300 millas (2,092 km) desde Dakota del Norte hasta Cushing, Oklahoma, con capacidad para 200,000 barriles diarios. Otra rama llevaría crudo a Oregon para exportación a Asia. Costaría entre $1.5-1.8 mil millones.",
+			"location": {
+				"label": "Opal, Wyoming, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[41.771, -110.325]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este proyecto refleja la expansión de la infraestructura para combustibles fósiles no convencionales (fracking), pese a los compromisos climáticos. Además, prioriza ganancias de exportación sobre necesidades energéticas locales y perpetúa la dependencia de energías contaminantes.",
+			"location": {
+				"label": "Coos Bay, Oregon, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[43.367, -124.217]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "La red conecta tres sistemas: 1) Bakken Pipeline (Dakota del Norte a Wyoming), 2) Overland Pass Pipeline (Wyoming a Oklahoma) y 3) Ruby Pipeline (Wyoming a Oregon). En Opal (WY) se bifurca: hacia Cushing (para exportación vía Golfo de México) o hacia Oregon (para mercado asiático).",
+			"location": {
+				"label": "Malin, Oregon, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[42.017, -121.400]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "La industria argumenta que estos oleoductos reducen el 'flaring' (quema de gas asociado al fracking, actualmente en 30% en Bakken). Sin embargo, ambientalistas señalan que la solución real es abandonar los combustibles fósiles, no construir más infraestructura para su explotación.",
+			"location": {
+				"label": "Niobrara Shale, Wyoming, Estados Unidos",
+				"type": "área",
+				"coordinates": [[43.000, -105.000]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras el mundo debate transiciones energéticas, proyectos como el Bakken Crude Express muestran cómo la industria sigue invirtiendo en infraestructura para combustibles fósiles no convencionales, con impactos ambientales y pocos beneficios locales. La disyuntiva entre 'flaring' o más oleoductos oculta el problema de fondo: la dependencia de energías sucias.",
+			"location": {
+				"label": "Port Arthur, Texas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[29.885, -93.943]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -8442,7 +12365,86 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Arrestos masivos y registros vejatorios a manifestantes del oleoducto Dakota Access aumentan las tensiones",
+	"subtitulo": "La represión policial contra protectores del agua en Dakota del Norte marca un punto de inflexión en el conflicto",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Más de 100 manifestantes fueron arrestados violentamente durante una marcha pacífica cerca de Cannon Ball, Dakota del Norte, en protesta contra el oleoducto Dakota Access. La policía utilizó gas pimienta, porras y balas de goma, mientras que los activistas denuncian humillaciones como registros corporales forzados.",
+		"location": {
+			"label": "Cannon Ball, Dakota del Norte, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[46.3906, -100.5989]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Dakota Access (DAPL), un proyecto de 3.800 millones de dólares, pretende transportar petróleo desde Dakota del Norte hasta Illinois. La tribu Sioux de Standing Rock y aliados ambientalistas se oponen, argumentando que amenaza tierras sagradas y el suministro de agua para 17 millones de personas.",
+			"location": {
+				"label": "Standing Rock Sioux Reservation, Dakota del Norte, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[45.7450, -101.2000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El 22 de octubre, la policía reprimió una marcha pacífica con gas pimienta y porras. Los manifestantes, incluyendo mujeres embarazadas y ancianos, fueron acorralados y arrestados masivamente. Autoridades alegan invasión de propiedad privada, mientras los activistas denuncian violencia desproporcionada.",
+			"location": {
+				"label": "Autopista 1806, Cannon Ball, Dakota del Norte, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[46.3906, -100.5989]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "126 arrestos confirmados (141 según los activistas), incluyendo periodistas. Se reportaron registros vejatorios, confiscación de objetos sagrados y uso de la Guardia Nacional por primera vez en las protestas.",
+			"location": {
+				"label": "Campamento Oceti Sakowin, Dakota del Norte, Estados Unidos",
+				"type": "área",
+				"coordinates": [[46.2333, -100.6667]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El conflicto refleja la lucha global entre derechos indígenas, ambientalismo e intereses energéticos. La criminalización de la protesta pacífica y la prensa preocupa a organizaciones de derechos civiles.",
+			"location": {
+				"label": "Dakota del Norte, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[47.6506, -100.4370]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Se estableció un nuevo campamento de resistencia (Oceti Sakowin) en tierras reclamadas bajo el Tratado de Fort Laramie de 1851. La autopista 1806 fue bloqueada y luego cerrada indefinidamente.",
+			"location": {
+				"label": "Fort Laramie, Wyoming, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[42.2026, -104.5456]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "El sheriff de Morton County afirma que los manifestantes dañaron maquinaria y se encadenaron a equipos con concreto. Energy Transfer Partners advierte pérdidas millonarias si se retrasa el proyecto.",
+			"location": {
+				"label": "Morton County, Dakota del Norte, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[46.7158, -101.2825]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La escalada represiva no ha disuadido a los activistas, quienes se preparan para una resistencia prolongada. Organizaciones legales investigan posibles violaciones a derechos civiles, mientras el oleoducto avanza hacia su fecha límite de enero 2017.",
+			"location": {
+				"label": "Dakota del Norte, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[47.6506, -100.4370]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -8578,7 +12580,77 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Ley de Louisiana que convierte las protestas contra oleoductos en delitos graves viola la Constitución, según nueva demanda",
+	"subtitulo": "Una batalla legal cuestiona una polémica ley que criminaliza la oposición a proyectos de combustibles fósiles",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Una demanda presentada en un tribunal federal de Louisiana desafía la ley de 'infraestructura crítica' del estado, utilizada para imputar cargos graves a opositores de oleoductos, alegando que es inconstitucional por ser demasiado vaga y amplia.",
+		"location": {
+				"label": "Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.9843, -91.9623]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "La ley de 'infraestructura crítica' de Louisiana, en vigor desde agosto de 2018, permite acusar de delito grave a cualquier persona que esté cerca de oleoductos u otras infraestructuras energéticas, incluso en terrenos públicos o privados. Esta legislación ha sido utilizada principalmente contra manifestantes que se oponen a proyectos como el oleoducto Bayou Bridge.",
+			"location": {
+				"label": "Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.9843, -91.9623]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La demanda alega que la ley es inconstitucional porque no define claramente qué conductas son ilegales y puede aplicarse de manera arbitraria. Además, fue redactada con influencia de grupos de la industria petrolera y se asemeja a proyectos de ley promovidos en otros estados para reprimir protestas ambientales.",
+			"location": {
+				"label": "Baton Rouge, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.4515, -91.1871]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La demanda fue presentada por tres organizaciones y diez individuos, incluidos activistas que enfrentan cargos o temen represalias por ejercer su derecho a la protesta. Argumentan que la ley viola la Primera Enmienda al restringir la libertad de expresión y reunión.",
+			"location": {
+				"label": "Nueva Orleans, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[29.9511, -90.0715]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Si la ley es declarada inconstitucional, sentaría un precedente para otros estados con legislaciones similares. Además, afecta a comunidades como 'Cancer Alley', una zona con alta contaminación por la industria petroquímica, donde los residentes organizan protestas contra la expansión de proyectos contaminantes.",
+			"location": {
+				"label": "St. James Parish, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.0255, -90.7961]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "El fiscal general de Louisiana, Jeff Landry, defiende la ley argumentando que el estado tiene derecho a proteger infraestructuras vitales. Landry, financiado por la industria petrolera, insiste en que los grupos ambientalistas pueden protestar, pero no obstruir infraestructuras.",
+			"location": {
+				"label": "Baton Rouge, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.4515, -91.1871]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Esta demanda resalta el choque entre los derechos constitucionales y las leyes que protegen intereses corporativos. Su resultado podría influir en futuras protestas contra proyectos de combustibles fósiles en EE.UU.",
+			"location": {
+				"label": "Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.9843, -91.9623]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -8690,7 +12762,77 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Empresa liderada por asesor energético de Donald Trump afirma que su petróleo fluirá a través del oleoducto Dakota Access",
+	"subtitulo": "La conexión entre el poder político y el controvertido oleoducto que enfrenta a tribus nativas y ambientalistas",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Continental Resources, dirigida por Harold Hamm, asesor energético de Donald Trump, planea transportar petróleo extraído mediante fracking en Bakken Shale a través del polémico oleoducto Dakota Access. El proyecto enfrenta fuerte oposición de tribus nativas y grupos ambientalistas.",
+		"location": {
+				"label": "Bakken Shale, Dakota del Norte, Estados Unidos",
+				"type": "área",
+				"coordinates": [[47.3917, -101.3630]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Dakota Access (DAPL) está diseñado para transportar petróleo desde Bakken Shale en Dakota del Norte a través de Dakota del Sur, Iowa, hasta Illinois, conectándose luego con otro oleoducto hacia Texas. El proyecto ha generado protestas lideradas por la tribu Sioux de Standing Rock, preocupada por el impacto ambiental y cultural.",
+			"location": {
+				"label": "Standing Rock Sioux Reservation, Dakota del Norte, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[46.3689, -100.6323]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Tribus nativas, ambientalistas y defensores de derechos de propiedad se oponen al oleoducto, argumentando riesgos de contaminación del agua y violación de tierras sagradas. Mientras tanto, empresas como Continental Resources y Energy Transfer Partners defienden el proyecto como vital para la economía energética.",
+			"location": {
+				"label": "Cannon Ball, Dakota del Norte, Estados Unidos (sitio de protestas)",
+				"type": "punto",
+				"coordinates": [[46.3908, -100.5981]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Continental Resources, liderada por Harold Hamm (asesor de Trump), confirmó en un informe a inversionistas que usará el oleoducto Dakota Access para transportar su petróleo. Esto vincula directamente a figuras políticas clave con el proyecto.",
+			"location": {
+				"label": "Oklahoma City, Oklahoma, Estados Unidos (sede de Continental Resources)",
+				"type": "punto",
+				"coordinates": [[35.4676, -97.5164]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso ejemplifica cómo intereses energéticos y políticos se entrelazan en proyectos de infraestructura controvertidos. Además, resalta el conflicto entre desarrollo económico y derechos indígenas/ambientales, con posibles implicaciones legales y sociales a largo plazo.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos (corte federal que decidirá el caso)",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Energy Transfer Partners insiste en que el oleoducto cumple con todas las regulaciones y beneficiará la economía local. Sin embargo, críticos señalan que parte del petróleo podría exportarse, contradiciendo el discurso de 'consumo doméstico'.",
+			"location": {
+				"label": "Nederland, Texas, Estados Unidos (terminal del oleoducto)",
+				"type": "punto",
+				"coordinates": [[29.9744, -93.9924]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El destino del oleoducto Dakota Access sigue en juego, con una decisión judicial pendiente y creciente presión pública. El caso refleja tensiones globales entre energía, medio ambiente y derechos indígenas, con actores políticos y corporativos en el centro.",
+			"location": {
+				"label": "Ruta del oleoducto Dakota Access (Dakota del Norte a Illinois)",
+				"type": "líneas",
+				"coordinates": [[46.3908, -100.5981], [41.8780, -93.0977]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -8874,7 +13016,86 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El oleoducto Trans Mountain de Canadá avanza lentamente, pero la oposición se intensifica",
+	"subtitulo": "Indígenas y ambientalistas enfrentan violencia y riesgos climáticos en la lucha contra el polémico proyecto petrolero",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "La expansión del oleoducto Trans Mountain en Canadá enfrenta resistencia de comunidades indígenas y ambientalistas, mientras avanza su construcción. Incidentes violentos y riesgos climáticos marcan el conflicto.",
+		"location": {
+			"label": "Blue River, British Columbia, Canadá",
+			"type": "punto",
+			"coordinates": [[52.1045, -119.2796]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Trans Mountain transporta petróleo desde Alberta hasta la costa del Pacífico. En 2018, el gobierno canadiense lo compró para expandirlo, pese a la oposición indígena y ambiental. El proyecto triplicaría su capacidad a 890,000 barriles diarios.",
+			"location": {
+				"label": "Alberta a British Columbia, Canadá",
+				"type": "líneas",
+				"coordinates": [[53.9333, -116.5765], [52.1045, -119.2796]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "En abril, atacantes destruyeron un campamento indígena en Blue River, donde la comunidad Secwepemc y Ktunaxa protesta contra el oleoducto. Grupos indígenas denuncian vigilancia, violencia y amenazas, vinculadas a la expansión del proyecto.",
+			"location": {
+				"label": "Blue River, British Columbia, Canadá",
+				"type": "punto",
+				"coordinates": [[52.1045, -119.2796]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La Corte Suprema de Canadá rechazó un recurso de naciones indígenas contra el oleoducto, permitiendo su construcción. Pese a esto, opositores bloquean obras y presionan a aseguradoras para que retiren su apoyo financiero.",
+			"location": {
+				"label": "Canadá",
+				"type": "área",
+				"coordinates": [[56.1304, -106.3468]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El proyecto amenaza tierras indígenas no cedidas, incrementa riesgos de derrames y contradice metas climáticas. Además, su costo (hasta $17 mil millones) recae en contribuyentes, mientras petroleras reciben subsidios.",
+			"location": {
+				"label": "Sumas First Nation, British Columbia, Canadá",
+				"type": "polígonos",
+				"coordinates": [[49.0339, -122.3066]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Trans Mountain Corp. afirma que consultó a 59 grupos indígenas y ofrece $500 millones en beneficios. Asegura que hay normativas para garantizar seguridad en campamentos de trabajadores.",
+			"location": {
+				"label": "Vancouver, British Columbia, Canadá",
+				"type": "punto",
+				"coordinates": [[49.2827, -123.1207]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "La aseguradora Zurich retiró su respaldo al proyecto. Activistas buscan que otras compañías hagan lo mismo antes de que venza la póliza en agosto. Un derrame reciente en Abbotsford reavivó preocupaciones ambientales.",
+			"location": {
+				"label": "Abbotsford, British Columbia, Canadá",
+				"type": "punto",
+				"coordinates": [[49.0504, -122.3045]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras el gobierno insiste en completar el oleoducto para 2022, indígenas y ambientalistas prometen seguir resistiendo, exponiendo riesgos climáticos, financieros y de derechos humanos.",
+			"location": {
+				"label": "Burnaby, British Columbia, Canadá",
+				"type": "punto",
+				"coordinates": [[49.2488, -122.9805]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -9008,7 +13229,91 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Corrupción en el Oleoducto: Una Cronología de Desinformación sobre Keystone XL",
+	"subtitulo": "A pesar de la corrupción, el 'oleoducto zombi' Keystone XL se niega a morir, mientras comunidades y activistas luchan contra intereses corporativos y políticos.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "La polémica alrededor del oleoducto Keystone XL (KXL) revela una red de conflictos de interés, desinformación y presión política. Desde 2007, comunidades afectadas en Alberta, Nebraska, Oklahoma y Texas han denunciado impactos ambientales y de salud, mientras empresas y funcionarios impulsan el proyecto. La investigación del Departamento de Estado de EE.UU. sobre irregularidades en la revisión del KXL destapa conexiones turbias entre contratistas como ERM Group y la industria petrolera.",
+		"location": {
+			"label": "Estados Unidos, Canadá (Alberta, Nebraska, Oklahoma, Texas)",
+			"type": "polígonos",
+			"coordinates": [
+				[51.0486, -114.0708], 
+				[41.4925, -99.9018], 
+				[35.0078, -97.0929], 
+				[31.9686, -99.9018]
+			]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL, propuesto en 2008 por TransCanada, busca transportar crudo de arenas bituminosas desde Alberta (Canadá) hasta refinerías en Texas. Desde su inicio, ha enfrentado críticas por sus impactos ambientales, riesgos de derrames y emisiones de gases de efecto invernadero. Comunidades como Fort Chipewyan en Alberta reportaron aumentos en casos de cáncer, vinculados a la extracción de arenas bituminosas.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "polígono",
+				"coordinates": [[58.7606, -111.8883]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El proceso de aprobación del KXL ha estado plagado de irregularidades. Contratistas como ERM Group, encargados de evaluar el impacto ambiental, ocultaron vínculos con TransCanada y la industria petrolera. Lobbyistas con conexiones políticas, como Paul Elliott (vinculado a Hillary Clinton), presionaron para acelerar el proyecto. Además, se documentó el uso abusivo de expropiaciones forzosas (eminent domain) para adquirir tierras antes de la aprobación oficial.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "En 2013, el Departamento de Estado de EE.UU. inició una investigación por conflictos de interés en la revisión del KXL, tras descubrir que ERM Group mintió sobre sus relaciones con TransCanada. Mientras, inspectores hallaron defectos en la sección sur del oleoducto ya construido, incluyendo filtraciones de luz, lo que generó alarmas sobre su seguridad.",
+			"location": {
+				"label": "Nebraska, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[41.4925, -99.9018]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El KXL simboliza la lucha entre intereses económicos y ambientales. Su aprobación beneficiaría a la industria petrolera, pero perpetuaría la dependencia de combustibles fósiles y amenazaría ecosistemas y comunidades. Las irregularidades expuestas cuestionan la transparencia en proyectos de infraestructura energética.",
+			"location": {
+				"label": "Texas, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[31.9686, -99.9018]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La cronología del KXL revela un sistema de aprobación corrompido por influencias corporativas y políticas. Aunque la resistencia comunitaria y las investigaciones han retrasado el proyecto, la batalla continúa, destacando la necesidad de mayor accountability en políticas energéticas.",
+			"location": {
+				"label": "Canadá - Estados Unidos",
+				"type": "línea",
+				"coordinates": [[56.1304, -106.3468], [37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "El proceso de revisión de proyectos como el KXL en EE.UU. requiere una Evaluación de Impacto Ambiental (EIS) del Departamento de Estado. Sin embargo, al subcontratar estos estudios a firmas con conflictos de interés (como ERM Group), se compromete su independencia. Grupos de presión (lobbyists) influyen en políticos para acelerar aprobaciones, incluso sin consenso científico o público.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Defensores del KXL argumentan que generaría empleos y reduciría la dependencia energética de EE.UU. Sin embargo, estudios como el de Cornell University desmienten estas cifras, señalando que la mayoría de empleos serían temporales y que el crudo exportado no garantiza seguridad energética.",
+			"location": {
+				"label": "Ithaca, Nueva York, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[42.4440, -76.5019]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -9128,7 +13433,77 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Derrota del Oleoducto de Arenas Bituminosas en South Portland: Las Grandes Petroleras Superan en Gastos a los Grupos Locales 6 a 1",
+	"subtitulo": "Una pequeña ciudad costera de Maine se convierte en el campo de batalla entre el activismo local y el poder económico de la industria petrolera.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Los votantes de South Portland, Maine, rechazaron una medida que buscaba prohibir la carga de crudo de arenas bituminosas en el puerto de la ciudad. La industria petrolera gastó más de $600,000 en campañas en contra, superando ampliamente los $100,000 recaudados por los grupos locales a favor.",
+		"location": {
+			"label": "South Portland, Maine, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[43.6415, -70.2409]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "South Portland, una ciudad costera en Maine, se enfrentó a una votación clave sobre una ordenanza que buscaba proteger su puerto de la carga de crudo de arenas bituminosas. Esta medida, impulsada por grupos locales, generó una fuerte oposición de la industria petrolera.",
+			"location": {
+				"label": "South Portland, Maine, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[43.6415, -70.2409]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La industria petrolera invirtió más de $600,000 en campañas publicitarias y correo directo para oponerse a la ordenanza, superando por seis veces el presupuesto de los grupos locales. Empresas como Citgo, Irving y la American Petroleum Institute lideraron los esfuerzos en contra.",
+			"location": {
+				"label": "South Portland, Maine, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[43.6415, -70.2409]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La ordenanza fue rechazada por menos de 200 votos, con un total de 8,714 votos emitidos. La industria petrolera gastó aproximadamente $32 por votante, un récord en comparación con otras elecciones costosas en el país.",
+			"location": {
+				"label": "South Portland, Maine, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[43.6415, -70.2409]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El resultado refleja el poder de la industria petrolera para influir en decisiones locales, incluso en pequeñas comunidades. Además, existe preocupación por los planes de revertir el flujo del oleoducto Portland-Montreal para transportar arenas bituminosas desde Canadá hasta el puerto de South Portland.",
+			"location": {
+				"label": "Portland-Montreal Pipeline, Estados Unidos/Canadá",
+				"type": "líneas",
+				"coordinates": [[43.6415, -70.2409], [45.5017, -73.5673]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "A pesar de la derrota, los activistas locales mantienen su compromiso de evitar la entrada de arenas bituminosas en la ciudad. Prometen vigilar de cerca las acciones de la Portland Pipe Line Corporation y explorar opciones legales y políticas para proteger su comunidad.",
+			"location": {
+				"label": "South Portland, Maine, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[43.6415, -70.2409]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Los operadores del oleoducto Portland-Montreal insisten en que no hay planes inmediatos para revertir su flujo, aunque documentos internos y acciones anteriores sugieren lo contrario. Empresas como Imperial Oil Limited y Suncor Energy, con intereses en las arenas bituminosas de Alberta, son dueñas parciales de la compañía.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "área",
+				"coordinates": [[53.9333, -116.5765]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -9228,7 +13603,77 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La Inadecuada Supervisión de la Seguridad de los Oleoductos en EE.UU.: Un Impactante Reporte del New York Times",
+	"subtitulo": "Un sistema de oleoductos gigantesco, una regulación débil y cientos de fugas tóxicas al año: así falla la seguridad energética en Estados Unidos.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un reporte del New York Times revela la grave falta de supervisión gubernamental sobre los oleoductos en EE.UU., con más de 100 fugas significativas anuales y una inspección limitada a menos de la mitad de la red.",
+		"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Los oleoductos son la red de transporte de petróleo y gas más extensa en EE.UU., pero su regulación recae en la Pipeline and Hazardous Materials Safety Administration (PHMSA), una agencia con recursos limitados y una normativa laxa.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La PHMSA solo inspecciona el 44% de los oleoductos terrestres, dejando miles de kilómetros sin supervisión adecuada. Además, no cumple con el número mínimo de inspectores requeridos por ley.",
+			"location": {
+				"label": "Oklahoma y Texas, Estados Unidos",
+				"type": "área",
+				"coordinates": [[35.0078, -97.0929], [31.9686, -99.9018]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Desde 1990, se han registrado cientos de fugas significativas, incluyendo incendios y derrames de más de 2,100 galones. Un mapa interactivo muestra la alarmante concentración de incidentes cerca de zonas de extracción y refinerías.",
+			"location": {
+				"label": "Golfo de México, Estados Unidos",
+				"type": "área",
+				"coordinates": [[28.7505, -89.7505]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La falta de supervisión pone en riesgo a comunidades y ecosistemas. Proyectos como el polémico oleoducto Keystone XL, que cruzaría acuíferos vitales como el Ogallala, dependen del mismo sistema de autorregulación fallido.",
+			"location": {
+				"label": "Acuífero Ogallala, Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0000, -101.0000]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El reporte expone la urgente necesidad de reforzar la regulación y aumentar la transparencia en la industria de oleoductos para proteger a las personas y el medio ambiente.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "La industria argumenta que la autorregulación y las tecnologías modernas reducen riesgos, pero los datos muestran que las fugas y accidentes siguen siendo frecuentes.",
+			"location": {
+				"label": "Houston, Texas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[29.7604, -95.3698]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -9368,7 +13813,86 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Después de Keystone XL: TransCanada construye un imperio de gasoductos de gas fracturado en América del Norte",
+	"subtitulo": "Mientras el mundo miraba a Keystone XL, TransCanada expandió silenciosamente su red de gasoductos en tres países. ¿Cómo lo hizo y qué significa para el futuro energético?",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "TransCanada, tras el rechazo del oleoducto Keystone XL, ha expandido agresivamente su red de gasoductos en Canadá, EE.UU. y México, enfocándose en transportar gas obtenido mediante fracking.",
+		"location": {
+				"label": "North America",
+				"type": "área",
+				"coordinates": [[54.5260, -105.2551]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "En noviembre de 2015, el presidente Obama rechazó el permiso para el oleoducto Keystone XL, que transportaría crudo desde Canadá hasta EE.UU. TransCanada, la empresa detrás del proyecto, respondió con una demanda y un desafío bajo el TLCAN, mientras expandía su red de gasoductos para gas fracturado (fracking).",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Mientras Keystone XL dominaba los titulares, TransCanada avanzó en permisos y adquisiciones para gasoductos en Canadá, EE.UU. y México, muchos de los cuales transportarán gas obtenido mediante fracking, una técnica controvertida por su impacto ambiental.",
+			"location": {
+				"label": "América del Norte",
+				"type": "área",
+				"coordinates": [[54.5260, -105.2551]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Desde el rechazo de Keystone XL, TransCanada ha: 1) Obtenido permisos para el gasoducto Coastal GasLink en Canadá (416 millas), 2) Acordado comprar Columbia Pipeline Group en EE.UU. (57,000 millas de red existente), y 3) Ganado contratos para construir tres gasoductos en México (916 millas combinadas).",
+			"location": {
+				"label": "Canadá, Estados Unidos, México",
+				"type": "puntos",
+				"coordinates": [[56.1304, -106.3468], [37.0902, -95.7129], [23.6345, -102.5528]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Esta expansión convierte a TransCanada en un actor dominante en el transporte de gas fracturado en Norteamérica, vinculando yacimientos clave (como Marcellus Shale y Eagle Ford) con mercados y puertos de exportación de LNG, a pesar de las preocupaciones ambientales sobre el fracking.",
+			"location": {
+				"label": "Cuenca de Marcellus Shale, Pennsylvania, EE.UU.",
+				"type": "polígono",
+				"coordinates": [[41.2033, -77.1945], [40.9695, -76.5034], [40.2735, -78.8903], [40.8801, -79.9959]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "Los gasoductos permiten transportar gas natural desde zonas de extracción (como yacimientos de fracking) hasta centros de consumo o puertos para exportarlo como LNG. TransCanada ahora controla rutas críticas en los tres países, integrando cadenas de suministro.",
+			"location": {
+				"label": "Kitimat, British Columbia, Canadá (terminal LNG)",
+				"type": "punto",
+				"coordinates": [[54.0144, -128.6894]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Aunque TransCanada presenta estos proyectos como crecimiento estratégico, grupos ambientalistas critican que expanden la dependencia en combustibles fósiles y el fracking, técnicas asociadas a contaminación de acuíferos y emisiones de metano.",
+			"location": {
+				"label": "Global (críticas ambientales)",
+				"type": "área",
+				"coordinates": [[0, 0]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras el debate sobre Keystone XL continúa, TransCanada ha reconfigurado su imperio hacia el gas fracturado, con una red que abarca Norteamérica. Esto refleja una estrategia adaptativa en un contexto de precios bajos del petróleo y demanda creciente de gas natural, pero también plantea preguntas sobre la sostenibilidad energética a largo plazo.",
+			"location": {
+				"label": "Houston, Texas, EE.UU. (sede legal de TransCanada)",
+				"type": "punto",
+				"coordinates": [[29.7604, -95.3698]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -9502,7 +14026,77 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Denunciante alega defectos peligrosos en el oleoducto Falcon para la planta de plásticos de Shell en Pensilvania",
+	"subtitulo": "Un informante revela fallas críticas en la protección contra corrosión del oleoducto Falcon, poniendo en riesgo a comunidades de Pensilvania y Ohio.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un denunciante ha alegado que el oleoducto Falcon, de 98 millas de largo y destinado a transportar etano para la planta de plásticos de Shell en Pensilvania, fue construido con protección defectuosa contra corrosión. Reguladores estatales expresaron preocupación por la seguridad pública, pero las autoridades federales no investigaron adecuadamente las denuncias.",
+		"location": {
+			"label": "Pensilvania, Estados Unidos",
+			"type": "polígono",
+			"coordinates": [[41.2033, -77.1945]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Falcon es un proyecto clave para transportar etano líquido desde los yacimientos de gas de esquisto hasta la planta de plásticos de Shell en Beaver County, Pensilvania. La corrosión en oleoductos puede provocar fugas, derrames o explosiones, lo que representa un riesgo grave para las comunidades cercanas.",
+			"location": {
+				"label": "Beaver County, Pensilvania, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[40.6845, -80.3049]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El Departamento de Protección Ambiental de Pensilvania (PADEP) recibió denuncias de un informante sobre defectos en el revestimiento anticorrosión del oleoducto. A pesar de enviar pruebas a las autoridades federales (PHMSA), estas realizaron una investigación superficial en 2019 y no encontraron problemas. El PADEP considera que la investigación fue insuficiente.",
+			"location": {
+				"label": "Pensilvania, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[41.2033, -77.1945]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Documentos obtenidos por FracTracker Alliance revelan que el PADEP alertó en 2020 sobre los riesgos de seguridad pública debido a los defectos en el oleoducto Falcon. Shell insiste en que el proyecto cumple con los estándares de seguridad, pero organizaciones ambientales y residentes temen por fugas o explosiones una vez operativo.",
+			"location": {
+				"label": "Ohio River Valley, Estados Unidos",
+				"type": "área",
+				"coordinates": [[40.5216, -80.2314]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La corrosión es la segunda causa principal de incidentes en oleoductos de líquidos peligrosos. Fallas previas, como la explosión del oleoducto Revolution en 2018, han demostrado los riesgos. Además, el oleoducto Falcon ya ha registrado derrames durante su construcción, incluyendo más de 250,000 galones de fluidos de perforación.",
+			"location": {
+				"label": "Western Pensilvania, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[40.4406, -79.9959]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras Shell asegura que el oleoducto es seguro y pronto entrará en operación, las denuncias y la falta de una investigación rigurosa generan desconfianza. Las comunidades locales y ambientalistas exigen mayor transparencia y medidas de seguridad ante el riesgo de accidentes graves.",
+			"location": {
+				"label": "Beaver County, Pensilvania, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[40.6845, -80.3049]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Shell afirma que el oleoducto supera los requisitos de seguridad, con tuberías más gruesas, mayor profundidad de entierro y más válvulas de cierre. Sin embargo, reguladores y grupos ambientalistas cuestionan la independencia de las inspecciones realizadas.",
+			"location": {
+				"label": "Shell Plastics Plant, Beaver County, Pensilvania, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[40.7323, -80.2884]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -9656,7 +14250,77 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Críticos llaman al gasoducto Sabal Trail de $3 mil millones el 'Dakota Access de Florida'",
+	"subtitulo": "Un proyecto polémico amenaza acuíferos y desplaza comunidades mientras avanza en silencio",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El gasoducto Sabal Trail, un proyecto de $3 mil millones que transportará gas obtenido mediante fracking desde Alabama hasta Florida central, enfrenta creciente oposición por presuntos daños ambientales y uso abusivo de expropiaciones forzosas. Críticos lo comparan con el controvertido Dakota Access Pipeline.",
+		"location": {
+				"label": "Florida, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[28.7505, -82.5001]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Sabal Trail Transmission es un gasoducto de 515 millas que transportará gas natural obtenido mediante fracking desde el este de Alabama hasta Florida central. El proyecto, autorizado por la Comisión Federal Reguladora de Energía (FERC), es financiado con dinero de los contribuyentes floridanos.",
+			"location": {
+				"label": "Alabama a Florida, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[32.3182, -86.9023], [28.7505, -82.5001]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El proyecto usa el derecho de expropiación forzosa para desplazar a propietarios a lo largo de su ruta. Activistas han documentado múltiples violaciones en su construcción, incluyendo derrames de lodo de perforación en el río Withlacoochee (Georgia) y posibles filtraciones de diésel en humedales de Florida central.",
+			"location": {
+				"label": "Río Withlacoochee, Georgia, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[30.7236, -83.2765]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Críticos argumentan que el gasoducto amenaza el Acuífero Floridano (uno de los mayores reservorios de agua dulce del mundo) al atravesar su frágil sistema de piedra caliza. Además, denuncian que gran parte del gas podría destinarse a exportación en lugar de cubrir necesidades locales como se prometió.",
+			"location": {
+				"label": "Acuífero Floridano, Florida, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[28.7505, -82.5001]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El proyecto refleja conflictos globales sobre energía vs. medio ambiente: uso de combustibles fósiles obtenidos mediante fracking, impacto en recursos hídricos vitales, y el poder de empresas privadas para expropiar tierras con fines económicos bajo argumentos de 'interés público'.",
+			"location": {
+				"label": "Florida, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[28.7505, -82.5001]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Las empresas involucradas (Spectra Energy, NextEra Energy y Duke Energy) insisten en que el gasoducto es necesario para satisfacer la demanda energética del sureste de EE.UU. y que cumplen con todos los protocolos ambientales.",
+			"location": {
+				"label": "Florida, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[28.7505, -82.5001]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras la construcción acelera para cumplir con plazos ajustados, opositores esperan que la documentación de violaciones lleve a una intervención federal. El caso evidencia tensiones entre desarrollo energético, derechos de propiedad y protección ambiental en la era del fracking.",
+			"location": {
+				"label": "Florida, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[28.7505, -82.5001]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -9788,7 +14452,77 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La construcción planificada de gasoductos en la costa este pone en riesgo el clima: Informe",
+	"subtitulo": "19 proyectos de gasoductos amenazan con superar los compromisos climáticos de EE.UU. y acelerar el calentamiento global",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un informe de Oil Change International advierte que 19 proyectos de gasoductos pendientes en la cuenca de los Apalaches podrían liberar suficiente gas natural como para que EE.UU. incumpla sus metas climáticas, llevando al mundo a un calentamiento superior a 2°C.",
+		"location": {
+			"label": "Cuenca de los Apalaches, EE.UU.",
+			"type": "área",
+			"coordinates": [[39.8283, -77.5619]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "La cuenca de los Apalaches, que abarca estados como Pensilvania y Virginia Occidental, es una de las regiones con mayor producción de gas natural en EE.UU. debido al auge del fracking en el esquisto de Marcellus. Actualmente, existe un cuello de botella en la infraestructura de gasoductos que limita la extracción.",
+			"location": {
+				"label": "Pensilvania y Virginia Occidental, EE.UU.",
+				"type": "polígono",
+				"coordinates": [[40.5908, -77.2098], [38.9202, -80.1817]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La industria del gas natural argumenta que este combustible es necesario como 'puente' hacia las energías renovables, ya que puede compensar la intermitencia de la energía solar y eólica. Sin embargo, el informe señala que las energías renovables ya son viables por sí solas, respaldadas por tecnologías de almacenamiento y gestión de red.",
+			"location": {
+				"label": "EE.UU.",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Los 19 proyectos de gasoductos permitirían la producción adicional de 116 billones de pies cúbicos de gas para 2050, lo que haría imposible cumplir con los objetivos climáticos de EE.UU., incluso con las nuevas regulaciones de metano de la EPA.",
+			"location": {
+				"label": "Cuenca de los Apalaches, EE.UU.",
+				"type": "área",
+				"coordinates": [[39.8283, -77.5619]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Si se construyen estos gasoductos, EE.UU. superaría su presupuesto de carbono, contribuyendo significativamente al calentamiento global. Además, la infraestructura de gas está diseñada para durar décadas, lo que perpetuaría la dependencia de los combustibles fósiles.",
+			"location": {
+				"label": "EE.UU.",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Aunque la EPA ha implementado regulaciones para reducir las emisiones de metano, estas no cubren toda la infraestructura existente. Además, estudios independientes sugieren que las fugas de metano podrían ser mucho mayores que las estimaciones oficiales.",
+			"location": {
+				"label": "Washington D.C., EE.UU.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La expansión de la infraestructura de gas natural no solo pone en riesgo el clima, sino que también podría dejar a los consumidores vulnerables a las fluctuaciones del mercado. El informe urge a priorizar las energías renovables para evitar un desastre climático.",
+			"location": {
+				"label": "EE.UU.",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -9884,7 +14618,63 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "EnergyNOW! Aborda el Oleoducto Keystone XL y Habla Conmigo Sobre Tuberías",
+	"subtitulo": "Un debate candente sobre energía, medioambiente y política en América del Norte",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El programa EnergyNOW! dedicó un especial de media hora al polémico oleoducto Keystone XL, explorando sus impactos en EE.UU., las preocupaciones ambientales y las posturas políticas. El reportaje incluyó entrevistas a terratenientes en Nebraska, un viaje a las arenas bituminosas de Alberta y una entrevista exclusiva al Secretario de Energía de EE.UU., Steven Chu.",
+		"location": {
+			"label": "Estados Unidos, Canadá, Nebraska, Alberta",
+			"type": "líneas",
+			"coordinates": [[41.4925, -99.9018], [55.0000, -115.0000]]
+		}
+	},
+	"body": [{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL es un proyecto que busca transportar crudo pesado desde las arenas bituminosas de Alberta (Canadá) hasta refinerías en la costa del Golfo de EE.UU. El debate gira en torno a su impacto ambiental, la seguridad energética y los intereses económicos.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "polígonos",
+				"coordinates": [[55.0000, -115.0000]]
+			}
+		}, {
+			"section": "Conflicto",
+			"content": "El reportaje muestra la división entre quienes apoyan el oleoducto por sus beneficios económicos y quienes lo rechazan por los riesgos de contaminación y el impacto en el cambio climático. En Nebraska, terratenientes expresan preocupación por sus tierras y acuíferos.",
+			"location": {
+				"label": "Nebraska, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[41.4925, -99.9018]]
+			}
+		}, {
+			"section": "Hecho Central",
+			"content": "EnergyNOW! entrevistó al Secretario de Energía de EE.UU., Steven Chu, quien defendió el proyecto argumentando que aumentaría la 'seguridad energética' del país, una postura criticada por algunos como una jugada política más que una solución ambiental.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		}, {
+			"section": "¿Por qué es importante?",
+			"content": "El Keystone XL simboliza el conflicto global entre desarrollo energético y sostenibilidad. Su aprobación o rechazo podría influir en futuras políticas climáticas y proyectos de infraestructura en América del Norte.",
+			"location": {
+				"label": "América del Norte",
+				"type": "área",
+				"coordinates": [[47.0000, -100.0000]]
+			}
+		}, {
+			"section": "Conclusión",
+			"content": "El especial de EnergyNOW! ofrece una mirada equilibrada al debate, destacando voces a favor y en contra. Mientras la decisión final sigue pendiente, el Keystone XL sigue siendo un tema clave en la agenda energética y ambiental.",
+			"location": {
+				"label": "Estados Unidos, Canadá",
+				"type": "área",
+				"coordinates": [[45.0000, -100.0000]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -9986,7 +14776,84 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Denunciante de Bechtel advierte sobre Keystone XL; presenció trabajos deficientes en Keystone I de TransCanada",
+	"subtitulo": "Un exingeniero revela fallas críticas en la construcción del primer oleoducto Keystone y alerta sobre los riesgos de repetir los errores en el proyecto XL.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un exinspector de Bechtel denuncia negligencia en la construcción del oleoducto Keystone I, incluyendo materiales defectuosos y pruebas de seguridad alteradas, advirtiendo que el proyecto Keystone XL podría repetir estos errores.",
+		"location": {
+			"label": "Estados Unidos, múltiples estados (ruta del oleoducto Keystone I)",
+			"type": "líneas",
+			"coordinates": [
+				[45.9343, -102.3246],
+				[39.8283, -98.5795],
+				[41.8781, -93.0977]
+			]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone I, operado por TransCanada, ha registrado 12 derrames en su primer año de funcionamiento. Un exingeniero de Bechtel, empresa contratista, revela que estos problemas eran predecibles debido a prácticas negligentes durante su construcción.",
+			"location": {
+				"label": "Estados Unidos, ruta del oleoducto Keystone I",
+				"type": "líneas",
+				"coordinates": [
+					[45.9343, -102.3246],
+					[39.8283, -98.5795],
+					[41.8781, -93.0977]
+				]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Mike Klink, exinspector de Bechtel, denuncia que fue despedido tras alertar sobre materiales baratos, soldaduras defectuosas y pruebas de seguridad manipuladas. Afirma que TransCanada y Bechtel priorizaron costos sobre la seguridad.",
+			"location": {
+				"label": "Estados Unidos, Nebraska (sitio clave de construcción)",
+				"type": "punto",
+				"coordinates": [[41.4925, -99.9018]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Klink advierte que el proyecto Keystone XL, que planea expandir la red de oleoductos, podría repetir los mismos errores, poniendo en riesgo el medio ambiente y las comunidades a lo largo de su ruta.",
+			"location": {
+				"label": "Estados Unidos, ruta propuesta del Keystone XL",
+				"type": "líneas",
+				"coordinates": [
+					[49.0000, -110.0000],
+					[46.8000, -100.7833],
+					[39.8283, -98.5795]
+				]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Los derrames de petróleo contaminan suelos y aguas, afectando ecosistemas y poblaciones. La falta de supervisión en proyectos energéticos puede generar desastres evitables.",
+			"location": {
+				"label": "Estados Unidos, humedales afectados en Dakota del Sur",
+				"type": "polígonos",
+				"coordinates": [[
+					[44.5000, -100.0000],
+					[44.3000, -99.8000],
+					[44.2000, -100.1000]
+				]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El testimonio de Klink subraya la necesidad de mayor transparencia y regulación en proyectos de infraestructura energética para prevenir daños ambientales y sociales.",
+			"location": {
+				"label": "Estados Unidos, Washington D.C. (regulación federal)",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -10146,7 +15013,77 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Cómo Enbridge ayudó a redactar las leyes de oleoductos de Minnesota que benefician su batalla por el Line 3 hoy",
+	"subtitulo": "Una ley de 1987, impulsada por el lobby de la industria, limita la oposición pública a nuevos oleoductos como el polémico Line 3",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Enbridge, una multinacional de oleoductos, busca reemplazar su Line 3 en Minnesota, un proyecto enfrentado por tribus y ambientalistas. Una ley estatal de 1987, redactada con fuerte influencia del lobby petrolero, limita la capacidad de oposición pública y centraliza los permisos en una comisión controlada por el estado.",
+		"location": {
+			"label": "Minnesota, Estados Unidos",
+			"type": "área",
+			"coordinates": [[46.7296, -94.6859]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El Line 3 de Enbridge es parte del sistema de transporte de crudo más largo del mundo. Su tramo en Minnesota (300 millas) está en mal estado, y la empresa busca reemplazarlo. Tribus locales y grupos ambientalistas se oponen, pero una ley de 1987 (S.F.90) limita su capacidad de acción.",
+			"location": {
+				"label": "Minnesota, Estados Unidos",
+				"type": "área",
+				"coordinates": [[46.7296, -94.6859]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La ley S.F.90, impulsada con fuerte lobby de Enbridge en los 80, centralizó los permisos de oleoductos en una comisión estatal, eliminando el control local. También permite a las empresas clasificar datos tras derrames y reduce multas para las compañías (no para empleados).",
+			"location": {
+				"label": "St. Paul, Minnesota, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[44.9537, -93.0900]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La Comisión de Servicios Públicos de Minnesota (PUC) decidirá en junio si aprueba el reemplazo del Line 3. Enbridge ha gastado millones en influir en la PUC, mientras opositores argumentan que el proceso está sesgado a favor de la industria.",
+			"location": {
+				"label": "Minnesota Public Utilities Commission, St. Paul, Minnesota, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[44.9442, -93.0933]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El Line 3 cruza territorios indígenas y áreas sensibles ambientalmente. La ley S.F.90 limita la participación pública y el control local, afectando derechos tribales y aumentando riesgos ecológicos. Además, refleja cómo el lobby petrolero moldea leyes décadas después.",
+			"location": {
+				"label": "Reservas indígenas de Minnesota, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[47.8784, -95.3703]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "El exsenador Steve Novak, coautor de S.F.90, defiende la ley como un avance en seguridad (ej: sistema 'llame antes de excavar'). Argumenta que en 1987 no había regulación alguna y que la industria no manipuló el proceso, aunque admite que 'quizá sea hora de actualizarla'.",
+			"location": {
+				"label": "Capitolio de Minnesota, St. Paul, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[44.9553, -93.1022]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras Minnesota decide el futuro del Line 3, la sombra de S.F.90 persiste: una ley que priorizó la eficiencia industrial sobre la participación pública. Aunque evitó tragedias, hoy enfrenta críticas por su sesgo proempresarial. ¿Será hora de reformarla?",
+			"location": {
+				"label": "Minnesota, Estados Unidos",
+				"type": "área",
+				"coordinates": [[46.7296, -94.6859]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -10298,7 +15235,77 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Desafío legal para detener la construcción del oleoducto Bayou Bridge en Louisiana",
+	"subtitulo": "Una batalla judicial se libra para proteger el frágil ecosistema de la cuenca Atchafalaya",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Grupos ambientalistas y pescadores de cangrejos presentaron una demanda para detener la construcción del oleoducto Bayou Bridge, que atravesaría la sensible cuenca Atchafalaya en Louisiana. Alegan daños irreparables al ecosistema y a la industria local.",
+		"location": {
+			"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+			"type": "polígonos",
+			"coordinates": [[30.4100, -91.7500]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Bayou Bridge transportaría hasta 480,000 barriles de petróleo diarios desde Lake Charles hasta St. James Parish, cruzando la cuenca Atchafalaya, un área ecológicamente sensible y patrimonio nacional.",
+			"location": {
+				"label": "Lake Charles, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.2266, -93.2174]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Grupos ambientalistas y pescadores argumentan que el Cuerpo de Ingenieros del Ejército de EE.UU. no evaluó adecuadamente los riesgos ambientales al aprobar el permiso. La industria del cangrejo, vital para la región, podría verse severamente afectada.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[30.4100, -91.7500]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Earthjustice presentó una demanda solicitando una orden judicial para detener la construcción mientras se revisa el caso. Aunque un juez federal rechazó inicialmente la medida cautelar, la audiencia clave será el 8 de febrero.",
+			"location": {
+				"label": "Corte Federal Distrito Este de Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.4583, -91.1407]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La cuenca Atchafalaya alberga un ecosistema único con pantanos y cipreses centenarios. Además, es crucial para controlar inundaciones y sostener la economía local basada en la pesca. Un derrame o daño permanente podría ser devastador.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[30.4100, -91.7500]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Energy Transfer Partners, la empresa detrás del oleoducto, afirma que el proyecto generará 2,500 empleos temporales y $17.6 millones en impuestos locales. Sin embargo, solo crearía 12 puestos permanentes.",
+			"location": {
+				"label": "St. James Parish, Louisiana, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[30.0255, -90.7961]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras los tribunales deciden, el debate refleja la tensión entre desarrollo económico y conservación ambiental. La resolución podría sentar un precedente para proyectos similares en zonas ecológicamente sensibles.",
+			"location": {
+				"label": "Louisiana, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[31.2448, -92.1450]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -10458,7 +15465,86 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Pastor lidera demanda contra el oleoducto Bayou Bridge para proteger a la comunidad de 'Callejón del Cáncer' en Louisiana",
+	"subtitulo": "Una lucha por la justicia ambiental en el corazón de la industria petrolera",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El pastor Harry Joseph de la Iglesia Bautista Mount Triumph en St. James, Louisiana, encabeza una demanda para detener la construcción del oleoducto Bayou Bridge, que atravesaría comunidades vulnerables y el frágil ecosistema del Atchafalaya Basin.",
+		"location": {
+			"label": "St. James, Louisiana, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[30.0260, -90.8315]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "St. James Parish, una comunidad predominantemente afroamericana y de bajos ingresos, ya sufre altos niveles de contaminación por la industria petroquímica, lo que le ha valido el apodo de 'Callejón del Cáncer'. El oleoducto Bayou Bridge sería la extensión final del polémico Dakota Access Pipeline.",
+			"location": {
+				"label": "St. James Parish, Louisiana, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[30.0260, -90.8315], [30.0500, -90.8000], [30.0000, -90.8000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La comunidad carece de rutas de evacuación seguras y ya enfrenta la construcción de dos plantas de metanol. El pastor Joseph argumenta que el oleoducto añadiría riesgos innecesarios a una población ya vulnerable.",
+			"location": {
+				"label": "5th District, St. James Parish, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.0300, -90.8400]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La Clínica de Derecho Ambiental de Tulane presentó una demanda para revocar el permiso costero otorgado al oleoducto, alegando que el Departamento de Recursos Naturales ignoró los riesgos ambientales y de salud pública.",
+			"location": {
+				"label": "Nueva Orleans, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[29.9511, -90.0715]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso podría sentar un precedente para la justicia ambiental en comunidades afectadas por la industria petrolera. También pone en duda el proceso de aprobación de permisos en Louisiana, donde ninguna solicitud de oleoducto ha sido rechazada en la última década.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[30.4000, -91.6000], [30.2000, -91.2000], [29.8000, -91.4000]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Aunque las probabilidades son bajas, la comunidad de St. James sigue luchando. El pastor Joseph espera que al menos se logre compensación para quienes deseen reubicarse, ya que considera que la zona será inhabitable con los nuevos desarrollos industriales.",
+			"location": {
+				"label": "Mount Triumph Baptist Church, St. James, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.0260, -90.8315]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "El oleoducto transportaría crudo desde Texas hasta St. James, cruzando el frágil ecosistema del Atchafalaya Basin, el mayor humedal fluvial de EE.UU. y área de patrimonio nacional.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[30.4000, -91.6000], [30.2000, -91.2000], [29.8000, -91.4000]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "El DNR argumenta que no pueden considerar la falta de rutas de evacuación al evaluar permisos, ya que solo deben analizar cambios sustanciales al área. Además, no hay datos concluyentes que vinculen directamente las instalaciones industriales con las tasas de cáncer.",
+			"location": {
+				"label": "Baton Rouge, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.4515, -91.1871]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -10594,7 +15680,86 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Confianza Rota: Víctimas de Derrames de Oleoductos Cuentan Sus Historias",
+	"subtitulo": "Comunidades afectadas por derrames tóxicos exigen transparencia y acción ante la industria petrolera",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Residentes de Mayflower (Arkansas), Ceresco (Michigan) y Monkton (Vermont) comparten sus experiencias tras sufrir derrames de oleoductos o vivir cerca de proyectos de infraestructura petrolera. Denuncian falta de información, riesgos para la salud y la necesidad de regulaciones más estrictas.",
+		"location": {
+			"label": "Mayflower, Arkansas, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[34.9570, -92.4289]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El transporte de materiales peligrosos como el betún diluido (un derivado espeso del petróleo) a través de oleoductos representa riesgos ambientales y para la salud. A diferencia del crudo convencional, el betún diluido contiene mezclas químicas tóxicas no reveladas y se hunde en el agua, dificultando su limpieza.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Los residentes afectados denuncian que las empresas y autoridades no brindan información clara sobre los materiales transportados ni los protocolos de seguridad adecuados. En Mayflower, el derrame del oleoducto Pegasus en 2013 expuso a familias a químicos tóxicos durante semanas sin una evacuación oportuna.",
+			"location": {
+				"label": "Mayflower, Arkansas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[34.9570, -92.4289]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "En la conferencia del Pipeline Safety Trust en Nueva Orleans, víctimas como Ann Jarrell (Mayflower) y David Gallagher (Ceresco) expusieron cómo los derrames y la construcción de oleoductos cerca de sus hogares han impactado su salud y calidad de vida, criticando la opacidad de la industria.",
+			"location": {
+				"label": "Nueva Orleans, Luisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[29.9511, -90.0715]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Estos casos revelan un patrón de desinformación y subestimación de riesgos. El betún diluido, usado en proyectos como el Keystone XL, sigue siendo tratado como crudo convencional en regulaciones, poniendo en peligro a comunidades y primeros respondedores.",
+			"location": {
+				"label": "Kalamazoo, Michigan, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[42.2917, -85.5872]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Las historias destacan la urgencia de actualizar normas de seguridad, exigir transparencia sobre los materiales transportados y priorizar la protección de comunidades sobre intereses industriales. La presión ciudadana, como en Vermont, demuestra que la organización comunitaria puede forzar cambios.",
+			"location": {
+				"label": "Monkton, Vermont, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[44.2378, -73.1290]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "El betún diluido requiere mezclas químicas (a menudo con benceno, un carcinógeno) para fluir por los oleoductos. Estas fórmulas son secretos industriales, lo que impide evaluar su toxicidad. En derrames, los diluyentes se evaporan y el betún se hunde, complicando la remediación.",
+			"location": {
+				"label": "Canadá",
+				"type": "polígonos",
+				"coordinates": [[56.1304, -106.3468]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "La industria argumenta que los oleoductos son seguros y que el petróleo es 'solo petróleo'. Sin embargo, expertos y víctimas insisten en que el betún diluido requiere protocolos específicos por su mayor toxicidad y comportamiento ambiental distinto.",
+			"location": {
+				"label": "Cushing, Oklahoma, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[35.9851, -96.7670]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -10730,7 +15895,77 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "TransCanada cancela el oleoducto Energy East de arenas bituminosas",
+	"subtitulo": "El fin de un proyecto polémico: cómo el cambio climático y los mercados globales derribaron un gigante energético",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "TransCanada anunció la cancelación del oleoducto Energy East, que habría transportado crudo desde las arenas bituminosas de Alberta hasta refinerías en Quebec y New Brunswick. La decisión refleja cambios en las políticas climáticas y condiciones económicas desfavorables.", 
+		"location": {
+				"label": "Alberta, Canadá",
+				"type": "área",
+				"coordinates": [[56.1304, -106.3468]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Energy East, valuado en $15.7 mil millones, buscaba transportar 1.1 millones de barriles diarios de petróleo desde Alberta hasta la costa este de Canadá. El proyecto enfrentó creciente oposición por su impacto climático.",
+			"location": {
+				"label": "Canadá",
+				"type": "polígono",
+				"coordinates": [[56.1304, -106.3468], [46.5653, -66.4619]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La Junta Nacional de Energía de Canadá decidió evaluar por primera vez las emisiones de gases de efecto invernadero del proyecto, marcando un precedente regulatorio. Esto, sumado a bajos precios del petróleo, hizo inviable el proyecto.",
+			"location": {
+				"label": "Ottawa, Canadá",
+				"type": "punto",
+				"coordinates": [[45.4215, -75.6972]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "TransCanada canceló definitivamente Energy East, asumiendo pérdidas por $1 mil millones. El anuncio ocurre mientras otras empresas abandonan proyectos de arenas bituminosas por su baja rentabilidad.",
+			"location": {
+				"label": "Calgary, Alberta, Canadá",
+				"type": "punto",
+				"coordinates": [[51.0447, -114.0719]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso muestra cómo las políticas climáticas y los mercados globales están transformando la industria energética canadiense. 59% de los canadienses ahora priorizan el clima sobre el petróleo, según encuestas recientes.",
+			"location": {
+				"label": "Canadá",
+				"type": "polígono",
+				"coordinates": [[56.1304, -106.3468], [46.5653, -66.4619]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Alberta busca ahora acelerar el oleoducto Trans Mountain hacia la costa oeste, pero enfrenta resistencia en British Columbia. Mientras, el gobierno federal defiende su proceso de evaluación ambiental.",
+			"location": {
+				"label": "British Columbia, Canadá",
+				"type": "área",
+				"coordinates": [[53.7267, -127.6476]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La cancelación de Energy East marca un punto de inflexión en la política energética canadiense, donde las consideraciones climáticas y económicas están redefiniendo el futuro de los combustibles fósiles en el país.",
+			"location": {
+				"label": "Canadá",
+				"type": "polígono",
+				"coordinates": [[56.1304, -106.3468], [46.5653, -66.4619]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -10894,7 +16129,77 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Mientras Enbridge se apresura a construir el oleoducto Línea 3, la resistencia aumenta en los tribunales y en el terreno",
+	"subtitulo": "Indígenas y activistas enfrentan a una gigante energética en una batalla por el clima, el agua y los derechos ancestrales",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Comunidades indígenas y grupos ambientalistas en Minnesota se oponen a la construcción del oleoducto Línea 3 de Enbridge, argumentando que amenaza tierras ancestrales, fuentes de agua y contribuye al cambio climático. La resistencia incluye protestas y desafíos legales.",
+		"location": {
+			"label": "Palisade, Minnesota, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[46.7122, -93.4896]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Línea 3, propiedad de la empresa canadiense Enbridge, se presenta como un reemplazo de una tubería antigua, pero los opositores lo consideran un nuevo proyecto por su mayor capacidad y ruta diferente. Transportaría crudo pesado desde Alberta (Canadá) hasta Wisconsin (EE.UU.), pasando por Minnesota, donde enfrenta fuerte resistencia.",
+			"location": {
+				"label": "Alberta, Canadá a Superior, Wisconsin, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[56.1304, -106.3468], [46.7208, -92.1041]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Tribus Ojibwe y grupos ambientalistas argumentan que el oleoducto viola tratados indígenas, amenaza humedales y arrozales silvestres, y empeorará la crisis climática. Enbridge insiste en que el proyecto es seguro y vital para la economía, pero su historial de derrames genera desconfianza.",
+			"location": {
+				"label": "Tierras Anishinaabe, Minnesota, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[47.0, -95.0], [48.0, -95.0], [48.0, -92.0], [47.0, -92.0]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "En diciembre 2020 comenzó la construcción del oleoducto pese a demandas pendientes. Activistas realizan protestas diarias y han sido arrestados, mientras Enbridge acelera obras para evitar posibles fallos judiciales futuros.",
+			"location": {
+				"label": "Great River Road, Palisade, Minnesota, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[46.7122, -93.4896], [46.7150, -93.4800]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El oleoducto podría emitir 193 millones de toneladas anuales de CO2, equivalente a 50 plantas de carbón. Su construcción en tierras indígenas sin consentimiento libre previo afecta la soberanía tribal y establece un precedente peligroso.",
+			"location": {
+				"label": "Minnesota, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[43.5, -97.5], [49.5, -97.5], [49.5, -89.0], [43.5, -89.0]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Tribus y ambientalistas presentaron demandas contra permisos estatales y federales. Esperan que la administración Biden revoque los permisos, como prometió con el oleoducto Keystone XL.",
+			"location": {
+				"label": "Tribunal de Apelaciones de Minnesota, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[44.9537, -93.1020]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Esta batalla refleja conflictos globales entre desarrollo energético y derechos indígenas/ambientales. El desenlace definirá el futuro de proyectos extractivos en tierras ancestrales y la lucha climática.",
+			"location": {
+				"label": "Reserva White Earth, Minnesota, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[47.1, -95.8], [47.4, -95.8], [47.4, -95.2], [47.1, -95.2]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -10984,7 +16289,68 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Líderes de Columbia Británica planean una gran manifestación contra el oleoducto Gateway de Enbridge el 22 de octubre",
+	"subtitulo": "Una ola de resistencia se levanta en Canadá: miles se preparan para desafiar un polémico proyecto petrolero",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Más de 80 líderes de diversos sectores en Canadá organizarán una sentada masiva frente a la legislatura provincial en Victoria, Columbia Británica, para protestar contra el oleoducto Gateway de Enbridge, en lo que podría ser uno de los mayores actos de desobediencia civil en la historia del país.", 
+		"location": {
+				"label": "Victoria, Columbia Británica, Canadá",
+				"type": "punto",
+				"coordinates": [[48.4284, -123.3656]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Gateway de Enbridge es un proyecto controvertido que busca transportar petróleo desde Alberta hasta la costa de Columbia Británica. Grupos ambientalistas, comunidades indígenas y otros sectores se oponen por los riesgos de derrames y el impacto climático.",
+			"location": {
+				"label": "Columbia Británica, Canadá",
+				"type": "polígonos",
+				"coordinates": [[53.7267, -127.6476]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El gobierno federal conservador apoya el proyecto, pero la creciente oposición en Columbia Británica, incluyendo a líderes empresariales, académicos y comunidades indígenas, amenaza con convertirse en un problema político clave.",
+			"location": {
+				"label": "Canadá",
+				"type": "polígonos",
+				"coordinates": [[56.1304, -106.3468]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El 22 de octubre, manifestantes realizarán una sentada masiva en Victoria, organizada por el movimiento DefendOurCoast, para exigir el rechazo al oleoducto.",
+			"location": {
+				"label": "Victoria, Columbia Británica, Canadá",
+				"type": "punto",
+				"coordinates": [[48.4284, -123.3656]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este acto podría ser histórico por su escala y diversidad de participantes, reflejando el creciente rechazo a proyectos extractivos que amenazan el medio ambiente y los derechos indígenas.",
+			"location": {
+				"label": "Columbia Británica, Canadá",
+				"type": "polígonos",
+				"coordinates": [[53.7267, -127.6476]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La protesta del 22 de octubre marca un punto de inflexión en la lucha contra el oleoducto Gateway, mostrando que la resistencia ciudadana puede desafiar incluso a los proyectos más apoyados por el gobierno.",
+			"location": {
+				"label": "Victoria, Columbia Británica, Canadá",
+				"type": "punto",
+				"coordinates": [[48.4284, -123.3656]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -11134,7 +16500,86 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Manifestantes de Bayou Bridge arrestados mientras Louisiana avanza un proyecto de ley que endurece las penas por protestas contra oleoductos",
+	"subtitulo": "La lucha por el medio ambiente choca con leyes más duras en Louisiana: ¿protección de infraestructura o silenciamiento de voces?",
+	"coordinate_system": "EPSG:4326 (WGS 84)",
+	"abstract": {
+		"details": "Manifestantes contra el oleoducto Bayou Bridge fueron arrestados en Iowa, Louisiana, tras bloquear una empresa de suministros industriales. Mismo día, un proyecto de ley que aumenta las penas por protestas cerca de infraestructuras críticas avanzó en la legislatura estatal.", 
+		"location": {
+				"label": "Iowa, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.2369, -93.0137]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Bayou Bridge, extensión del polémico Dakota Access, atraviesa el frágil ecosistema del Atchafalaya Basin, hábitat clave del cangrejo de río silvestre. Grupos ambientalistas llevan años oponiéndose, alegando riesgos de derrames y daños climáticos.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.3000, -91.7000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La protesta del 5 de abril buscaba paralizar obras bloqueando Yak Mat, proveedor de materiales para la construcción. Dos mujeres se encadenaron a barriles disfrazadas de cangrejos, simbolizando la amenaza a la fauna local. Mientras, el proyecto HB727 —inspirado en leyes similares en Oklahoma— avanzaba, penalizando protestas cerca de infraestructuras como 'actos terroristas'.",
+			"location": {
+				"label": "Yak Mat, Iowa, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.2369, -93.0137]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Activistas fueron arrestados tras negarse a dispersarse. Una enfrentó cargos por 'conspiración' bajo el nuevo proyecto, que castiga hasta con 20 años de prisión y $250,000 de multa por daños —o planeamiento— de protestas en infraestructuras críticas, ahora incluyendo oleoductos.",
+			"location": {
+				"label": "Iowa, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.2369, -93.0137]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La ley HB727, vinculada a grupos conservadores como ALEC, podría criminalizar la organización de protestas pacíficas. Comunidades como St. James —terminal del oleoducto— ya sufren impactos sanitarios por la industria, según denuncian activistas.",
+			"location": {
+				"label": "St. James, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.0300, -90.8300]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "HB727 amplía la definición de 'infraestructura crítica' (antes plantas energéticas) para incluir oleoductos. Penaliza daños, interferencias y hasta la 'conspiración' para protestar, incluso sin acciones violentas. Abogados alertan que permite arrestos preventivos.",
+			"location": {
+				"label": "Baton Rouge, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.4515, -91.1871]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Defensores del proyecto argumentan que protege empleos e infraestructura vital. Citan protestas como Standing Rock (Dakota del Norte) para justificar medidas drásticas.",
+			"location": {
+				"label": "Standing Rock, Dakota del Norte, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[46.0500, -100.6333]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras Louisiana prioriza proyectos energéticos, activistas insisten en que las protestas son la última opción ante la inacción climática. La tensión entre derechos civiles y seguridad industrial marca un precedente nacional.",
+			"location": {
+				"label": "Louisiana, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[31.0000, -92.0000], [33.0000, -92.0000], [33.0000, -89.0000], [31.0000, -89.0000]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -11244,7 +16689,70 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El oleoducto Keystone XL recibe un nuevo impulso de un equipo de cabilderos",
+	"subtitulo": "Cambios en la Casa Blanca reactivan la polémica infraestructura energética, pero el mercado y la regulación podrían decidir su futuro",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "TransCanada ha contratado a nuevos cabilderos para impulsar el polémico oleoducto Keystone XL, aprovechando el cambio de administración en la Casa Blanca. Sin embargo, la demanda insuficiente de petróleo de las arenas bituminosas de Alberta y los obstáculos regulatorios plantean dudas sobre su viabilidad.",
+		"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL, propuesto por TransCanada, ha sido un proyecto controvertido durante años, enfrentando oposición por preocupaciones ambientales y climáticas. Con la llegada de Donald Trump a la presidencia, el proyecto recibió un permiso presidencial en enero, pero ahora enfrenta nuevos desafíos.",
+			"location": {
+				"label": "Canadá, Alberta",
+				"type": "área",
+				"coordinates": [[52.2833, -117.4690]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "TransCanada ha contratado a cabilderos con conexiones tanto republicanas como demócratas para presionar a favor del proyecto. Sin embargo, la falta de demanda suficiente para el petróleo de las arenas bituminosas y los cambios regulatorios en el proceso de permisos podrían obstaculizar su avance.",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La empresa CGCN Group, donde trabajó el asesor energético de Trump, Mike Catanzaro, está liderando los esfuerzos de lobby para Keystone XL. Además, TransCanada ha sumado a su equipo a cabilderos con experiencia en ambos partidos políticos.",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El oleoducto no solo afectaría el mercado energético, sino que también podría sentar un precedente para futuros proyectos de infraestructura transfronteriza. Su aprobación o rechazo tendrá implicaciones ambientales, económicas y políticas.",
+			"location": {
+				"label": "Estados Unidos, México, Canadá",
+				"type": "polígonos",
+				"coordinates": [
+					[[37.0902, -95.7129], [23.6345, -102.5528], [56.1304, -106.3468]]
+				]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Aunque el apoyo político ha aumentado bajo la administración Trump, los desafíos económicos y regulatorios podrían determinar el destino final del Keystone XL. El proyecto sigue siendo un símbolo de la lucha entre desarrollo energético y sostenibilidad ambiental.",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -11380,7 +16888,68 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Cómo la maquinaria Koch impulsó discretamente el oleoducto Dakota Access y cómo se beneficia",
+	"subtitulo": "Un grupo financiado por la fortuna Koch abogó por el polémico oleoducto mientras una subsidiaria de la familia se prepara para lucrar",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Una investigación revela que el grupo 60 Plus Association, financiado por la familia Koch, ha presionado a favor del oleoducto Dakota Access a nivel estatal y federal. Mientras tanto, Flint Hills Resources, subsidiaria de Koch Industries, está posicionada para beneficiarse económicamente del proyecto.",
+		"location": {
+			"label": "Cannon Ball, Dakota del Norte, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[46.3906, -100.5986]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Dakota Access, diseñado para transportar crudo desde la formación Bakken hasta refinerías en el Golfo de México, ha sido objeto de fuertes protestas, especialmente por parte de la tribu Sioux de Standing Rock, que argumenta que el proyecto amenaza sus tierras sagradas y fuentes de agua.",
+			"location": {
+				"label": "Reserva Sioux de Standing Rock, Dakota del Norte, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[46.3906, -100.5986], [46.3910, -100.5990], [46.3920, -100.5970]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El grupo 60 Plus Association, vinculado a la familia Koch, ha realizado lobby a favor del oleoducto en Iowa y a nivel federal, argumentando beneficios económicos para los ciudadanos, especialmente adultos mayores. Sin embargo, no mencionó que Flint Hills Resources, subsidiaria de Koch Industries, tiene un contrato con el COLTHub, un terminal conectado directamente al oleoducto Dakota Access.",
+			"location": {
+				"label": "Iowa, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[42.032974, -93.581543], [41.508546, -95.942825], [40.375438, -91.430664]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Flint Hills Resources, propiedad de Koch Industries, tiene un acuerdo con el COLTHub en Dakota del Norte, que está conectado directamente al oleoducto Dakota Access. Esto significa que la compañía se beneficiará económicamente una vez que el oleoducto entre en funcionamiento.",
+			"location": {
+				"label": "COLTHub, Williams County, Dakota del Norte, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[48.3438, -103.1655]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este caso ilustra cómo grupos de interés con conexiones corporativas pueden influir en decisiones políticas y regulatorias sin revelar sus conflictos de interés. Además, resalta el impacto de los proyectos energéticos en comunidades indígenas y el medio ambiente.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras el oleoducto Dakota Access se prepara para entrar en operación, queda en evidencia cómo intereses corporativos pueden moldear políticas públicas bajo argumentos engañosos, dejando a comunidades locales y grupos indígenas lidiando con las consecuencias.",
+			"location": {
+				"label": "Golfo de México",
+				"type": "área",
+				"coordinates": [[25.0, -90.0], [30.0, -85.0]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -11482,7 +17051,68 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "ExxonMobil confirma una fisura de 22 pies en el oleoducto de arenas bituminosas de Arkansas",
+	"subtitulo": "Una fisura masiva en un oleoducto antiguo derrama miles de galones de crudo en un pueblo de Arkansas. ¿Fue un error humano o simplemente el paso del tiempo?",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El fiscal general de Arkansas, Dustin McDaniel, confirmó que una fisura de 22 pies en el oleoducto Pegasus de ExxonMobil causó un derrame de hasta 294,000 galones de arenas bituminosas en Mayflower el 29 de marzo. La investigación sigue en curso para determinar la causa exacta de la falla.",
+		"location": {
+			"label": "Mayflower, Arkansas, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[34.9570, -92.4289]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Pegasus, operado por ExxonMobil, transporta 95,000 barriles diarios de arenas bituminosas (conocidas como 'dilbit') desde Patoka, Illinois, hasta Nederland, Texas. Este crudo es más espeso y corrosivo que el petróleo convencional, lo que aumenta los riesgos de ruptura en tuberías antiguas.",
+			"location": {
+				"label": "Patoka, Illinois, Estados Unidos a Nederland, Texas, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[38.7545, -89.0842], [29.9744, -93.9924]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La fisura de 22 pies en el oleoducto, que tiene 65 años, provocó un derrame masivo en Mayflower, afectando calles y zonas residenciales. Aún se desconoce si la causa fue corrosión por la edad, fallas en las soldaduras o negligencia de ExxonMobil.",
+			"location": {
+				"label": "Mayflower, Arkansas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[34.9570, -92.4289]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "ExxonMobil entregó 12,587 páginas de documentos, incluidos planos técnicos, en respuesta a una citación del fiscal general. La investigación busca determinar responsabilidades y prevenir futuros incidentes.",
+			"location": {
+				"label": "Little Rock, Arkansas, Estados Unidos (oficinas del fiscal general)",
+				"type": "punto",
+				"coordinates": [[34.7465, -92.2896]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este incidente revive el debate sobre la seguridad de los oleoductos que transportan crudo no convencional, especialmente aquellos con décadas de antigüedad. También cuestiona la regulación de la industria energética en EE.UU.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras la investigación continúa, el derrame en Mayflower sirve como advertencia sobre los riesgos de infraestructura envejecida y la necesidad de mayor transparencia en la industria de los combustibles fósiles.",
+			"location": {
+				"label": "Mayflower, Arkansas, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[34.9570, -92.4289]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -11604,7 +17234,116 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "FERC aprueba la expansión de un gasoducto en el noroeste del Pacífico",
+	"subtitulo": "Una decisión polémica que choca con los objetivos climáticos de la región",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "La Comisión Federal de Regulación de Energía (FERC) aprobó la expansión del gasoducto GTN Xpress de TC Energy, aumentando el suministro de gas fracturado en el noroeste del Pacífico, a pesar de la oposición de gobernadores, senadores y grupos ambientales.",
+		"location": {
+			"label": "Estados Unidos, Noroeste del Pacífico (Idaho, Washington, Oregón)",
+			"type": "líneas",
+			"coordinates": [
+				[49.0000, -117.0000],
+				[44.5000, -114.0000],
+				[47.0000, -120.0000],
+				[44.0000, -123.0000],
+				[42.0000, -123.5000]
+			]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El gasoducto GTN, de 1,300 millas, transporta gas fracturado desde la frontera entre Canadá y EE.UU. hasta la costa oeste, pasando por Idaho, Washington y Oregón. TC Energy propuso aumentar su capacidad mediante la actualización de estaciones de compresión.",
+			"location": {
+				"label": "Frontera EE.UU.-Canadá hasta Oregón-California",
+				"type": "líneas",
+				"coordinates": [
+					[49.0000, -117.0000],
+					[42.0000, -123.5000]
+				]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Gobernadores, senadores y tribus indígenas se oponen al proyecto, argumentando que contradice las metas climáticas estatales. Oregón exige reducir emisiones de gas en un 90% para 2050.",
+			"location": {
+				"label": "Washington, Oregón, Idaho (EE.UU.)",
+				"type": "polígonos",
+				"coordinates": [
+					[47.0000, -120.0000],
+					[44.0000, -123.0000],
+					[44.5000, -114.0000]
+				]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "FERC aprobó el proyecto el 19 de octubre, ignorando la oposición y alegando necesidad de mayor suministro de gas. La expansión añadirá capacidad para 742,000 hogares.",
+			"location": {
+				"label": "Washington D.C., EE.UU. (sede de FERC)",
+				"type": "punto",
+				"coordinates": [
+					[38.9072, -77.0369]
+				]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El proyecto prolonga la dependencia de combustibles fósiles en una región con políticas climáticas ambiciosas. Grupos ambientalistas planean apelar la decisión.",
+			"location": {
+				"label": "Noroeste del Pacífico, EE.UU.",
+				"type": "área",
+				"coordinates": [
+					[49.0000, -117.0000],
+					[42.0000, -123.5000]
+				]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La aprobación refleja un patrón de FERC a favor de la industria del gas. Mientras, la región enfrenta sequías e incendios, exacerbados por el cambio climático.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [
+					[49.0000, -125.0000],
+					[25.0000, -125.0000],
+					[25.0000, -67.0000],
+					[49.0000, -67.0000]
+				]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "TC Energy argumenta que el gas es necesario para satisfacer la demanda energética, aunque críticos señalan que las regulaciones climáticas reducirán su uso.",
+			"location": {
+				"label": "Calgary, Canadá (sede de TC Energy)",
+				"type": "punto",
+				"coordinates": [
+					[51.0447, -114.0719]
+				]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Grupos como Columbia Riverkeeper presentarán una petición de rehearing. TC Energy no puede comenzar construcción hasta que se resuelva.",
+			"location": {
+				"label": "Oregón, EE.UU.",
+				"type": "polígonos",
+				"coordinates": [
+					[46.0000, -124.0000],
+					[42.0000, -124.0000],
+					[42.0000, -117.0000],
+					[46.0000, -117.0000]
+				]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -11756,7 +17495,86 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Enlace tribal del oleoducto Dakota Access trabajó previamente para la agencia que emitió el permiso para cruzar tierras tribales",
+	"subtitulo": "Un conflicto legal y ético sacude la construcción del polémico oleoducto en tierras sagradas indígenas",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "La tribu Standing Rock ha presentado una demanda contra el Cuerpo de Ingenieros del Ejército de EE.UU. por utilizar el controvertido Permiso Nacional 12 para acelerar la autorización del oleoducto Dakota Access. La demanda alega violaciones a leyes ambientales y de preservación histórica, mientras se revela que la enlace tribal del proyecto trabajó previamente para la misma agencia que emitió el permiso.",
+		"location": {
+			"label": "Standing Rock Indian Reservation, Dakota del Norte, EE.UU.",
+			"type": "polígono",
+			"coordinates": [[45.7450, -101.2006]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Dakota Access está diseñado para transportar petróleo extraído mediante fracking desde la cuenca Bakken Shale en Dakota del Norte hasta Patoka, Illinois. El proyecto ha enfrentado fuerte oposición de las tribus nativas americanas, especialmente la tribu Standing Rock, que considera que el trayecto del oleoducto amenaza tierras sagradas y fuentes de agua vitales.",
+			"location": {
+				"label": "Bakken Shale, Dakota del Norte, EE.UU.",
+				"type": "área",
+				"coordinates": [[47.9632, -103.2684]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La tribu Standing Rock alega que el Cuerpo de Ingenieros del Ejército violó múltiples leyes federales al autorizar el proyecto sin una consulta tribal adecuada, particularmente bajo la Sección 106 de la Ley Nacional de Preservación Histórica. Además, se reveló que Michelle Dippel, la enlace tribal contratada por la empresa constructora, trabajó previamente para el mismo Cuerpo de Ingenieros, lo que plantea serias cuestiones éticas.",
+			"location": {
+				"label": "Cannon Ball, Dakota del Norte, EE.UU.",
+				"type": "punto",
+				"coordinates": [[46.3908, -100.5979]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El caso judicial actualmente en curso en el Tribunal de Distrito de Washington, D.C. podría determinar si se emite una orden judicial para detener la construcción del oleoducto. Mientras tanto, manifestantes tribales continúan acampando en Sacred Stone Camp en protesta pacífica.",
+			"location": {
+				"label": "Tribunal de Distrito de EE.UU., Washington D.C., EE.UU.",
+				"type": "punto",
+				"coordinates": [[38.8951, -77.0364]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este caso pone en evidencia los conflictos entre el desarrollo energético y los derechos indígenas, así como posibles fallas en los procesos de consulta ambiental y cultural. También destaca preocupaciones sobre la 'puerta giratoria' entre reguladores gubernamentales y la industria privada.",
+			"location": {
+				"label": "Patoka, Illinois, EE.UU.",
+				"type": "punto",
+				"coordinates": [[38.7531, -89.0962]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "La Sección 106 de la NHPA requiere que las agencias federales consideren los efectos de sus proyectos en propiedades históricas, pero no exige preservación absoluta. En este caso, se alega que el proceso de revisión fue insuficiente y que las preocupaciones tribales fueron ignoradas.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "El juez James Boasberg emitirá un fallo sobre la solicitud de medida cautelar el 9 de septiembre, después de una audiencia programada para el 8 de septiembre. Mientras tanto, la construcción continúa bajo protesta.",
+			"location": {
+				"label": "Sacred Stone Camp, Dakota del Norte, EE.UU.",
+				"type": "punto",
+				"coordinates": [[46.2349, -100.6323]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El caso del oleoducto Dakota Access representa una encrucijada crítica entre desarrollo energético, derechos indígenas y ética profesional. El resultado podría sentar un precedente importante para futuros proyectos que afecten tierras tribales y recursos culturales.",
+			"location": {
+				"label": "Standing Rock Indian Reservation, Dakota del Norte, EE.UU.",
+				"type": "polígono",
+				"coordinates": [[45.7450, -101.2006]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -11880,7 +17698,68 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Empresa contratada por FERC para revisar el gasoducto Atlantic Coast de Dominion tiene vínculos con el principal contratista ambiental del proyecto",
+	"subtitulo": "Conflictos de interés en la revisión ambiental de un polémico gasoducto que atraviesa tres estados",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Una empresa consultora ambiental contratada por FERC para evaluar el gasoducto Atlantic Coast tiene conexiones con el principal contratista ambiental del proyecto, generando dudas sobre la independencia del proceso de revisión.",
+		"location": {
+			"label": "Estados Unidos, Virginia Occidental, Virginia, Carolina del Norte",
+			"type": "líneas",
+			"coordinates": [[38.920170, -80.181690], [37.548270, -77.446290], [35.759570, -79.019300]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El gasoducto Atlantic Coast es un proyecto de 550 millas que transportaría gas natural a través de Virginia Occidental, Virginia y Carolina del Norte. Promovido por Dominion Energy junto con Duke Energy y Southern Company, el proyecto requiere aprobación regulatoria de FERC (Federal Energy Regulatory Commission).",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[37.090240, -95.712890]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Merjent, la consultora ambiental contratada por FERC para revisar el proyecto, tiene vínculos con Natural Resource Group (NRG), el principal contratista ambiental del gasoducto. Ocho empleados de Merjent que trabajan en la revisión previamente trabajaron para NRG, incluyendo al gerente del proyecto.",
+			"location": {
+				"label": "Minneapolis, Minnesota, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[44.977750, -93.265010]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La Declaración de Impacto Ambiental preliminar (DEIS) del proyecto, que recibió una evaluación generalmente positiva, fue firmada por estos ex-empleados de NRG ahora en Merjent, lo que plantea preocupaciones sobre posibles conflictos de interés en el proceso de revisión regulatoria.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.907190, -77.036870]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El proyecto ha generado fuerte oposición por sus impactos ambientales potenciales. Grupos ambientalistas han solicitado a FERC que revise la DEIS, argumentando que es inadecuada. La independencia del proceso de revisión es crucial para garantizar una evaluación objetiva de los riesgos.",
+			"location": {
+				"label": "Augusta County, Virginia, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.163600, -79.133800]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Los vínculos entre los consultores que revisan el proyecto y los contratistas que lo desarrollan plantean serias dudas sobre la transparencia del proceso de aprobación de este polémico gasoducto, en un momento de creciente oposición pública al proyecto.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[37.090240, -95.712890]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -12018,7 +17897,77 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El oleoducto Keystone XL Sur de TransCanada comienza operaciones hoy",
+	"subtitulo": "Activistas y residentes de Texas siguen luchando contra el polémico proyecto mientras arranca su operación",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "La porción sur del oleoducto Keystone XL de TransCanada inicia operaciones, pese a la oposición de ambientalistas y residentes por riesgos de derrames y falta de transparencia.",
+		"location": {
+			"label": "Estados Unidos, Texas",
+			"type": "línea",
+			"coordinates": [[30.2672, -97.7431], [29.7604, -95.3698]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL conecta las arenas bituminosas de Alberta (Canadá) con refinerías en la Costa del Golfo de EE.UU. La sección sur, ahora llamada 'Gulf Coast Pipeline Project', fue aprobada por decreto presidencial en 2012.",
+			"location": {
+				"label": "Canadá, Alberta; Estados Unidos, Texas",
+				"type": "línea",
+				"coordinates": [[53.9333, -116.5765], [29.7604, -95.3698]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "TransCanada no revela qué tipo de crudo transportará, generando preocupación por derrames de 'dilbit' (bitumen diluido), más tóxico que el petróleo convencional. Activistas y dueños de tierras denuncian falta de supervisión gubernamental.",
+			"location": {
+				"label": "Estados Unidos, Texas",
+				"type": "polígono",
+				"coordinates": [[31.9686, -99.9018], [26.8206, -98.7395], [32.4487, -94.3188]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La puesta en marcha del oleoducto ocurre pese a reparaciones cuestionadas en su construcción y demandas legales pendientes por expropiaciones de tierras.",
+			"location": {
+				"label": "Estados Unidos, Winnsboro, Texas",
+				"type": "punto",
+				"coordinates": [[32.9579, -95.2905]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El proyecto simboliza la contradicción de la política energética de EE.UU., priorizando combustibles fósiles sobre energías limpias, con riesgos ambientales a largo plazo.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[25.0, -125.0], [49.0, -67.0]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "TransCanada afirma que el oleoducto cumple 57 condiciones de seguridad adicionales, siendo 'el más seguro jamás construido', aunque reguladores no corroboran esta afirmación.",
+			"location": {
+				"label": "Canadá, Calgary",
+				"type": "punto",
+				"coordinates": [[51.0447, -114.0719]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El inicio de operaciones no detendrá las protestas. Activistas prometen vigilar estrechamente posibles fugas, mientras dueños de tierras exigen mayor responsabilidad corporativa.",
+			"location": {
+				"label": "Estados Unidos, Costa del Golfo",
+				"type": "área",
+				"coordinates": [[28.0, -97.0], [30.0, -89.0]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -12120,7 +18069,77 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Consultores de Keystone Pipeline, ERM, criticados en el pasado por aprobación de oleoducto de BP en Turquía",
+	"subtitulo": "Historial controvertido: la firma detrás del estudio ambiental de Keystone XL también avaló un polémico proyecto de BP",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "ERM, la consultora responsable del estudio de impacto ambiental del oleoducto Keystone XL, enfrentó críticas similares en 2002 por su evaluación del oleoducto Baku-Tbilisi-Ceyhan de BP en Turquía. Activistas denunciaron que el estudio fue sesgado para facilitar su construcción, al igual que se cuestiona ahora con Keystone XL.",
+		"location": {
+			"label": "Turquía, Ceyhan",
+			"type": "punto",
+			"coordinates": [[36.8000, 35.6167]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "ERM es una consultora ambiental contratada para evaluar proyectos energéticos. En 2002, realizó el estudio del oleoducto Baku-Tbilisi-Ceyhan de BP, que transporta crudo desde Azerbaiyán hasta Turquía. Ahora, está bajo escrutinio por su evaluación del polémico Keystone XL en Norteamérica.",
+			"location": {
+				"label": "Azerbaiyán, Bakú",
+				"type": "líneas",
+				"coordinates": [[40.4093, 49.8671], [41.7167, 44.7833], [36.8000, 35.6167]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Activistas de London Rising Tide ocuparon las oficinas de ERM en Londres en 2002, acusándolos de 'preparar el terreno' para la construcción del oleoducto de BP con un estudio ambiental cuestionable. Hoy, críticos señalan que ERM repite el mismo patrón con Keystone XL, favoreciendo a la industria petrolera.",
+			"location": {
+				"label": "Reino Unido, Londres",
+				"type": "punto",
+				"coordinates": [[51.5074, -0.1278]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "InsideClimate News reveló que el Departamento de Estado de EE.UU. basó su aprobación inicial de Keystone XL en análisis de consultoras con vínculos con la industria petrolera, incluyendo ERM, contratada por TransCanada (dueña del proyecto).",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Los estudios de impacto ambiental son clave para decidir si proyectos como Keystone XL avanzan. Si las consultoras tienen conflictos de interés, se pone en duda la objetividad de las evaluaciones y se ignoran riesgos reales para comunidades y el medio ambiente.",
+			"location": {
+				"label": "Canadá, Alberta",
+				"type": "polígonos",
+				"coordinates": [[[52.2833, -117.4690], [53.9333, -116.5765], [54.5000, -110.0000]]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "El oleoducto Baku-Tbilisi-Ceyhan operó pese a las críticas, afectando a pescadores locales. Ahora, los cuestionamientos a ERM reavivan el debate sobre la independencia de estos estudios en Keystone XL.",
+			"location": {
+				"label": "Turquía, Golfo de İskenderun",
+				"type": "área",
+				"coordinates": [[36.8000, 35.6167], [36.8500, 35.8000], [36.7000, 35.9000]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El historial de ERM muestra un patrón de evaluaciones favorables a la industria petrolera. Esto exige mayor transparencia en procesos de aprobación para evitar daños ambientales y sociales.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": []
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -12268,7 +18287,95 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Otro camión de gasoducto virtual que transporta gas fracturado se estrella en Nueva York. Activistas climáticos exigen acción urgente",
+	"subtitulo": "Un accidente mortal reaviva el debate sobre la seguridad de transportar gas comprimido en carreteras locales",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un camión que transportaba gas natural comprimido extraído del esquisto Marcellus se volcó en la Interestatal 88 cerca de Binghamton, Nueva York, provocando una fuga de metano y la muerte del conductor. El incidente ha generado protestas por la seguridad de estos 'gasoductos virtuales'.",
+		"location": {
+			"label": "Binghamton, Broome County, Nueva York, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[42.0987, -75.9180]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Los 'gasoductos virtuales' son camiones que transportan gas natural comprimido en cilindros especiales hacia zonas rurales o lugares sin conexión a redes de distribución. Esta tecnología ha crecido en Nueva York como alternativa a los gasoductos tradicionales, pero enfrenta críticas por su seguridad.",
+			"location": {
+				"label": "Nueva York, Estados Unidos",
+				"type": "área",
+				"coordinates": [[43.2994, -74.2179]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Activistas y residentes denuncian que estos camiones operan con permisos cuestionables y representan un riesgo para comunidades cercanas a carreteras. Investigaciones sugieren que los contenedores no cumplen con normas de seguridad ante accidentes.",
+			"location": {
+				"label": "Broome County, Nueva York, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[42.1600, -75.8200]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El accidente del 23 de septiembre dejó un conductor muerto, evacuaciones masivas y una fuga de metano. Es el último de una serie de incidentes similares en la región en los últimos años.",
+			"location": {
+				"label": "Interestatal 88, Binghamton, Nueva York, Estados Unidos",
+				"type": "línea",
+				"coordinates": [[42.0987, -75.9180]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El metano es un gas de efecto invernadero 80 veces más potente que el CO2. Estos accidentes ponen en riesgo a comunidades y contradicen los objetivos climáticos de Nueva York, donde el activismo ambiental está en auge.",
+			"location": {
+				"label": "Nueva York, Estados Unidos",
+				"type": "área",
+				"coordinates": [[43.2994, -74.2179]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "Las empresas usan permisos especiales de PHMSA para fabricar contenedores de fibra de carbono, material no autorizado normalmente para transportar gas comprimido. Activistas argumentan que estos permisos eluden regulaciones más estrictas.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "PHMSA defiende que revisa continuamente los permisos para garantizar seguridad. La industria argumenta que estos camiones son necesarios para llevar energía a zonas remotas.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Grupos ambientalistas planean una protesta masiva ('Earth to Cuomo') para exigir la prohibición de estos camiones. Mientras, la industria sigue expandiendo la tecnología con nuevos modelos de trailers.",
+			"location": {
+				"label": "Poughkeepsie, Nueva York, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[41.7004, -73.9210]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El accidente reavivó un debate complejo entre necesidades energéticas, seguridad pública y crisis climática. Con una industria en expansión y activistas cada vez más organizados, el conflicto está lejos de resolverse.",
+			"location": {
+				"label": "Nueva York, Estados Unidos",
+				"type": "área",
+				"coordinates": [[43.2994, -74.2179]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -12390,7 +18497,77 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Reporte: El 90% de las explosiones en gasoductos no reciben multas financieras",
+	"subtitulo": "Un análisis revela la débil regulación federal sobre accidentes en gasoductos y sus mínimas consecuencias para las empresas responsables.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un informe revela que el 90% de las 137 explosiones o incendios en gasoductos interestatales desde 2010 no han generado multas financieras para las empresas responsables. Las autoridades federales solo impusieron $5.4 millones en sanciones en 13 casos durante los últimos ocho años.",
+		"location": {
+			"label": "Estados Unidos",
+			"type": "área",
+			"coordinates": [[37.0902, -95.7129]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Los gasoductos transportan gas natural a través de millones de millas en EE.UU. Aunque los incidentes graves son relativamente raros, más de 300 personas han muerto y 1,200 han resultado heridas en los últimos 20 años debido a accidentes en estas infraestructuras.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La Administración de Seguridad de Tuberías y Materiales Peligrosos (PHMSA) tiene una autoridad limitada para imponer multas significativas a las empresas de combustibles fósiles responsables de explosiones o incendios en gasoductos. En casos como el de San Bruno, California (2010), donde murieron ocho personas, las sanciones recayeron en autoridades estatales, no federales.",
+			"location": {
+				"label": "San Bruno, California, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[37.6305, -122.4111]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Solo 13 de 137 incidentes en gasoductos interestatales desde 2010 resultaron en multas federales, sumando apenas $5.4 millones. Esta cifra es inferior a un día de ganancias de una gran empresa como TransCanada.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "La falta de sanciones fuertes incentiva la negligencia en el mantenimiento de infraestructuras críticas, poniendo en riesgo vidas humanas y el medio ambiente. Además, aumenta la oposición ciudadana a nuevos proyectos de gasoductos, como el Atlantic Coast Pipeline y el Mountain Valley Pipeline.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Organizaciones ambientalistas, como el Sierra Club, exigen detener la construcción de nuevos gasoductos, argumentando que las energías renovables son una alternativa más segura y accesible.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El informe evidencia la necesidad de una regulación más estricta y sanciones proporcionales para garantizar la seguridad pública y ambiental en la industria de los combustibles fósiles.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -12536,7 +18713,77 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Un juez falla a favor de las grandes petroleras en el caso del oleoducto de Maine",
+	"subtitulo": "Una batalla legal con consecuencias nacionales: ¿Pueden las comunidades locales proteger su aire y agua frente a los intereses de la industria petrolera?",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un juez federal ha fallado en contra de la ciudad de South Portland, Maine, en su intento de evitar que el oleoducto Portland-Montreal transporte petróleo de arenas bituminosas desde Canadá. La decisión podría sentar un precedente peligroso para los derechos de las comunidades locales.",
+		"location": {
+			"label": "South Portland, Maine, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[43.6415, -70.2409]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Portland-Montreal, propiedad de ExxonMobil, Shell y Suncor, actualmente transporta petróleo refinado desde South Portland hacia Montreal, Canadá. Sin embargo, debido al exceso de petróleo en Canadá, la infraestructura opera muy por debajo de su capacidad. Las petroleras buscan revertir su flujo para exportar petróleo de arenas bituminosas desde Canadá a través de South Portland.",
+			"location": {
+				"label": "Portland-Montreal Pipeline, Maine/Canadá",
+				"type": "líneas",
+				"coordinates": [[43.6415, -70.2409], [45.5017, -73.5673]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "En 2014, South Portland aprobó la 'Ordenanza de Cielos Limpios' para prohibir la exportación de crudo, protegiendo la calidad del aire. La industria petrolera, que ya había gastado $750,000 para bloquear una votación ciudadana sobre el tema, demandó a la ciudad. El caso ahora cuestiona si las comunidades pueden regular proyectos que afecten su salud y medio ambiente.",
+			"location": {
+				"label": "South Portland, Maine, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[43.6289, -70.2962], [43.6289, -70.1856], [43.6541, -70.1856], [43.6541, -70.2962]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El juez John Woodcock Jr. permitió que la demanda de las petroleras continúe, argumentando que aunque el proyecto no sea viable hoy, el mercado petrolero es impredecible. Ignoró la falta de suministro confirmado de crudo y minimizó los riesgos para el lago Sebago, fuente de agua potable para el 15% de Maine.",
+			"location": {
+				"label": "Tribunal Federal, Distrito de Maine, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[43.6571, -70.2588]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El fallo podría impedir que otras comunidades regulen proyectos petroleros, incluso cuando amenacen su salud o recursos naturales. Además, un derrame en el oleoducto bajo el lago Sebago —similar al desastre de Kalamazoo en 2010— tendría consecuencias devastadoras.",
+			"location": {
+				"label": "Lago Sebago, Maine, Estados Unidos",
+				"type": "polígonos",
+				"coordinates": [[43.8564, -70.5806], [43.8564, -70.4542], [43.9253, -70.4542], [43.9253, -70.5806]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Las petroleras insisten en que el proyecto es viable, aunque no puedan demostrar de dónde vendría el crudo. El juez aceptó este argumento contradictorio, destacando que 'tienen un oleoducto en el suelo' como justificación suficiente.",
+			"location": {
+				"label": "Portland Pipe Line Corporation, South Portland, Maine",
+				"type": "punto",
+				"coordinates": [[43.6415, -70.2409]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La batalla legal continúa, pero el fallo preliminar favorece a la industria sobre los derechos locales. South Portland y otras comunidades podrían perder herramientas para protegerse de proyectos riesgosos, mientras las petroleras priorizan ganancias sobre la salud pública y el medio ambiente.",
+			"location": {
+				"label": "Greater Portland, Maine, Estados Unidos",
+				"type": "área",
+				"coordinates": [[43.5000, -70.4000]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -12706,7 +18953,77 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Trudeau aprueba el oleoducto Kinder Morgan Trans Mountain como parte del 'Plan Climático' de Canadá",
+	"subtitulo": "Una decisión polémica: ¿Cómo afectará el oleoducto al medio ambiente y a las comunidades indígenas?",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El primer ministro Justin Trudeau aprobó la expansión del oleoducto Kinder Morgan Trans Mountain, argumentando que es clave para cumplir con los compromisos climáticos de Canadá, a pesar de las críticas por su impacto ambiental y social.",
+		"location": {
+			"label": "Burnaby, British Columbia, Canadá",
+			"type": "punto",
+			"coordinates": [[49.2488, -122.9805]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Canadá se comprometió en el Acuerdo de París a reducir sus emisiones en un 30% para 2030. Sin embargo, sus políticas actuales no alcanzan esa meta. La expansión del oleoducto Trans Mountain, que transportará petróleo desde Alberta hasta la costa de British Columbia, aumentará la capacidad de transporte de 300,000 a 890,000 barriles diarios.",
+			"location": {
+				"label": "Alberta, Canadá",
+				"type": "área",
+				"coordinates": [[53.9333, -116.5765]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Grupos ambientalistas y comunidades indígenas se oponen al proyecto por su impacto climático y ecológico. El aumento del tráfico de buques petroleros en el mar de Salish amenaza a especies como las orcas residentes, que podrían extinguirse localmente.",
+			"location": {
+				"label": "Salish Sea, British Columbia, Canadá",
+				"type": "área",
+				"coordinates": [[48.5487, -123.4913]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Trudeau aprobó el oleoducto, afirmando que es de 'interés nacional' y que se construirá a pesar de la oposición. También anunció una prohibición de buques petroleros en la costa norte de British Columbia.",
+			"location": {
+				"label": "Ottawa, Ontario, Canadá",
+				"type": "punto",
+				"coordinates": [[45.4215, -75.6972]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El proyecto aumentará las emisiones de CO2 en hasta 277 megatoneladas anuales, dificultando aún más el cumplimiento de los objetivos climáticos de Canadá. Además, enfrenta desafíos legales por la falta de consulta a las Primeras Naciones.",
+			"location": {
+				"label": "Canadá",
+				"type": "área",
+				"coordinates": [[56.1304, -106.3468]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La aprobación del oleoducto divide al país: mientras el gobierno lo ve como un motor económico, sus críticos lo consideran un retroceso ambiental. Las batallas legales y protestas podrían retrasar o incluso detener el proyecto.",
+			"location": {
+				"label": "Vancouver, British Columbia, Canadá",
+				"type": "punto",
+				"coordinates": [[49.2827, -123.1207]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Trudeau defendió que el proyecto se evaluó cuidadosamente y que no se aprobaría si representara un riesgo grave para los ecosistemas. Sin embargo, expertos señalan que el proceso de revisión ignoró impactos climáticos y sociales clave.",
+			"location": {
+				"label": "National Energy Board, Calgary, Alberta, Canadá",
+				"type": "punto",
+				"coordinates": [[51.0486, -114.0708]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -12876,7 +19193,86 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Durante la Cumbre Climática de París, Obama firmó un proyecto de ley respaldado por Exxon y Koch que agiliza los permisos para oleoductos",
+	"subtitulo": "Mientras el mundo hablaba de clima, EE.UU. aceleraba su infraestructura petrolera",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Poco antes de que EE.UU. firmara el Acuerdo de París en la COP21, el presidente Obama promulgó una ley que acelera los permisos para oleoductos y proyectos energéticos, reduciendo plazos de evaluación ambiental y limitando demandas judiciales. La medida, impulsada por la industria petrolera, podría afectar la lucha contra el cambio climático.",
+		"location": {
+			"label": "Estados Unidos, Washington D.C.",
+			"type": "punto",
+			"coordinates": [[38.9072, -77.0369]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El Acuerdo de París (COP21) buscaba compromisos globales contra el cambio climático. Sin embargo, en paralelo, EE.UU. avanzaba en una ley que beneficia a la industria de combustibles fósiles. El marco legal para agilizar permisos surgió durante la polémica por el oleoducto Keystone XL.",
+			"location": {
+				"label": "Francia, París",
+				"type": "punto",
+				"coordinates": [[48.8566, 2.3522]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Grupos ambientalistas critican que la ley FAST Act reduzca de 6 a 2 años el plazo para demandas por impactos ambientales (NEPA) y limite a 180 días las evaluaciones. Empresas como Exxon, Koch Industries y Shell presionaron para su aprobación, mientras senadores como Rob Portman (beneficiado con $483,900 de la industria) la promovieron.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La ley incluye una sección que acelera permisos para infraestructura energética (oleoductos, refinerías, etc.) con inversiones mayores a $200 millones. Crea un Consejo Federal para supervisar estos proyectos y obliga a agencias a emitir resoluciones en máximo 180 días.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Esto facilita proyectos controvertidos como oleoductos de arenas bituminosas (altamente contaminantes) y debilita la participación ciudadana en decisiones ambientales. Podría aumentar emisiones de CO₂, contradiciendo los objetivos climáticos de París.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": [[0, 0]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "La ley modifica el NEPA ('Carta Magna ambiental' de EE.UU.), que exige evaluar impactos ecológicos y sociales antes de aprobar proyectos. Ahora las revisiones son más rápidas y las comunidades afectadas tienen menos tiempo para recurrir a tribunales.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "La Cámara de Comercio y sindicatos argumentan que agilizar permisos crea empleos y reactiva la economía. Obama mismo había sugerido medidas similares en su Consejo de Empleos (2011), donde participaban CEOs como Jeffrey Immelt (GE).",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Aunque la industria celebra el fin de la 'Keystone-ización' (protestas que retrasan proyectos), grupos ecologistas advierten que las comunidades seguirán resistiendo. La tensión entre desarrollo energético y protección ambiental sigue abierta.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": [[0, 0]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -13038,7 +19434,86 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Propietaria de Louisiana obligada a responsabilizar a Bayou Bridge Pipeline por daños en su hogar",
+	"subtitulo": "Una mujer lucha contra una empresa petrolera mientras su casa se resquebraja junto a un polémico oleoducto",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Melinda Tillies enfrenta daños estructurales en su casa debido a la construcción del oleoducto Bayou Bridge, ubicado a solo 25 pies de su propiedad en Youngsville, Louisiana. La empresa no ha asumido responsabilidad total por los perjuicios.",
+		"location": {
+			"label": "Youngsville, Louisiana, Estados Unidos",
+			"type": "punto",
+			"coordinates": [[30.0996, -91.9907]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Bayou Bridge, propiedad de Energy Transfer Partners, se extiende 162.5 millas desde Texas hasta Louisiana. Cruza terrenos privados y está sujeto a regulaciones federales por atravesar límites estatales. Su propósito es transportar petróleo desde Dakota del Norte hasta la costa de Louisiana para exportación.",
+			"location": {
+				"label": "Nederland, Texas a St. Charles, Louisiana, Estados Unidos",
+				"type": "líneas",
+				"coordinates": [[29.9744, -93.9924], [29.9280, -90.3708]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "La construcción del oleoducto causó grietas y desniveles en la casa de Tillies. Aunque la empresa inicialmente prometió reparaciones, rechazó cubrir el costo total ($15,050) y sugirió que contratara un abogado. Tillies teme que los daños empeoren y afecten el valor de su propiedad.",
+			"location": {
+				"label": "Youngsville, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.0996, -91.9907]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Tillies no fue informada sobre el proyecto hasta que comenzó la construcción. Las vibraciones durante la instalación dañaron su casa, y la empresa no ha cumplido con compensarla adecuadamente, dejándola en un limbo legal y financiero.",
+			"location": {
+				"label": "Youngsville, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.0996, -91.9907]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso expone la falta de regulación sobre la proximidad de oleoductos a viviendas y la escasa protección para propietarios afectados. Organizaciones como Pipeline Safety Trust critican que no hay asistencia gubernamental en estos conflictos.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "Tillies documenta meticulosamente los daños para un posible litigio. Mientras, la empresa afirma que las conversaciones están 'en curso', pero Tillies considera su actitud evasiva.",
+			"location": {
+				"label": "Youngsville, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.0996, -91.9907]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Energy Transfer Partners declara tratar a los propietarios 'con respeto', pero residentes como Tillies denuncian trato negligente. La empresa alega seguir protocolos federales, aunque estos no especifican distancias mínimas entre oleoductos y viviendas.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El caso de Tillies refleja un problema sistémico: comunidades vulnerables asumen riesgos sin información ni recursos legales. Su lucha advierte sobre los costos humanos de la expansión de infraestructura petrolera.",
+			"location": {
+				"label": "Youngsville, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.0996, -91.9907]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -13150,7 +19625,77 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "El último impulso propagandístico del grupo pro-oleoductos GAIN",
+	"subtitulo": "Una fachada de infraestructura que esconde intereses ocultos en la lucha por los oleoductos",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El grupo Grow America’s Infrastructure Now (GAIN), antes conocido como Midwest Alliance for Infrastructure Now (MAIN), está impulsando una campaña pro-oleoductos bajo la apariencia de promover infraestructura en general. Recientemente, han lanzado una herramienta de 'verificación de hechos' cuestionable y han sido vinculados a tácticas de desinformación.",
+		"location": {
+			"label": "Estados Unidos",
+			"type": "área",
+			"coordinates": [[37.0902, -95.7129]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "GAIN se presenta como un grupo que promueve el desarrollo de infraestructura, incluyendo carreteras y puentes, pero su enfoque real son los oleoductos. Anteriormente operaba bajo otro nombre (MAIN) y está vinculado a la firma de relaciones públicas DCI, conocida por crear grupos fachada para intereses corporativos y políticos.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "GAIN ha sido acusado de usar tácticas engañosas, como publicar artículos de opinión pro-oleoductos sin revelar conflictos de interés. Uno de sus asesores, James 'Spider' Marks, ha escrito en varios medios sin mencionar su vinculación con el grupo. Además, su herramienta de 'verificación de hechos' ha sido criticada por basarse en estudios sesgados de la industria.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "GAIN lanzó una herramienta de verificación de datos que afirma combatir la 'desinformación' sobre oleoductos, pero sus afirmaciones se basan en estudios de la industria del gas natural, ignorando testimonios locales que contradicen sus conclusiones.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este tipo de campañas influyen en la opinión pública y las políticas energéticas, promoviendo proyectos controvertidos como el oleoducto Dakota Access y Keystone XL. La falta de transparencia y los conflictos de interés socavan el debate informado sobre energía y medioambiente.",
+			"location": {
+				"label": "Dakota del Norte, Estados Unidos",
+				"type": "área",
+				"coordinates": [[47.5515, -101.0020]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Los defensores de GAIN argumentan que los oleoductos son necesarios para el desarrollo económico y la seguridad energética. Sin embargo, críticos señalan que los estudios citados por el grupo no consideran impactos amplios en comunidades y el medioambiente.",
+			"location": {
+				"label": "Pensilvania, Estados Unidos",
+				"type": "área",
+				"coordinates": [[41.2033, -77.1945]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "GAIN opera como un grupo de presión disfrazado de promotor de infraestructura, utilizando tácticas cuestionables para influir en el debate público sobre oleoductos. Su falta de transparencia y estudios sesgados plantean dudas sobre su credibilidad.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -13248,7 +19793,80 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "TransCanada gastó $540,000 en cabildeo en el tercer trimestre para el oleoducto Keystone XL",
+	"subtitulo": "Dinero, poder y petróleo: cómo el lobby de TransCanada busca influir en la decisión sobre el polémico oleoducto",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "TransCanada Corp, la empresa detrás del controvertido oleoducto Keystone XL, gastó $540,000 en actividades de cabildeo durante el tercer trimestre de 2011. Los registros muestran pagos a firmas de lobby con conexiones políticas, incluyendo vínculos con el gobierno de Obama y Hillary Clinton, quien entonces lideraba el Departamento de Estado encargado de aprobar el proyecto.",
+		"location": {
+			"label": "Estados Unidos, Washington D.C.",
+			"type": "punto",
+			"coordinates": [[38.9072, -77.0369]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL está diseñado para transportar bitumen de las arenas petrolíferas de Alberta (Canadá) hasta la costa del Golfo en Port Arthur, Texas. El proyecto ha generado fuertes debates por su impacto ambiental y la oposición de comunidades locales, especialmente en Nebraska.",
+			"location": {
+				"label": "Canadá, Alberta; Estados Unidos, Texas, Port Arthur",
+				"type": "líneas",
+				"coordinates": [
+					[56.1304, -106.3468],
+					[29.8849, -93.9399]
+				]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Grupos ambientalistas como Friends of the Earth denuncian que el cabildeo masivo de TransCanada distorsiona el proceso democrático. Además, la contratación de Broderick Johnson, un exlobbyista de la empresa, por la campaña de Obama en 2012 generó críticas por conflictos de interés.",
+			"location": {
+				"label": "Estados Unidos, Nebraska",
+				"type": "polígonos",
+				"coordinates": [[41.4925, -99.9018]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "TransCanada destinó $540,000 en solo tres meses a firmas de lobby con conexiones en el gobierno de Obama, incluyendo a Bryan Cave LLP ($120,000) y McKenna, Long &amp; Aldridge ($30,000). Paul Elliott, su principal lobbista interno, gastó $390,000 adicionales.",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso ejemplifica cómo las grandes corporaciones energéticas influyen en decisiones políticas clave. El oleoducto afectaría ecosistemas y comunidades, pero el cabildeo intenso pone en duda si el gobierno prioriza intereses públicos o privados.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras el Departamento de Estado evaluaba el proyecto, el gasto en lobby y las conexiones políticas de TransCanada plantearon serias dudas sobre la transparencia del proceso. Para muchos, este caso refleja la necesidad de regulaciones más estrictas en la influencia corporativa.",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Defensores del proyecto argumentan que el cabildeo es legal y común en la política estadounidense. Además, el oleoducto generaría empleos y reduciría la dependencia energética de otros países.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -13406,7 +20024,77 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Contratista del Oleoducto Keystone XL, ERM, También Aprobó un Problemático Proyecto de Gasoducto en Perú",
+	"subtitulo": "La misma consultora que avaló el polémico Keystone XL dio luz verde a un proyecto en Perú con graves consecuencias ambientales y sociales",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "La firma consultora Environmental Resources Management (ERM), encargada de evaluar el impacto ambiental del oleoducto Keystone XL, también aprobó un proyecto de gasoducto en Perú que ha generado graves daños ecológicos y sociales, incluyendo explosiones, derrames y desplazamiento de comunidades indígenas.",
+		"location": {
+			"label": "Perú, Amazonas, Camisea",
+			"type": "punto",
+			"coordinates": [[-11.7833, -72.9667]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "ERM, contratada por el Departamento de Estado de EE.UU., evaluó positivamente el oleoducto Keystone XL (KXL), que transportaría crudo de arenas bituminosas desde Alberta, Canadá, hasta Texas. Sin embargo, esta misma firma también aprobó el proyecto Camisea en Perú, un gasoducto que ha tenido un historial desastroso.",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El gasoducto Camisea en Perú, aprobado por ERM, ha sufrido múltiples explosiones y derrames debido a materiales defectuosos y soldaduras mal realizadas. Además, ha provocado la deforestación de la Amazonía y el desplazamiento de comunidades indígenas.",
+			"location": {
+				"label": "Perú, Andes, Urubamba",
+				"type": "líneas",
+				"coordinates": [[-12.6, -72.9], [-13.3, -72.1]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "ERM, la misma consultora que avaló el KXL, dio un informe positivo para el proyecto Camisea II, ignorando los graves problemas del primer gasoducto, incluyendo derrames que contaminaron ríos y afectaron a comunidades locales.",
+			"location": {
+				"label": "Perú, Costa, Terminal de LNG",
+				"type": "punto",
+				"coordinates": [[-12.0, -77.2]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este caso revela un patrón en el que consultoras como ERM aprueban proyectos de alto riesgo ambiental y social, priorizando intereses corporativos sobre la sostenibilidad y los derechos de las comunidades afectadas.",
+			"location": {
+				"label": "Global",
+				"type": "área",
+				"coordinates": [[-90, -180], [90, 180]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "El proyecto Camisea ha dejado un legado de contaminación, deforestación y conflictos sociales, mientras que las empresas involucradas, como Hunt Oil, han sido acusadas de sobornos para asegurar su aprobación.",
+			"location": {
+				"label": "Perú, Amazonas, Río Toccate",
+				"type": "punto",
+				"coordinates": [[-11.9, -73.1]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La aprobación de proyectos como Camisea y Keystone XL por consultoras con conflictos de interés plantea serias dudas sobre la transparencia y la responsabilidad ambiental en la industria energética.",
+			"location": {
+				"label": "Canadá, Alberta",
+				"type": "punto",
+				"coordinates": [[55.0, -115.0]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -13526,7 +20214,77 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Aumentan las protestas contra el mega gasoducto denominado 'el DAPL de Europa'",
+	"subtitulo": "Comunidades en Italia y otros países se oponen a un proyecto que amenaza el medio ambiente y perpetúa el uso de combustibles fósiles",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Miles de personas protestan en Italia contra el Mega Gasoducto Euro-Caspio (ECMP), un proyecto de 3,500 km que transportará gas desde Azerbaiyán hasta Italia, atravesando seis países. Activistas lo comparan con el polémico Dakota Access Pipeline (DAPL) en EE.UU. por sus impactos ambientales y sociales.",
+		"location": {
+			"label": "Italia, Puglia",
+			"type": "punto",
+			"coordinates": [[40.4637, 17.2481]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El Mega Gasoducto Euro-Caspio (ECMP) es un proyecto de $45 mil millones que transportará gas desde los campos petroleros de Azerbaiyán hasta Italia, pasando por seis países. El gasoducto forma parte de la Unión Energética de la Comisión Europea, pero ha generado críticas por su impacto ambiental y su dependencia de combustibles fósiles.",
+			"location": {
+				"label": "Azerbaiyán, Mar Caspio",
+				"type": "punto",
+				"coordinates": [[40.1431, 47.5769]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Comunidades locales en Italia, Turquía, Albania y Grecia protestan contra el proyecto. En Italia, la tala de olivos centenarios ha generado indignación, mientras que en Turquía el gasoducto atraviesa regiones kurdas afectadas por conflictos. Además, se denuncia falta de consulta y compensación justa a agricultores.",
+			"location": {
+				"label": "Turquía, Región Kurda",
+				"type": "polígono",
+				"coordinates": [[37.9615, 40.2319]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El gasoducto está financiado con dinero público, incluyendo un préstamo récord de €2 mil millones del Banco Europeo de Inversiones. Organizaciones como Platform y Bankwatch advierten que el proyecto es económicamente inviable y contradice los objetivos climáticos de Europa.",
+			"location": {
+				"label": "Unión Europea, Bruselas",
+				"type": "punto",
+				"coordinates": [[50.8503, 4.3517]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El ECMP consolidaría el uso de gas fósil en Europa durante 50 años, en un momento crítico para reducir emisiones. Además, el proyecto está vinculado a un régimen acusado de corrupción y violaciones de derechos humanos en Azerbaiyán.",
+			"location": {
+				"label": "Azerbaiyán, Bakú",
+				"type": "punto",
+				"coordinates": [[40.4093, 49.8671]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Las protestas reflejan un conflicto global entre proyectos energéticos a gran escala y las demandas de justicia ambiental y transición energética. El caso del ECMP muestra cómo la geopolítica y los intereses económicos chocan con las preocupaciones locales y climáticas.",
+			"location": {
+				"label": "Europa",
+				"type": "área",
+				"coordinates": [[50.1109, 10.0175]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Los defensores del proyecto argumentan que diversifica las fuentes de energía de Europa y reduce la dependencia del gas ruso. Sin embargo, críticos señalan que esto no justifica invertir en infraestructura fósil a largo plazo.",
+			"location": {
+				"label": "Rusia",
+				"type": "área",
+				"coordinates": [[61.5240, 105.3188]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -13650,7 +20408,68 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Warren Buffett compró participación en empresa de oleoductos el mismo día de la explosión de tren petrolero en Dakota del Norte",
+	"subtitulo": "El magnate invierte en transporte de crudo mientras aumentan los riesgos de accidentes ferroviarios",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "El mismo día que un tren petrolero de BNSF explotó en Dakota del Norte, Warren Buffett compró una participación importante en Phillips Specialty Products Inc., empresa especializada en optimizar el flujo de crudo en oleoductos.", 
+		"location": {
+				"label": "Casselton, Dakota del Norte, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[46.9005, -97.2107]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Warren Buffett, dueño de Berkshire Hathaway (propietaria de BNSF), ha invertido fuertemente en el transporte de petróleo, tanto por ferrocarril como por oleoductos. El accidente en Casselton ocurrió en un contexto de aumento en el transporte de crudo por tren, especialmente desde la formación Bakken.",
+			"location": {
+				"label": "Bakken Shale, Dakota del Norte, Estados Unidos",
+				"type": "área",
+				"coordinates": [[47.8500, -103.0000]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Los trenes petroleros, llamados 'trenes bomba' por su volatilidad, han sufrido múltiples accidentes, incluyendo uno en Lac-Mégantic (Quebec) que dejó 47 muertos. La explosión en Casselton revivió preocupaciones sobre la seguridad del transporte ferroviario de crudo.",
+			"location": {
+				"label": "Lac-Mégantic, Quebec, Canadá",
+				"type": "punto",
+				"coordinates": [[45.5833, -70.8833]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Buffett adquirió una participación en Phillips Specialty Products Inc., empresa que optimiza el flujo en oleoductos, el mismo día del accidente en Casselton. Esto refleja su estrategia de invertir en todas las facetas del transporte de petróleo.",
+			"location": {
+				"label": "Houston, Texas, Estados Unidos (Sede de Phillips 66)",
+				"type": "punto",
+				"coordinates": [[29.7604, -95.3698]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El incidente expone los riesgos del transporte de crudo por ferrocarril, mientras Buffett apuesta también por oleoductos, generando debates sobre seguridad energética e intereses económicos en la industria petrolera.",
+			"location": {
+				"label": "Estados Unidos y Canadá",
+				"type": "polígonos",
+				"coordinates": [[45.0, -120.0], [50.0, -60.0]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "Mientras aumentan los accidentes en trenes petroleros, las inversiones de Buffett en oleoductos y ferrocarriles muestran una apuesta integral por el transporte de crudo, pese a los riesgos y críticas por seguridad.",
+			"location": {
+				"label": "Omaha, Nebraska, Estados Unidos (Sede de Berkshire Hathaway)",
+				"type": "punto",
+				"coordinates": [[41.2565, -95.9345]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -13816,7 +20635,100 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La empresa detrás de la evaluación ambiental positiva del Oleoducto Dakota Access trabajaba simultáneamente en un oleoducto conexo para la misma compañía",
+	"subtitulo": "Conflictos de interés y sesgo en la evaluación ambiental de un polémico proyecto energético",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Una investigación revela que Perennial Environmental Services, la firma que realizó la evaluación ambiental del Oleoducto Dakota Access, también trabajaba para Energy Transfer en un oleoducto conexo, lo que sugiere un posible conflicto de interés.",
+		"location": {
+			"label": "Estados Unidos, Dakota del Norte, Illinois, Texas",
+			"type": "puntos",
+			"coordinates": [
+				[47.6506, -100.4378],
+				[40.6331, -89.3985],
+				[29.7604, -95.3698]
+			]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El Oleoducto Dakota Access (DAPL) es un proyecto de Energy Transfer que transporta crudo desde los campos de Bakken en Dakota del Norte hasta Illinois. Su aprobación generó protestas masivas, especialmente de comunidades indígenas.",
+			"location": {
+				"label": "Estados Unidos, Dakota del Norte, Bakken",
+				"type": "punto",
+				"coordinates": [[47.6506, -100.4378]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Perennial Environmental Services, contratada para la evaluación ambiental (EA) del DAPL, trabajaba simultáneamente en otro proyecto de Energy Transfer: la conversión del gasoducto Trunkline para transportar petróleo. Este oleoducto sería la extensión sur del DAPL.",
+			"location": {
+				"label": "Estados Unidos, Illinois, Patoka",
+				"type": "punto",
+				"coordinates": [[38.7545, -89.0959]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "Perennial concluyó que el DAPL no tendría impactos ambientales significativos, mientras recibía pagos de Energy Transfer por otros proyectos. El Cuerpo de Ingenieros del Ejército de EE.UU. (USACE) aprobó el oleoducto sin investigar posibles conflictos de interés.",
+			"location": {
+				"label": "Estados Unidos, Washington D.C.",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso expone fallas en los procesos de evaluación ambiental, donde consultoras privadas con posibles conflictos de interés influyen en decisiones que afectan a comunidades y ecosistemas. Además, revela vínculos entre la industria energética y quienes regulan sus proyectos.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "polígono",
+				"coordinates": [
+					[49.3845, -124.8489],
+					[24.3963, -124.8489],
+					[24.3963, -66.8854],
+					[49.3845, -66.8854]
+				]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "Las evaluaciones ambientales (EA) son estudios requeridos para proyectos que podrían afectar el medio ambiente. Aunque son responsabilidad de agencias federales como el USACE, a menudo son realizadas por consultoras privadas contratadas por las mismas empresas que proponen los proyectos.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [
+					[49.3845, -124.8489],
+					[24.3963, -124.8489],
+					[24.3963, -66.8854],
+					[49.3845, -66.8854]
+				]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Perennial y Energy Transfer niegan cualquier sesgo en la evaluación. Afirman que siguieron todos los reglamentos y que el USACE verificó independientemente los resultados. Perennial también asegura que las opiniones personales de sus empleados no influyen en sus trabajos profesionales.",
+			"location": {
+				"label": "Estados Unidos, Texas, Houston",
+				"type": "punto",
+				"coordinates": [[29.7604, -95.3698]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El caso del DAPL muestra cómo los conflictos de interés pueden socavar la credibilidad de las evaluaciones ambientales. Mientras las comunidades afectadas continúan su lucha contra el oleoducto, este reportaje plantea serias dudas sobre la transparencia del proceso de aprobación.",
+			"location": {
+				"label": "Estados Unidos, Dakota del Norte, Reserva Standing Rock",
+				"type": "punto",
+				"coordinates": [[46.1151, -100.8761]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -13942,7 +20854,83 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Los Gasoductos de Gas Natural en Estados Unidos – Una Mirada Más Cercana a Este Gigantesco Sistema",
+	"subtitulo": "Explorando la red invisible que alimenta a millones de hogares y empresas en EE.UU.",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Estados Unidos cuenta con una extensa red de gasoductos de gas natural que abastece a millones de hogares y empresas. Este sistema, compuesto por más de 305,000 millas de tuberías, es crucial para la economía y la vida diaria del país.",
+		"location": {
+			"label": "Estados Unidos",
+			"type": "área",
+			"coordinates": [[37.0902, -95.7129]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "En 2009, Estados Unidos superó a Rusia como el mayor productor y consumidor de gas natural, utilizando alrededor de 22 billones de pies cúbicos. Este combustible se emplea para calefacción, cocina, transporte y generación de energía, siendo considerado más limpio que el carbón o el petróleo.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "Aunque 32 estados producen gas natural, solo cinco (Texas, Wyoming, Oklahoma, Louisiana y Nuevo México) generan el 65% del total. Esto deja a 28 estados dependiendo en gran medida de las importaciones, lo que plantea desafíos logísticos y de seguridad energética.",
+			"location": {
+				"label": "Texas, Wyoming, Oklahoma, Louisiana, Nuevo México, Estados Unidos",
+				"type": "puntos",
+				"coordinates": [
+					[31.9686, -99.9018],
+					[43.0750, -107.2903],
+					[35.4676, -97.5164],
+					[30.9843, -91.9623],
+					[34.5199, -105.8701]
+				]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El sistema de gasoductos en EE.UU. abarca más de 305,000 millas, operado por 210 sistemas distintos. Además, existen más de 2 millones de millas de líneas de distribución locales que llevan el gas a hogares y negocios.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "El gas se extrae de pozos, se procesa y se comprime para viajar por los gasoductos a 15 millas por hora. Estaciones de compresión cada 50-100 millas mantienen el flujo. El gas llega a las ciudades, donde se reduce su presión y se añade un odorante para detectar fugas antes de su distribución final.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Esta red es vital para la economía y el bienestar social, pero también plantea riesgos de seguridad y medioambientales debido a su envejecimiento y posibles fugas. Además, la dependencia de unos pocos estados productores genera vulnerabilidades energéticas.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La infraestructura de gasoductos en EE.UU. es un sistema masivo y complejo que sostiene gran parte de la vida moderna. Sin embargo, requiere atención constante para garantizar su seguridad y eficiencia frente a la creciente demanda energética.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -14108,7 +21096,86 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "Opositores al oleoducto Bayou Bridge solicitan intervenir en audiencia de empresa de seguridad privada en Louisiana",
+	"subtitulo": "Comunidades y ambientalistas se enfrentan a gigantes energéticos en una batalla por el agua y los derechos civiles",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Grupos ambientalistas y comunidades locales se oponen a la construcción del oleoducto Bayou Bridge en Louisiana, mientras intentan bloquear el permiso de operación de TigerSwan, una firma de seguridad vinculada a tácticas controvertidas en protestas anteriores.",
+		"location": {
+			"label": "Louisiana, Estados Unidos",
+			"type": "área",
+			"coordinates": [[30.9842977, -91.9623327]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "Energy Transfer Partners (ETP), la empresa detrás del polémico oleoducto Dakota Access, planea construir el Bayou Bridge, un tramo de 162 millas que transportaría petróleo desde Dakota del Norte hasta Louisiana. El proyecto requiere permisos ambientales y enfrenta resistencia por sus impactos en humedales y comunidades.",
+			"location": {
+				"label": "Atchafalaya Basin, Louisiana, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[30.4, -91.6]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "TigerSwan, firma de seguridad que trabajó con ETP en Dakota Access, busca permiso para operar en Louisiana. Grupos opositores alegan que la compañía empleó tácticas militarizadas contra manifestantes en Standing Rock y podría repetir ese patrón.",
+			"location": {
+				"label": "Baton Rouge, Louisiana, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.4515, -91.1871]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "El Center for Constitutional Rights presentó una petición para que los grupos opositores participen en la audiencia del 14 de diciembre donde TigerSwan apelará la negativa de su permiso. Denuncian que la empresa infiltra comunidades y distorsiona información.",
+			"location": {
+				"label": "Louisiana State Capitol, Baton Rouge, Estados Unidos",
+				"type": "punto",
+				"coordinates": [[30.4583, -91.1876]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "El caso refleja la creciente privatización de la seguridad en conflictos ambientales y la criminalización de la protesta. También evidencia cómo empresas petroleras influyen en autoridades locales para aprobar proyectos controvertidos.",
+			"location": {
+				"label": "St. James Parish, Louisiana, Estados Unidos",
+				"type": "polígono",
+				"coordinates": [[30.03, -90.86]]
+			}
+		},
+		{
+			"section": "¿Cómo funciona?",
+			"content": "TigerSwan opera bajo un modelo que combina seguridad privada, inteligencia y relaciones públicas. Documentos filtrados muestran que usan tácticas de 'contraterrorismo' contra manifestantes, incluyendo vigilancia invasiva y campañas de desprestigio.",
+			"location": {
+				"label": "Chapel Hill, North Carolina, Estados Unidos (sede de TigerSwan)",
+				"type": "punto",
+				"coordinates": [[35.9132, -79.0558]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "Autoridades como el gobernador Edwards argumentan que el oleoducto generará empleos y que el transporte por tubería es más seguro que alternativas. Sin embargo, no han especificado qué tecnologías de seguridad implementarían.",
+			"location": {
+				"label": "Oficina del Gobernador, Baton Rouge, Louisiana",
+				"type": "punto",
+				"coordinates": [[30.4571, -91.1872]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "La audiencia de diciembre marcará un precedente sobre derechos de participación ciudadana y límites a las empresas de seguridad privada en conflictos ambientales. Las comunidades insisten en que Louisiana no será otro Standing Rock.",
+			"location": {
+				"label": "Louisiana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[30.9842977, -91.9623327]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
@@ -14262,7 +21329,86 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>```json
+{
+	"title": "La gran industria petrolera teme que el fallo contra Keystone XL signifique el fin de los permisos fáciles para oleoductos",
+	"subtitulo": "Un juez anula permisos clave para Keystone XL, lo que podría cambiar las reglas del juego para futuros proyectos de infraestructura energética",
+	"coordinate_system": "WGS84",
+	"abstract": {
+		"details": "Un fallo judicial en Montana anuló los permisos para cruces de agua del oleoducto Keystone XL, lo que podría afectar a otros proyectos de infraestructura energética en EE.UU. La decisión cuestiona el uso de un permiso rápido que evita evaluaciones ambientales rigurosas.",
+		"location": {
+			"label": "Montana, Estados Unidos",
+			"type": "área",
+			"coordinates": [[47.0527, -109.6333]]
+		}
+	},
+	"body": [
+		{
+			"section": "Contexto",
+			"content": "El oleoducto Keystone XL, un proyecto polémico que transportaría petróleo de arenas bituminosas desde Canadá hasta EE.UU., ha enfrentado una década de resistencia por parte de activistas climáticos. Recientemente, un juez federal anuló los permisos que permitían al proyecto cruzar cuerpos de agua en Montana, citando posibles violaciones a la Ley de Especies en Peligro de Extinción.",
+			"location": {
+				"label": "Montana, Estados Unidos",
+				"type": "área",
+				"coordinates": [[47.0527, -109.6333]]
+			}
+		},
+		{
+			"section": "Conflicto",
+			"content": "El juez Brian Morris determinó que el Cuerpo de Ingenieros del Ejército de EE.UU. no evaluó adecuadamente los impactos ambientales del proyecto, especialmente en especies protegidas como el esturión pálido. Además, criticó el uso del 'Permiso Nacional 12', un mecanismo que permite aprobar proyectos sin análisis ambientales profundos ni participación pública.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Hecho Central",
+			"content": "La decisión no solo afecta a Keystone XL, sino que podría invalidar temporalmente el uso del Permiso Nacional 12 para otros proyectos de infraestructura en todo el país. Esto ha generado preocupación en la industria petrolera, que depende de estos permisos para construir oleoductos y líneas de servicios públicos.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "¿Por qué es importante?",
+			"content": "Este fallo podría retrasar o bloquear cientos de proyectos energéticos en EE.UU., aumentando los costos y tiempos de construcción. También refuerza la importancia de evaluaciones ambientales rigurosas y participación pública en proyectos de infraestructura.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Resultados",
+			"content": "El Cuerpo de Ingenieros del Ejército suspendió temporalmente el uso del Permiso Nacional 12, afectando 360 solicitudes pendientes. Mientras tanto, el gobierno de Trump busca apelar la decisión, argumentando que perjudica la economía y la seguridad energética.",
+			"location": {
+				"label": "Washington D.C., Estados Unidos",
+				"type": "punto",
+				"coordinates": [[38.9072, -77.0369]]
+			}
+		},
+		{
+			"section": "Sí, pero",
+			"content": "La industria petrolera y algunos sindicatos argumentan que el fallo amenaza empleos y proyectos energéticos clave, especialmente en medio de la crisis económica por el COVID-19. Sin embargo, grupos ambientalistas celebran la decisión como una victoria para la protección del medio ambiente y las comunidades locales.",
+			"location": {
+				"label": "Estados Unidos",
+				"type": "área",
+				"coordinates": [[37.0902, -95.7129]]
+			}
+		},
+		{
+			"section": "Conclusión",
+			"content": "El fallo contra Keystone XL marca un precedente legal que podría cambiar cómo se aprueban los proyectos de infraestructura energética en EE.UU., priorizando evaluaciones ambientales rigurosas y participación pública sobre procesos acelerados. La batalla legal continúa, pero el impacto ya se siente en la industria y en otros proyectos como el gasoducto Permian Highway en Texas.",
+			"location": {
+				"label": "Texas, Estados Unidos",
+				"type": "área",
+				"coordinates": [[31.9686, -99.9018]]
+			}
+		}
+	]
+}
+```</t>
         </is>
       </c>
     </row>
